--- a/Results_MF_Benchmark.xlsx
+++ b/Results_MF_Benchmark.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9873264396208176</v>
+        <v>0.7720304168435163</v>
       </c>
       <c r="C2">
-        <v>0.9822055596380171</v>
+        <v>0.8543800526209527</v>
       </c>
       <c r="D2">
-        <v>1.052032844672789</v>
+        <v>0.5934389974641857</v>
       </c>
       <c r="E2">
-        <v>0.9314308423629428</v>
+        <v>0.9075614726086552</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.010138719033651</v>
+        <v>0.7610594460078443</v>
       </c>
       <c r="C3">
-        <v>0.9994221680092434</v>
+        <v>0.841585976607552</v>
       </c>
       <c r="D3">
-        <v>1.100762367376887</v>
+        <v>0.576315940177293</v>
       </c>
       <c r="E3">
-        <v>0.936915669806956</v>
+        <v>0.9088592254876013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.014001673606024</v>
+        <v>0.7614112447577462</v>
       </c>
       <c r="C4">
-        <v>1.013363166559126</v>
+        <v>0.8148154548436931</v>
       </c>
       <c r="D4">
-        <v>1.095782442003384</v>
+        <v>0.5941951580592122</v>
       </c>
       <c r="E4">
-        <v>0.9389156184662918</v>
+        <v>0.9117368173445921</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.060712421369015</v>
+        <v>0.7587814256462826</v>
       </c>
       <c r="C5">
-        <v>1.043681466302914</v>
+        <v>0.8216710804995283</v>
       </c>
       <c r="D5">
-        <v>1.223952448413373</v>
+        <v>0.5803004788675415</v>
       </c>
       <c r="E5">
-        <v>0.9342442792465212</v>
+        <v>0.9162186815639475</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.073652919869223</v>
+        <v>0.7380589262089208</v>
       </c>
       <c r="C6">
-        <v>1.027973443985116</v>
+        <v>0.8265459130899675</v>
       </c>
       <c r="D6">
-        <v>1.286035633219024</v>
+        <v>0.5313356062899017</v>
       </c>
       <c r="E6">
-        <v>0.9361745507938611</v>
+        <v>0.915455436471236</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.085864500800003</v>
+        <v>0.7284094452003855</v>
       </c>
       <c r="C7">
-        <v>1.058306865089972</v>
+        <v>0.8266954325901977</v>
       </c>
       <c r="D7">
-        <v>1.296288698097159</v>
+        <v>0.5124380149268336</v>
       </c>
       <c r="E7">
-        <v>0.933283436321643</v>
+        <v>0.9123045218481918</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.13494251302485</v>
+        <v>0.7371350679854319</v>
       </c>
       <c r="C8">
-        <v>1.077435845409527</v>
+        <v>0.8365806348473518</v>
       </c>
       <c r="D8">
-        <v>1.456412180915741</v>
+        <v>0.5232250663946663</v>
       </c>
       <c r="E8">
-        <v>0.9316351592213195</v>
+        <v>0.9150500909346834</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.174588127078368</v>
+        <v>0.7175512289974931</v>
       </c>
       <c r="C9">
-        <v>1.076551275107426</v>
+        <v>0.8238862097351799</v>
       </c>
       <c r="D9">
-        <v>1.613635435597156</v>
+        <v>0.4927988037789238</v>
       </c>
       <c r="E9">
-        <v>0.9328604430941717</v>
+        <v>0.9099590722429117</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.229605845644292</v>
+        <v>0.7283897195456199</v>
       </c>
       <c r="C10">
-        <v>1.034813277262766</v>
+        <v>0.8135395030149004</v>
       </c>
       <c r="D10">
-        <v>1.918836479333253</v>
+        <v>0.5215573773628281</v>
       </c>
       <c r="E10">
-        <v>0.9362628661770045</v>
+        <v>0.9107741253789129</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.15800059117752</v>
+        <v>0.7499764014503868</v>
       </c>
       <c r="C11">
-        <v>1.019528911357928</v>
+        <v>0.8472525130417248</v>
       </c>
       <c r="D11">
-        <v>1.624546449786223</v>
+        <v>0.5426643067399631</v>
       </c>
       <c r="E11">
-        <v>0.9375504877383971</v>
+        <v>0.9174843643317169</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.116672807417207</v>
+        <v>0.7559952336184814</v>
       </c>
       <c r="C12">
-        <v>0.9437864742064017</v>
+        <v>0.8687966824587176</v>
       </c>
       <c r="D12">
-        <v>1.568454389234353</v>
+        <v>0.5422465915260978</v>
       </c>
       <c r="E12">
-        <v>0.940658921472616</v>
+        <v>0.9171538373428065</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.156972485851072</v>
+        <v>0.7385691871870909</v>
       </c>
       <c r="C13">
-        <v>0.9602496291093886</v>
+        <v>0.8731954375134146</v>
       </c>
       <c r="D13">
-        <v>1.710579157895103</v>
+        <v>0.5030474508145728</v>
       </c>
       <c r="E13">
-        <v>0.9428481838927584</v>
+        <v>0.9171769778038465</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.110039328006782</v>
+        <v>0.7401865755638958</v>
       </c>
       <c r="C14">
-        <v>0.9562636073826458</v>
+        <v>0.8464594416429712</v>
       </c>
       <c r="D14">
-        <v>1.51987384697091</v>
+        <v>0.5231219896423659</v>
       </c>
       <c r="E14">
-        <v>0.9410873320486415</v>
+        <v>0.9158291928469985</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.097379307646947</v>
+        <v>0.7544953103138911</v>
       </c>
       <c r="C15">
-        <v>0.923425336512989</v>
+        <v>0.8546219280896938</v>
       </c>
       <c r="D15">
-        <v>1.522580616070311</v>
+        <v>0.5464240395841278</v>
       </c>
       <c r="E15">
-        <v>0.9399142145496784</v>
+        <v>0.9197415460139718</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.063073953328216</v>
+        <v>0.7921243120880399</v>
       </c>
       <c r="C16">
-        <v>0.8733306896657257</v>
+        <v>0.8627037144293869</v>
       </c>
       <c r="D16">
-        <v>1.469745125875823</v>
+        <v>0.6249782579763236</v>
       </c>
       <c r="E16">
-        <v>0.9359867093666144</v>
+        <v>0.9218355487727604</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.007970037998937</v>
+        <v>0.8145096065209375</v>
       </c>
       <c r="C17">
-        <v>0.8895988350569474</v>
+        <v>0.8739649604967611</v>
       </c>
       <c r="D17">
-        <v>1.234142423562095</v>
+        <v>0.6662455767717346</v>
       </c>
       <c r="E17">
-        <v>0.9327889262241079</v>
+        <v>0.9280262756826262</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.029633131722812</v>
+        <v>0.8097336430537245</v>
       </c>
       <c r="C18">
-        <v>0.9562122880044813</v>
+        <v>0.882624287264243</v>
       </c>
       <c r="D18">
-        <v>1.222481327229085</v>
+        <v>0.6474006028408258</v>
       </c>
       <c r="E18">
-        <v>0.933793770123003</v>
+        <v>0.929132343395204</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.045699342998323</v>
+        <v>0.8257911845987495</v>
       </c>
       <c r="C19">
-        <v>0.9954261600108663</v>
+        <v>0.9183818197693699</v>
       </c>
       <c r="D19">
-        <v>1.229736191591925</v>
+        <v>0.6559547238845842</v>
       </c>
       <c r="E19">
-        <v>0.9341131822087384</v>
+        <v>0.9347889831240579</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.085482705586815</v>
+        <v>0.8526106977877855</v>
       </c>
       <c r="C20">
-        <v>1.009183243599525</v>
+        <v>0.8946234003349213</v>
       </c>
       <c r="D20">
-        <v>1.355425373705181</v>
+        <v>0.7351664072180871</v>
       </c>
       <c r="E20">
-        <v>0.9350246989995949</v>
+        <v>0.9423807900127786</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.113807632333116</v>
+        <v>0.8447292541167846</v>
       </c>
       <c r="C21">
-        <v>0.9916156801173774</v>
+        <v>0.9258325128871854</v>
       </c>
       <c r="D21">
-        <v>1.485513247866132</v>
+        <v>0.6858241088287904</v>
       </c>
       <c r="E21">
-        <v>0.9380168803772948</v>
+        <v>0.9493086280083816</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.116979685953137</v>
+        <v>0.910417145096506</v>
       </c>
       <c r="C22">
-        <v>0.9420273234885016</v>
+        <v>0.9711444825796316</v>
       </c>
       <c r="D22">
-        <v>1.576275839209902</v>
+        <v>0.818849655896718</v>
       </c>
       <c r="E22">
-        <v>0.938512596589841</v>
+        <v>0.9489280085850643</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.092521264276311</v>
+        <v>0.915494242115931</v>
       </c>
       <c r="C23">
-        <v>0.9076697617939353</v>
+        <v>0.9692117818417527</v>
       </c>
       <c r="D23">
-        <v>1.529765315382171</v>
+        <v>0.8423837930712732</v>
       </c>
       <c r="E23">
-        <v>0.9391544451227107</v>
+        <v>0.9398058933673068</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.079082945979855</v>
+        <v>0.9163440850199334</v>
       </c>
       <c r="C24">
-        <v>0.8863562412753034</v>
+        <v>0.9757155342861336</v>
       </c>
       <c r="D24">
-        <v>1.505112534259823</v>
+        <v>0.8382461904348114</v>
       </c>
       <c r="E24">
-        <v>0.9418618520831908</v>
+        <v>0.9407645301091503</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.106484396052686</v>
+        <v>0.9013855137643478</v>
       </c>
       <c r="C25">
-        <v>0.8549445508118939</v>
+        <v>0.9835104385514091</v>
       </c>
       <c r="D25">
-        <v>1.678513088258925</v>
+        <v>0.7933233365623021</v>
       </c>
       <c r="E25">
-        <v>0.9440026222814268</v>
+        <v>0.9386474813809416</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1.054728560291121</v>
+        <v>0.931265290561021</v>
       </c>
       <c r="C26">
-        <v>0.8759408921823033</v>
+        <v>1.008655433837132</v>
       </c>
       <c r="D26">
-        <v>1.417136568951756</v>
+        <v>0.8471604061719883</v>
       </c>
       <c r="E26">
-        <v>0.94522589757708</v>
+        <v>0.945174001661147</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1.032930710263578</v>
+        <v>0.9433791241579199</v>
       </c>
       <c r="C27">
-        <v>0.8665862252219834</v>
+        <v>1.01946033263321</v>
       </c>
       <c r="D27">
-        <v>1.340160435793399</v>
+        <v>0.8616188984832257</v>
       </c>
       <c r="E27">
-        <v>0.9489536380907326</v>
+        <v>0.9558136683970067</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1.012651698039422</v>
+        <v>0.9294684016696207</v>
       </c>
       <c r="C28">
-        <v>0.8328964135743391</v>
+        <v>1.01066589339792</v>
       </c>
       <c r="D28">
-        <v>1.314364136111422</v>
+        <v>0.8269351296971321</v>
       </c>
       <c r="E28">
-        <v>0.9485791913010042</v>
+        <v>0.9607819559943455</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>1.034504832639974</v>
+        <v>0.9290411558465804</v>
       </c>
       <c r="C29">
-        <v>0.8418787049463925</v>
+        <v>1.003973113428918</v>
       </c>
       <c r="D29">
-        <v>1.381048052141071</v>
+        <v>0.8296708594882284</v>
       </c>
       <c r="E29">
-        <v>0.9522242939996283</v>
+        <v>0.9626688982339493</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>1.026717913686475</v>
+        <v>0.9573869813803167</v>
       </c>
       <c r="C30">
-        <v>0.8242863222257543</v>
+        <v>0.9949247318402735</v>
       </c>
       <c r="D30">
-        <v>1.368709970694058</v>
+        <v>0.9137694451342023</v>
       </c>
       <c r="E30">
-        <v>0.9593208728282713</v>
+        <v>0.9652408518443891</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.018162196477252</v>
+        <v>0.9707532640954868</v>
       </c>
       <c r="C31">
-        <v>0.8312212026838657</v>
+        <v>0.9875157878983559</v>
       </c>
       <c r="D31">
-        <v>1.315027663117873</v>
+        <v>0.9625616339360936</v>
       </c>
       <c r="E31">
-        <v>0.965604770267759</v>
+        <v>0.962396385941096</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>1.012833665280907</v>
+        <v>0.9480608814718633</v>
       </c>
       <c r="C32">
-        <v>0.8245734983667937</v>
+        <v>0.9527837800647132</v>
       </c>
       <c r="D32">
-        <v>1.299339469556997</v>
+        <v>0.9341781124314464</v>
       </c>
       <c r="E32">
-        <v>0.9697557900668184</v>
+        <v>0.9573806353147609</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9942124908641651</v>
+        <v>0.9326583714301191</v>
       </c>
       <c r="C33">
-        <v>0.785740260928336</v>
+        <v>0.9552034610591291</v>
       </c>
       <c r="D33">
-        <v>1.28664240060839</v>
+        <v>0.8890345392155464</v>
       </c>
       <c r="E33">
-        <v>0.9720772503606903</v>
+        <v>0.9553296505068407</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.9539507718814669</v>
+        <v>0.899860023922419</v>
       </c>
       <c r="C34">
-        <v>0.7556139623738741</v>
+        <v>0.9228862688478855</v>
       </c>
       <c r="D34">
-        <v>1.176544047590057</v>
+        <v>0.8269901395515524</v>
       </c>
       <c r="E34">
-        <v>0.9764943301307271</v>
+        <v>0.9547207478261135</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9315927307274309</v>
+        <v>0.9051619770101073</v>
       </c>
       <c r="C35">
-        <v>0.7382803377949577</v>
+        <v>0.9197307107091963</v>
       </c>
       <c r="D35">
-        <v>1.11743107527815</v>
+        <v>0.8376735424237954</v>
       </c>
       <c r="E35">
-        <v>0.9800229051388412</v>
+        <v>0.9625945979401269</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.9562037981520028</v>
+        <v>0.8966011973982204</v>
       </c>
       <c r="C36">
-        <v>0.7560977100925514</v>
+        <v>0.9145157707018261</v>
       </c>
       <c r="D36">
-        <v>1.171758214206412</v>
+        <v>0.8128725115126318</v>
       </c>
       <c r="E36">
-        <v>0.9868143672484083</v>
+        <v>0.9695814697828626</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9695677965640076</v>
+        <v>0.9257353786467342</v>
       </c>
       <c r="C37">
-        <v>0.8005625067173455</v>
+        <v>0.9108367291741474</v>
       </c>
       <c r="D37">
-        <v>1.147216264126604</v>
+        <v>0.8984829119635593</v>
       </c>
       <c r="E37">
-        <v>0.9924165654422972</v>
+        <v>0.9694160981021115</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9657768911382046</v>
+        <v>0.9496937603891623</v>
       </c>
       <c r="C38">
-        <v>0.7831842231947095</v>
+        <v>0.9335832774400062</v>
       </c>
       <c r="D38">
-        <v>1.150719847620506</v>
+        <v>0.9422275905373139</v>
       </c>
       <c r="E38">
-        <v>0.9995324413396336</v>
+        <v>0.9737374488326205</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9638409493032392</v>
+        <v>0.9408975347276316</v>
       </c>
       <c r="C39">
-        <v>0.7811227290642808</v>
+        <v>0.9224121019611565</v>
       </c>
       <c r="D39">
-        <v>1.13155980012019</v>
+        <v>0.9257539699458905</v>
       </c>
       <c r="E39">
-        <v>1.01302306904166</v>
+        <v>0.975453152260501</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9509805631249777</v>
+        <v>0.9376008081885423</v>
       </c>
       <c r="C40">
-        <v>0.7795581470101545</v>
+        <v>0.9450902630215033</v>
       </c>
       <c r="D40">
-        <v>1.077148245063087</v>
+        <v>0.8990133918617347</v>
       </c>
       <c r="E40">
-        <v>1.024214521163106</v>
+        <v>0.9700954534542269</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9457675745333438</v>
+        <v>0.9521932509724603</v>
       </c>
       <c r="C41">
-        <v>0.771107618616075</v>
+        <v>0.9403242409445252</v>
       </c>
       <c r="D41">
-        <v>1.053884330775808</v>
+        <v>0.9478167399951141</v>
       </c>
       <c r="E41">
-        <v>1.040987031684999</v>
+        <v>0.9686642905095983</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9687105390772193</v>
+        <v>0.9876169519385702</v>
       </c>
       <c r="C42">
-        <v>0.7843975312303465</v>
+        <v>0.9565125845645286</v>
       </c>
       <c r="D42">
-        <v>1.105264531122083</v>
+        <v>1.046695340585858</v>
       </c>
       <c r="E42">
-        <v>1.048527010379111</v>
+        <v>0.9621762397701314</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.9393661039807309</v>
+        <v>0.97805389719962</v>
       </c>
       <c r="C43">
-        <v>0.7767078482487124</v>
+        <v>0.947794761812101</v>
       </c>
       <c r="D43">
-        <v>1.014721341087466</v>
+        <v>1.031748429304987</v>
       </c>
       <c r="E43">
-        <v>1.051720083934703</v>
+        <v>0.9567539044734835</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9287005967210603</v>
+        <v>0.9714860414542753</v>
       </c>
       <c r="C44">
-        <v>0.7647076569274021</v>
+        <v>0.906061949878859</v>
       </c>
       <c r="D44">
-        <v>0.9974486272980031</v>
+        <v>1.058415835925655</v>
       </c>
       <c r="E44">
-        <v>1.050125484419756</v>
+        <v>0.9560827292291826</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9369075614615304</v>
+        <v>0.9734426174657582</v>
       </c>
       <c r="C45">
-        <v>0.7923056824046455</v>
+        <v>0.8867716963630026</v>
       </c>
       <c r="D45">
-        <v>0.9854854012948464</v>
+        <v>1.091121699253304</v>
       </c>
       <c r="E45">
-        <v>1.0532883149017</v>
+        <v>0.9533361283020274</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.987942405132919</v>
+        <v>0.9884062842921941</v>
       </c>
       <c r="C46">
-        <v>0.8250224631149587</v>
+        <v>0.8763379482571814</v>
       </c>
       <c r="D46">
-        <v>1.105642228058253</v>
+        <v>1.151363461985029</v>
       </c>
       <c r="E46">
-        <v>1.05709614709689</v>
+        <v>0.9570231257642748</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1.020956466663084</v>
+        <v>0.985796844045969</v>
       </c>
       <c r="C47">
-        <v>0.8598620307200898</v>
+        <v>0.8645875396143807</v>
       </c>
       <c r="D47">
-        <v>1.167658779633643</v>
+        <v>1.153731244999074</v>
       </c>
       <c r="E47">
-        <v>1.059929431657695</v>
+        <v>0.9603922436657926</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1.061638721466489</v>
+        <v>0.9874653825671349</v>
       </c>
       <c r="C48">
-        <v>0.8969348962399485</v>
+        <v>0.8782539959346298</v>
       </c>
       <c r="D48">
-        <v>1.254658010682156</v>
+        <v>1.141301755868826</v>
       </c>
       <c r="E48">
-        <v>1.063270992854044</v>
+        <v>0.9606053892777848</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1.08215575635525</v>
+        <v>0.9933798471225918</v>
       </c>
       <c r="C49">
-        <v>0.9045364594535706</v>
+        <v>0.8814562187804338</v>
       </c>
       <c r="D49">
-        <v>1.3085417732364</v>
+        <v>1.168557689108423</v>
       </c>
       <c r="E49">
-        <v>1.070670048462176</v>
+        <v>0.9516891803272889</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.117390201514413</v>
+        <v>1.002528199253471</v>
       </c>
       <c r="C50">
-        <v>0.9190160740262796</v>
+        <v>0.8686310227860128</v>
       </c>
       <c r="D50">
-        <v>1.401273361268303</v>
+        <v>1.224383040345157</v>
       </c>
       <c r="E50">
-        <v>1.083349538308201</v>
+        <v>0.9474082251473656</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1.137570053756524</v>
+        <v>0.9677306844954193</v>
       </c>
       <c r="C51">
-        <v>0.9173816804563244</v>
+        <v>0.8264700262599137</v>
       </c>
       <c r="D51">
-        <v>1.473044528755272</v>
+        <v>1.154646937333906</v>
       </c>
       <c r="E51">
-        <v>1.089352699314379</v>
+        <v>0.9497017094261114</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1.146317045066488</v>
+        <v>0.9672417398003054</v>
       </c>
       <c r="C52">
-        <v>0.9357702126032004</v>
+        <v>0.8262898099870818</v>
       </c>
       <c r="D52">
-        <v>1.465242416802281</v>
+        <v>1.154625671051501</v>
       </c>
       <c r="E52">
-        <v>1.098589772162486</v>
+        <v>0.9484872180850185</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>1.127712989010494</v>
+        <v>0.9708598745215717</v>
       </c>
       <c r="C53">
-        <v>0.9275663060992245</v>
+        <v>0.8028086050023618</v>
       </c>
       <c r="D53">
-        <v>1.39394246057791</v>
+        <v>1.207087475004461</v>
       </c>
       <c r="E53">
-        <v>1.109189976471668</v>
+        <v>0.9443193609598347</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>1.156892284598651</v>
+        <v>0.9680442768124747</v>
       </c>
       <c r="C54">
-        <v>0.9495719280422082</v>
+        <v>0.7959162182063347</v>
       </c>
       <c r="D54">
-        <v>1.464605664139331</v>
+        <v>1.207795956048688</v>
       </c>
       <c r="E54">
-        <v>1.113346114116537</v>
+        <v>0.9436799755809889</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>1.163034792592107</v>
+        <v>0.9821100079194058</v>
       </c>
       <c r="C55">
-        <v>0.9374398670575732</v>
+        <v>0.8004581303821429</v>
       </c>
       <c r="D55">
-        <v>1.498322828172375</v>
+        <v>1.252720615907355</v>
       </c>
       <c r="E55">
-        <v>1.120029097634129</v>
+        <v>0.9446861866118381</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.154310287199688</v>
+        <v>1.009447907726264</v>
       </c>
       <c r="C56">
-        <v>0.9296696248918638</v>
+        <v>0.7984774538980149</v>
       </c>
       <c r="D56">
-        <v>1.46807502377469</v>
+        <v>1.358672572946766</v>
       </c>
       <c r="E56">
-        <v>1.126914084111069</v>
+        <v>0.9481439328531579</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.115681902060603</v>
+        <v>1.006675644141587</v>
       </c>
       <c r="C57">
-        <v>0.9033324198619004</v>
+        <v>0.7965480366648604</v>
       </c>
       <c r="D57">
-        <v>1.361199597568612</v>
+        <v>1.348605979851833</v>
       </c>
       <c r="E57">
-        <v>1.129410330379241</v>
+        <v>0.9496676216436702</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.121688980096769</v>
+        <v>1.011372539423908</v>
       </c>
       <c r="C58">
-        <v>0.904401092134494</v>
+        <v>0.7986708806788023</v>
       </c>
       <c r="D58">
-        <v>1.373659988343368</v>
+        <v>1.372213934410059</v>
       </c>
       <c r="E58">
-        <v>1.135996604161458</v>
+        <v>0.9439387115259152</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1.187227010970012</v>
+        <v>0.9955029706554311</v>
       </c>
       <c r="C59">
-        <v>0.9406191051638272</v>
+        <v>0.7893977732696361</v>
       </c>
       <c r="D59">
-        <v>1.558452021964952</v>
+        <v>1.324297820004537</v>
       </c>
       <c r="E59">
-        <v>1.141547728268302</v>
+        <v>0.9437264338836487</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1.161181101815376</v>
+        <v>0.9719730198794836</v>
       </c>
       <c r="C60">
-        <v>0.9348296133601858</v>
+        <v>0.7977316721727894</v>
       </c>
       <c r="D60">
-        <v>1.464958676640687</v>
+        <v>1.21412680099239</v>
       </c>
       <c r="E60">
-        <v>1.143252188690167</v>
+        <v>0.9480729347309402</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1.175588924063154</v>
+        <v>0.97499583755148</v>
       </c>
       <c r="C61">
-        <v>0.9562715759604872</v>
+        <v>0.8269522449211778</v>
       </c>
       <c r="D61">
-        <v>1.482811135433216</v>
+        <v>1.179032287422922</v>
       </c>
       <c r="E61">
-        <v>1.145775076838242</v>
+        <v>0.9506095129480512</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>1.148066385137159</v>
+        <v>0.9859367809127438</v>
       </c>
       <c r="C62">
-        <v>0.938281128805671</v>
+        <v>0.8467441229029642</v>
       </c>
       <c r="D62">
-        <v>1.396931952006436</v>
+        <v>1.188800361248118</v>
       </c>
       <c r="E62">
-        <v>1.154496899233733</v>
+        <v>0.9521077191268441</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1.164772889059372</v>
+        <v>0.9826018011265444</v>
       </c>
       <c r="C63">
-        <v>0.960887767531549</v>
+        <v>0.8637003132917571</v>
       </c>
       <c r="D63">
-        <v>1.416758292166256</v>
+        <v>1.152837494459436</v>
       </c>
       <c r="E63">
-        <v>1.160794476244377</v>
+        <v>0.9527994496237211</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1.120468374790771</v>
+        <v>0.9688013799345079</v>
       </c>
       <c r="C64">
-        <v>0.9448135580708001</v>
+        <v>0.8462261730728411</v>
       </c>
       <c r="D64">
-        <v>1.276351183200561</v>
+        <v>1.130095834275983</v>
       </c>
       <c r="E64">
-        <v>1.166493994314301</v>
+        <v>0.9508292177861598</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.121891899647093</v>
+        <v>1.011183016612557</v>
       </c>
       <c r="C65">
-        <v>0.9348832124177475</v>
+        <v>0.8545577245975392</v>
       </c>
       <c r="D65">
-        <v>1.28251419855557</v>
+        <v>1.270924449874798</v>
       </c>
       <c r="E65">
-        <v>1.177696796818915</v>
+        <v>0.9519807386212848</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1496,16 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.12362443978533</v>
+        <v>1.021967756099393</v>
       </c>
       <c r="C66">
-        <v>0.9169619230310061</v>
+        <v>0.8558340695255935</v>
       </c>
       <c r="D66">
-        <v>1.303255939358967</v>
+        <v>1.300790565356573</v>
       </c>
       <c r="E66">
-        <v>1.18708690982865</v>
+        <v>0.9587704307484428</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1513,16 +1513,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.071141260150305</v>
+        <v>1.029257415394554</v>
       </c>
       <c r="C67">
-        <v>0.8699835304760417</v>
+        <v>0.8482030789248231</v>
       </c>
       <c r="D67">
-        <v>1.179430901175126</v>
+        <v>1.334355265966341</v>
       </c>
       <c r="E67">
-        <v>1.19772389079452</v>
+        <v>0.9633868085713904</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1530,16 +1530,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.082093234087599</v>
+        <v>1.059489128579762</v>
       </c>
       <c r="C68">
-        <v>0.8822136683051102</v>
+        <v>0.8378349723241258</v>
       </c>
       <c r="D68">
-        <v>1.18874845477167</v>
+        <v>1.471850543294007</v>
       </c>
       <c r="E68">
-        <v>1.208176258230343</v>
+        <v>0.9644224632938858</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1547,16 +1547,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.071336582713104</v>
+        <v>1.042654061455307</v>
       </c>
       <c r="C69">
-        <v>0.9271295252390189</v>
+        <v>0.8479306990192409</v>
       </c>
       <c r="D69">
-        <v>1.090953446003911</v>
+        <v>1.381886528336421</v>
       </c>
       <c r="E69">
-        <v>1.215713318577522</v>
+        <v>0.9673596665346567</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.118900692041872</v>
+        <v>1.027751827924218</v>
       </c>
       <c r="C70">
-        <v>0.9383784016990285</v>
+        <v>0.8228453033435064</v>
       </c>
       <c r="D70">
-        <v>1.219130664909057</v>
+        <v>1.364160480331091</v>
       </c>
       <c r="E70">
-        <v>1.224464980523121</v>
+        <v>0.9671216714020283</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1581,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.175726737025208</v>
+        <v>1.016050295590687</v>
       </c>
       <c r="C71">
-        <v>1.008733249238039</v>
+        <v>0.813302431858693</v>
       </c>
       <c r="D71">
-        <v>1.312994449539706</v>
+        <v>1.332607635037181</v>
       </c>
       <c r="E71">
-        <v>1.227100003680852</v>
+        <v>0.9678125545384695</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.156566729250301</v>
+        <v>1.046852412845812</v>
       </c>
       <c r="C72">
-        <v>1.016767693835521</v>
+        <v>0.829794315524194</v>
       </c>
       <c r="D72">
-        <v>1.234099681013575</v>
+        <v>1.425301584142702</v>
       </c>
       <c r="E72">
-        <v>1.232934785664018</v>
+        <v>0.9700165674634047</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.150947302587273</v>
+        <v>1.058154789838798</v>
       </c>
       <c r="C73">
-        <v>1.03083999705697</v>
+        <v>0.8356254328358833</v>
       </c>
       <c r="D73">
-        <v>1.190416247765382</v>
+        <v>1.455731963856664</v>
       </c>
       <c r="E73">
-        <v>1.242442249956228</v>
+        <v>0.9739900917505846</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.153755325143578</v>
+        <v>1.083958016295256</v>
       </c>
       <c r="C74">
-        <v>1.067472104325702</v>
+        <v>0.8231160025242898</v>
       </c>
       <c r="D74">
-        <v>1.145264216323041</v>
+        <v>1.597175242131031</v>
       </c>
       <c r="E74">
-        <v>1.25625825757792</v>
+        <v>0.9687768891707369</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.225762936777746</v>
+        <v>1.077401327739834</v>
       </c>
       <c r="C75">
-        <v>1.161804423473281</v>
+        <v>0.8192302924586996</v>
       </c>
       <c r="D75">
-        <v>1.251807324918536</v>
+        <v>1.572702967650784</v>
       </c>
       <c r="E75">
-        <v>1.26633596789524</v>
+        <v>0.9706883341117075</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.277449853876941</v>
+        <v>1.089546854123912</v>
       </c>
       <c r="C76">
-        <v>1.134612671385297</v>
+        <v>0.8039643019916393</v>
       </c>
       <c r="D76">
-        <v>1.444095778684702</v>
+        <v>1.659646987258427</v>
       </c>
       <c r="E76">
-        <v>1.272295394070477</v>
+        <v>0.9693603371430333</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.222470472865568</v>
+        <v>1.103451656042603</v>
       </c>
       <c r="C77">
-        <v>1.041735772583601</v>
+        <v>0.8037647612773787</v>
       </c>
       <c r="D77">
-        <v>1.373480964035607</v>
+        <v>1.732910467912215</v>
       </c>
       <c r="E77">
-        <v>1.276835391198811</v>
+        <v>0.9646168530531114</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.191687999504826</v>
+        <v>1.107456679941186</v>
       </c>
       <c r="C78">
-        <v>1.021709632004411</v>
+        <v>0.7922704621805322</v>
       </c>
       <c r="D78">
-        <v>1.291232730354714</v>
+        <v>1.778781536899415</v>
       </c>
       <c r="E78">
-        <v>1.282790349741171</v>
+        <v>0.963793878440576</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.217094223375097</v>
+        <v>1.072008095049546</v>
       </c>
       <c r="C79">
-        <v>1.061244915941848</v>
+        <v>0.8128796556218705</v>
       </c>
       <c r="D79">
-        <v>1.314316424244916</v>
+        <v>1.573499310188268</v>
       </c>
       <c r="E79">
-        <v>1.29257885085003</v>
+        <v>0.9631665319550419</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.204774686136641</v>
+        <v>1.09621719110616</v>
       </c>
       <c r="C80">
-        <v>1.087699230868385</v>
+        <v>0.7997713359027245</v>
       </c>
       <c r="D80">
-        <v>1.248439911468527</v>
+        <v>1.70990737637292</v>
       </c>
       <c r="E80">
-        <v>1.287778102277934</v>
+        <v>0.9632774746592158</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1751,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.216080130298568</v>
+        <v>1.063202828280524</v>
       </c>
       <c r="C81">
-        <v>1.139389965275287</v>
+        <v>0.7881663846070155</v>
       </c>
       <c r="D81">
-        <v>1.221157322396421</v>
+        <v>1.578089170964333</v>
       </c>
       <c r="E81">
-        <v>1.292535766037272</v>
+        <v>0.9662709471298618</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1768,16 +1768,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.213568009862301</v>
+        <v>1.080555405668399</v>
       </c>
       <c r="C82">
-        <v>1.164200207395848</v>
+        <v>0.7695458683483529</v>
       </c>
       <c r="D82">
-        <v>1.183071907295749</v>
+        <v>1.682127583006528</v>
       </c>
       <c r="E82">
-        <v>1.29763797043493</v>
+        <v>0.9746477349212268</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1785,16 +1785,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.205481024407093</v>
+        <v>1.077923656907967</v>
       </c>
       <c r="C83">
-        <v>1.203396529635133</v>
+        <v>0.7697156757285315</v>
       </c>
       <c r="D83">
-        <v>1.118471513344373</v>
+        <v>1.664809883674488</v>
       </c>
       <c r="E83">
-        <v>1.301509832280733</v>
+        <v>0.9773925700195352</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1802,16 +1802,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.194828122306912</v>
+        <v>1.110540996424145</v>
       </c>
       <c r="C84">
-        <v>1.239201226659256</v>
+        <v>0.7760607078048194</v>
       </c>
       <c r="D84">
-        <v>1.058579624854249</v>
+        <v>1.800247932819457</v>
       </c>
       <c r="E84">
-        <v>1.300322096087937</v>
+        <v>0.9803378484130091</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1819,16 +1819,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.234367480900808</v>
+        <v>1.071608835552328</v>
       </c>
       <c r="C85">
-        <v>1.223728076883289</v>
+        <v>0.75690517869636</v>
       </c>
       <c r="D85">
-        <v>1.182274390610744</v>
+        <v>1.657848442892818</v>
       </c>
       <c r="E85">
-        <v>1.299960656787615</v>
+        <v>0.9806692436738143</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1836,16 +1836,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.285806323932969</v>
+        <v>1.059628916181826</v>
       </c>
       <c r="C86">
-        <v>1.266021112344005</v>
+        <v>0.7457677262213878</v>
       </c>
       <c r="D86">
-        <v>1.29328569819984</v>
+        <v>1.638428461388042</v>
       </c>
       <c r="E86">
-        <v>1.298348406220935</v>
+        <v>0.9737115805950604</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1853,16 +1853,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.301886615771437</v>
+        <v>1.082093289139423</v>
       </c>
       <c r="C87">
-        <v>1.311611236540604</v>
+        <v>0.7548721589629643</v>
       </c>
       <c r="D87">
-        <v>1.294244809032674</v>
+        <v>1.721619449841739</v>
       </c>
       <c r="E87">
-        <v>1.299864030403423</v>
+        <v>0.9749526913180758</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1870,16 +1870,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.320940243441688</v>
+        <v>1.056543959136124</v>
       </c>
       <c r="C88">
-        <v>1.321761521568614</v>
+        <v>0.7590209346056577</v>
       </c>
       <c r="D88">
-        <v>1.335750579908316</v>
+        <v>1.5947634510737</v>
       </c>
       <c r="E88">
-        <v>1.305482451381922</v>
+        <v>0.9743448309346761</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1887,16 +1887,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.383454101426634</v>
+        <v>1.032688317606224</v>
       </c>
       <c r="C89">
-        <v>1.406600779408837</v>
+        <v>0.7729667574013768</v>
       </c>
       <c r="D89">
-        <v>1.434172505980716</v>
+        <v>1.455798063072078</v>
       </c>
       <c r="E89">
-        <v>1.312568626534291</v>
+        <v>0.978691548747382</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1904,16 +1904,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.372374490062929</v>
+        <v>1.031644542371934</v>
       </c>
       <c r="C90">
-        <v>1.389318490076838</v>
+        <v>0.7959382076487537</v>
       </c>
       <c r="D90">
-        <v>1.415761192947072</v>
+        <v>1.40481766510317</v>
       </c>
       <c r="E90">
-        <v>1.314092966078522</v>
+        <v>0.9819535454763584</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1921,16 +1921,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.396070880897843</v>
+        <v>1.048985219941466</v>
       </c>
       <c r="C91">
-        <v>1.367437201310079</v>
+        <v>0.8200705009067136</v>
       </c>
       <c r="D91">
-        <v>1.51573933829792</v>
+        <v>1.421746450318676</v>
       </c>
       <c r="E91">
-        <v>1.312775591607284</v>
+        <v>0.9899990199049132</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1938,16 +1938,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.435533496952186</v>
+        <v>1.041203881379181</v>
       </c>
       <c r="C92">
-        <v>1.453113745890404</v>
+        <v>0.834971376909572</v>
       </c>
       <c r="D92">
-        <v>1.553503441237837</v>
+        <v>1.362187748539682</v>
       </c>
       <c r="E92">
-        <v>1.310473254564997</v>
+        <v>0.9924274709081952</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1955,16 +1955,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.456683744086727</v>
+        <v>1.039250056450186</v>
       </c>
       <c r="C93">
-        <v>1.51189726950499</v>
+        <v>0.8557436268043485</v>
       </c>
       <c r="D93">
-        <v>1.560737290927367</v>
+        <v>1.31426900599534</v>
       </c>
       <c r="E93">
-        <v>1.309916857969399</v>
+        <v>0.9980038823119157</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1972,16 +1972,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.542406716846612</v>
+        <v>1.076085693438793</v>
       </c>
       <c r="C94">
-        <v>1.56366433418091</v>
+        <v>0.8865633412056934</v>
       </c>
       <c r="D94">
-        <v>1.790962167174866</v>
+        <v>1.412552257198976</v>
       </c>
       <c r="E94">
-        <v>1.310288053225967</v>
+        <v>0.995007328495033</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1989,16 +1989,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.44015760425747</v>
+        <v>1.118826079673399</v>
       </c>
       <c r="C95">
-        <v>1.466461952979088</v>
+        <v>0.9001780649578923</v>
       </c>
       <c r="D95">
-        <v>1.569114841272482</v>
+        <v>1.572260681391084</v>
       </c>
       <c r="E95">
-        <v>1.298089197364736</v>
+        <v>0.9895432109381717</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2006,16 +2006,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.420923481520574</v>
+        <v>1.073386573798301</v>
       </c>
       <c r="C96">
-        <v>1.40039872269802</v>
+        <v>0.8922854231455337</v>
       </c>
       <c r="D96">
-        <v>1.582014441597395</v>
+        <v>1.408168678182989</v>
       </c>
       <c r="E96">
-        <v>1.294940828720678</v>
+        <v>0.9842603671198739</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2023,16 +2023,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.469862379960084</v>
+        <v>1.071488807322096</v>
       </c>
       <c r="C97">
-        <v>1.481208534614085</v>
+        <v>0.8815777090734173</v>
       </c>
       <c r="D97">
-        <v>1.659425290696513</v>
+        <v>1.425854581073076</v>
       </c>
       <c r="E97">
-        <v>1.291980959470654</v>
+        <v>0.9786492795180542</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2040,16 +2040,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.47190249357282</v>
+        <v>1.061479849331138</v>
       </c>
       <c r="C98">
-        <v>1.484255547886553</v>
+        <v>0.8743633295222432</v>
       </c>
       <c r="D98">
-        <v>1.668487173940595</v>
+        <v>1.406152730631903</v>
       </c>
       <c r="E98">
-        <v>1.287672941460975</v>
+        <v>0.9727714873887404</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2057,16 +2057,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.563027358304745</v>
+        <v>1.058466201954163</v>
       </c>
       <c r="C99">
-        <v>1.489814573652375</v>
+        <v>0.8354447506118047</v>
       </c>
       <c r="D99">
-        <v>2.010227028107689</v>
+        <v>1.458948452545139</v>
       </c>
       <c r="E99">
-        <v>1.275035899902157</v>
+        <v>0.9729114239338719</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2074,16 +2074,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.593689337305947</v>
+        <v>1.022551187460002</v>
       </c>
       <c r="C100">
-        <v>1.497160028215916</v>
+        <v>0.8162951368009946</v>
       </c>
       <c r="D100">
-        <v>2.142927744633986</v>
+        <v>1.349930922034261</v>
       </c>
       <c r="E100">
-        <v>1.261639418466701</v>
+        <v>0.9702785208331204</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2091,16 +2091,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>1.568374395917911</v>
+        <v>0.9917061167198544</v>
       </c>
       <c r="C101">
-        <v>1.455550237153204</v>
+        <v>0.8078144020610544</v>
       </c>
       <c r="D101">
-        <v>2.11381632580053</v>
+        <v>1.243524752073191</v>
       </c>
       <c r="E101">
-        <v>1.253876560797598</v>
+        <v>0.9709188880300808</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2108,16 +2108,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.560882968100159</v>
+        <v>1.006984362381308</v>
       </c>
       <c r="C102">
-        <v>1.412946159081325</v>
+        <v>0.7928773221324833</v>
       </c>
       <c r="D102">
-        <v>2.149168448100365</v>
+        <v>1.319986798151378</v>
       </c>
       <c r="E102">
-        <v>1.25231896048167</v>
+        <v>0.9756467341874734</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2125,16 +2125,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.590448416880992</v>
+        <v>1.025371987734083</v>
       </c>
       <c r="C103">
-        <v>1.439010894846616</v>
+        <v>0.818956305614456</v>
       </c>
       <c r="D103">
-        <v>2.225080286973001</v>
+        <v>1.349570052109894</v>
       </c>
       <c r="E103">
-        <v>1.256460952354348</v>
+        <v>0.9754121986198434</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2142,16 +2142,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.609182754145559</v>
+        <v>1.014634856019416</v>
       </c>
       <c r="C104">
-        <v>1.395539853266101</v>
+        <v>0.8253870697762883</v>
       </c>
       <c r="D104">
-        <v>2.383844050488747</v>
+        <v>1.285049608442412</v>
       </c>
       <c r="E104">
-        <v>1.252552748924681</v>
+        <v>0.9848084771182858</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2159,16 +2159,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.549107046670265</v>
+        <v>1.003257503062458</v>
       </c>
       <c r="C105">
-        <v>1.342448248426817</v>
+        <v>0.8433433490041511</v>
       </c>
       <c r="D105">
-        <v>2.217634302072271</v>
+        <v>1.2106962388717</v>
       </c>
       <c r="E105">
-        <v>1.248696243742527</v>
+        <v>0.9890030516591154</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2176,16 +2176,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.536739383442866</v>
+        <v>1.056699654835364</v>
       </c>
       <c r="C106">
-        <v>1.288253809069484</v>
+        <v>0.8929287333551333</v>
       </c>
       <c r="D106">
-        <v>2.266853315052724</v>
+        <v>1.33364317803355</v>
       </c>
       <c r="E106">
-        <v>1.242727219367687</v>
+        <v>0.990827953847684</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2193,16 +2193,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.431765693079926</v>
+        <v>1.082057289242797</v>
       </c>
       <c r="C107">
-        <v>1.200352582034649</v>
+        <v>0.9411129301690176</v>
       </c>
       <c r="D107">
-        <v>1.974024459963255</v>
+        <v>1.363414704534949</v>
       </c>
       <c r="E107">
-        <v>1.2386667938982</v>
+        <v>0.9873725541817006</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2210,16 +2210,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.31668733641754</v>
+        <v>1.081236418551775</v>
       </c>
       <c r="C108">
-        <v>1.237621013046319</v>
+        <v>0.9543253532269261</v>
       </c>
       <c r="D108">
-        <v>1.498392698093216</v>
+        <v>1.331628549173021</v>
       </c>
       <c r="E108">
-        <v>1.230933676488693</v>
+        <v>0.9946778264588861</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2227,16 +2227,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.272673308346841</v>
+        <v>1.071660711858996</v>
       </c>
       <c r="C109">
-        <v>1.22498793993842</v>
+        <v>0.9711597506041327</v>
       </c>
       <c r="D109">
-        <v>1.376410466266341</v>
+        <v>1.267596767571491</v>
       </c>
       <c r="E109">
-        <v>1.222562380427964</v>
+        <v>0.9997700673950617</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2244,16 +2244,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.292247405904617</v>
+        <v>1.071474981689893</v>
       </c>
       <c r="C110">
-        <v>1.24382917530347</v>
+        <v>0.9683798244207086</v>
       </c>
       <c r="D110">
-        <v>1.418638581074021</v>
+        <v>1.269106393468197</v>
       </c>
       <c r="E110">
-        <v>1.222938171935636</v>
+        <v>1.000926852088847</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2261,16 +2261,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.300737094644787</v>
+        <v>1.084747566313293</v>
       </c>
       <c r="C111">
-        <v>1.252017602394999</v>
+        <v>0.9520077104524587</v>
       </c>
       <c r="D111">
-        <v>1.442352313736066</v>
+        <v>1.341624108545505</v>
       </c>
       <c r="E111">
-        <v>1.218671870477313</v>
+        <v>0.9993433657698269</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2278,16 +2278,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.314433781292764</v>
+        <v>1.068983861876889</v>
       </c>
       <c r="C112">
-        <v>1.273478328477901</v>
+        <v>0.9696862532986311</v>
       </c>
       <c r="D112">
-        <v>1.470406654134859</v>
+        <v>1.260304932979736</v>
       </c>
       <c r="E112">
-        <v>1.212794218710219</v>
+        <v>0.9995547135842276</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2295,16 +2295,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.263577365825615</v>
+        <v>1.073105612355721</v>
       </c>
       <c r="C113">
-        <v>1.235308411729092</v>
+        <v>0.957592427868856</v>
       </c>
       <c r="D113">
-        <v>1.34560626346428</v>
+        <v>1.29483052040051</v>
       </c>
       <c r="E113">
-        <v>1.213702132314775</v>
+        <v>0.9966295684957135</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2312,16 +2312,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.267975935259963</v>
+        <v>1.062425898883124</v>
       </c>
       <c r="C114">
-        <v>1.249877648095624</v>
+        <v>0.9614780202794903</v>
       </c>
       <c r="D114">
-        <v>1.345155560862921</v>
+        <v>1.262790011428876</v>
       </c>
       <c r="E114">
-        <v>1.212531474690241</v>
+        <v>0.9877008975885276</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2329,16 +2329,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.24887272154906</v>
+        <v>1.072385116539927</v>
       </c>
       <c r="C115">
-        <v>1.240216545700867</v>
+        <v>0.9550115101113844</v>
       </c>
       <c r="D115">
-        <v>1.29852369249046</v>
+        <v>1.318404318259526</v>
       </c>
       <c r="E115">
-        <v>1.20950352924397</v>
+        <v>0.9794789586698093</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2346,16 +2346,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.301727332311455</v>
+        <v>1.055573214621484</v>
       </c>
       <c r="C116">
-        <v>1.292846442366922</v>
+        <v>0.9509394248667244</v>
       </c>
       <c r="D116">
-        <v>1.41402229121493</v>
+        <v>1.267172108952412</v>
       </c>
       <c r="E116">
-        <v>1.206582079680286</v>
+        <v>0.9760602481377606</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2363,16 +2363,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.293237502650869</v>
+        <v>1.067608449729481</v>
       </c>
       <c r="C117">
-        <v>1.282979788247425</v>
+        <v>0.9324811654209693</v>
       </c>
       <c r="D117">
-        <v>1.401969918152146</v>
+        <v>1.339746706414249</v>
       </c>
       <c r="E117">
-        <v>1.20247584442529</v>
+        <v>0.9740320349535824</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2380,16 +2380,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.263233860160155</v>
+        <v>1.058267518411359</v>
       </c>
       <c r="C118">
-        <v>1.248643795855694</v>
+        <v>0.9103480283044142</v>
       </c>
       <c r="D118">
-        <v>1.34370402586664</v>
+        <v>1.342497300318402</v>
       </c>
       <c r="E118">
-        <v>1.20145938014109</v>
+        <v>0.9697628040274631</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2397,16 +2397,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.295322731565001</v>
+        <v>1.061924873127086</v>
       </c>
       <c r="C119">
-        <v>1.265896625544686</v>
+        <v>0.892993868986142</v>
       </c>
       <c r="D119">
-        <v>1.436016076647009</v>
+        <v>1.391184900131862</v>
       </c>
       <c r="E119">
-        <v>1.195573875914119</v>
+        <v>0.9639356610571087</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2414,16 +2414,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.293404485048582</v>
+        <v>1.032492812910873</v>
       </c>
       <c r="C120">
-        <v>1.27711504877087</v>
+        <v>0.8767027357711675</v>
       </c>
       <c r="D120">
-        <v>1.420682892181508</v>
+        <v>1.305995683728189</v>
       </c>
       <c r="E120">
-        <v>1.19254812695555</v>
+        <v>0.9613178541789087</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2431,16 +2431,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.284422655431856</v>
+        <v>1.017105551185236</v>
       </c>
       <c r="C121">
-        <v>1.257958286319565</v>
+        <v>0.8472022734645612</v>
       </c>
       <c r="D121">
-        <v>1.413717838333448</v>
+        <v>1.287597210358852</v>
       </c>
       <c r="E121">
-        <v>1.191502323955506</v>
+        <v>0.9645637453378469</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2448,16 +2448,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.292548103780888</v>
+        <v>1.031956042812369</v>
       </c>
       <c r="C122">
-        <v>1.233740567072808</v>
+        <v>0.8452094462998259</v>
       </c>
       <c r="D122">
-        <v>1.463766145354312</v>
+        <v>1.341206374007856</v>
       </c>
       <c r="E122">
-        <v>1.195761595748259</v>
+        <v>0.9694460479186576</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2465,16 +2465,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.346054860637782</v>
+        <v>1.029836132497063</v>
       </c>
       <c r="C123">
-        <v>1.254370682989985</v>
+        <v>0.8487376649908266</v>
       </c>
       <c r="D123">
-        <v>1.627218310476676</v>
+        <v>1.329235052987649</v>
       </c>
       <c r="E123">
-        <v>1.194858738576691</v>
+        <v>0.9681198276079986</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2482,16 +2482,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.332183495480511</v>
+        <v>1.017878321154423</v>
       </c>
       <c r="C124">
-        <v>1.255544068050613</v>
+        <v>0.8340869146255742</v>
       </c>
       <c r="D124">
-        <v>1.58069085109103</v>
+        <v>1.30769126401887</v>
       </c>
       <c r="E124">
-        <v>1.191278342573512</v>
+        <v>0.9668766320197344</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2499,16 +2499,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.341699805971023</v>
+        <v>1.027702012151669</v>
       </c>
       <c r="C125">
-        <v>1.259703025329234</v>
+        <v>0.8230830737402856</v>
       </c>
       <c r="D125">
-        <v>1.612068277569823</v>
+        <v>1.370091488251286</v>
       </c>
       <c r="E125">
-        <v>1.18936311693253</v>
+        <v>0.9625169395815627</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2516,16 +2516,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.411822044046614</v>
+        <v>1.037177303987629</v>
       </c>
       <c r="C126">
-        <v>1.332147541665333</v>
+        <v>0.8285426293442945</v>
       </c>
       <c r="D126">
-        <v>1.784337741100444</v>
+        <v>1.412369242953336</v>
       </c>
       <c r="E126">
-        <v>1.183887640816878</v>
+        <v>0.9534455687814379</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2533,16 +2533,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.422177432044894</v>
+        <v>1.007669364827881</v>
       </c>
       <c r="C127">
-        <v>1.343863041147108</v>
+        <v>0.8162487343098128</v>
       </c>
       <c r="D127">
-        <v>1.815208492463026</v>
+        <v>1.319906684969332</v>
       </c>
       <c r="E127">
-        <v>1.179179236295108</v>
+        <v>0.9497043269593042</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2550,16 +2550,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>1.426032323044253</v>
+        <v>0.9832883209527428</v>
       </c>
       <c r="C128">
-        <v>1.33173153166547</v>
+        <v>0.795327220020725</v>
       </c>
       <c r="D128">
-        <v>1.847063349091371</v>
+        <v>1.264605540673052</v>
       </c>
       <c r="E128">
-        <v>1.178934386284215</v>
+        <v>0.9452391823519701</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2567,16 +2567,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>1.417632792488639</v>
+        <v>0.9735411568213606</v>
       </c>
       <c r="C129">
-        <v>1.353765991492317</v>
+        <v>0.7938718721135448</v>
       </c>
       <c r="D129">
-        <v>1.786390908062072</v>
+        <v>1.237112317713682</v>
       </c>
       <c r="E129">
-        <v>1.178070151718511</v>
+        <v>0.9395143176794166</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2584,16 +2584,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>1.412419057069139</v>
+        <v>0.9848807469247916</v>
       </c>
       <c r="C130">
-        <v>1.305957732184363</v>
+        <v>0.805958788465276</v>
       </c>
       <c r="D130">
-        <v>1.82938284352796</v>
+        <v>1.262115548638366</v>
       </c>
       <c r="E130">
-        <v>1.179388756144313</v>
+        <v>0.939158709928493</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2601,16 +2601,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>1.392773833519282</v>
+        <v>0.962062028781174</v>
       </c>
       <c r="C131">
-        <v>1.25441584240183</v>
+        <v>0.7928962331023898</v>
       </c>
       <c r="D131">
-        <v>1.82985549636398</v>
+        <v>1.197610513096225</v>
       </c>
       <c r="E131">
-        <v>1.17701899542891</v>
+        <v>0.9377288284016415</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2618,16 +2618,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>1.38567599001432</v>
+        <v>0.9509132655279462</v>
       </c>
       <c r="C132">
-        <v>1.264582885471663</v>
+        <v>0.7926653730237228</v>
       </c>
       <c r="D132">
-        <v>1.797587221106587</v>
+        <v>1.166665338708217</v>
       </c>
       <c r="E132">
-        <v>1.170436357023172</v>
+        <v>0.9297935643685811</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2635,16 +2635,16 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>1.378521035865959</v>
+        <v>0.9271375535436525</v>
       </c>
       <c r="C133">
-        <v>1.255385462676086</v>
+        <v>0.7897270091419648</v>
       </c>
       <c r="D133">
-        <v>1.787667445494785</v>
+        <v>1.082569474708948</v>
       </c>
       <c r="E133">
-        <v>1.167283553236509</v>
+        <v>0.9321799313045425</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2652,16 +2652,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>1.339055689218631</v>
+        <v>0.9411883038919768</v>
       </c>
       <c r="C134">
-        <v>1.230494352203799</v>
+        <v>0.8203564879244297</v>
       </c>
       <c r="D134">
-        <v>1.671292035083273</v>
+        <v>1.096625939863438</v>
       </c>
       <c r="E134">
-        <v>1.167518978379382</v>
+        <v>0.9267624585960751</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2669,16 +2669,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>1.302584875429655</v>
+        <v>0.926900989782526</v>
       </c>
       <c r="C135">
-        <v>1.242536681640562</v>
+        <v>0.8290336585579022</v>
       </c>
       <c r="D135">
-        <v>1.532822797144549</v>
+        <v>1.027972887409818</v>
       </c>
       <c r="E135">
-        <v>1.160424592310152</v>
+        <v>0.9344287975629817</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2686,16 +2686,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>1.302924025836388</v>
+        <v>0.9586813982971456</v>
       </c>
       <c r="C136">
-        <v>1.224122181995489</v>
+        <v>0.8203984438574924</v>
       </c>
       <c r="D136">
-        <v>1.559568220157606</v>
+        <v>1.143089251459376</v>
       </c>
       <c r="E136">
-        <v>1.158585617599173</v>
+        <v>0.9395457512734789</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2703,16 +2703,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1.304010103642658</v>
+        <v>0.9268491986320223</v>
       </c>
       <c r="C137">
-        <v>1.196221295386558</v>
+        <v>0.8165376550744119</v>
       </c>
       <c r="D137">
-        <v>1.601237340201169</v>
+        <v>1.028587943957868</v>
       </c>
       <c r="E137">
-        <v>1.157645613423485</v>
+        <v>0.948002733056318</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2720,16 +2720,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>1.245018832116172</v>
+        <v>0.9495797358462006</v>
       </c>
       <c r="C138">
-        <v>1.129934878028162</v>
+        <v>0.8145278865239701</v>
       </c>
       <c r="D138">
-        <v>1.471782131705315</v>
+        <v>1.106182777263017</v>
       </c>
       <c r="E138">
-        <v>1.16046172649125</v>
+        <v>0.9503016086232493</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2737,16 +2737,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1.281464474977533</v>
+        <v>0.930707751489811</v>
       </c>
       <c r="C139">
-        <v>1.146147900507794</v>
+        <v>0.819663848274184</v>
       </c>
       <c r="D139">
-        <v>1.580369480313014</v>
+        <v>1.039563722077331</v>
       </c>
       <c r="E139">
-        <v>1.16177069097156</v>
+        <v>0.9461349747091933</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2754,16 +2754,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>1.285730864317149</v>
+        <v>0.9423645666913373</v>
       </c>
       <c r="C140">
-        <v>1.166353250140943</v>
+        <v>0.816451205113732</v>
       </c>
       <c r="D140">
-        <v>1.573294771517058</v>
+        <v>1.084724703675537</v>
       </c>
       <c r="E140">
-        <v>1.1582705251657</v>
+        <v>0.9449461913472934</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2771,16 +2771,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>1.282347850580314</v>
+        <v>0.9278978975146956</v>
       </c>
       <c r="C141">
-        <v>1.164835646383693</v>
+        <v>0.8394517896365454</v>
       </c>
       <c r="D141">
-        <v>1.565435407574718</v>
+        <v>1.009289351059777</v>
       </c>
       <c r="E141">
-        <v>1.156425712654771</v>
+        <v>0.9429509917803141</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2788,16 +2788,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>1.250628761440608</v>
+        <v>0.9422625897417967</v>
       </c>
       <c r="C142">
-        <v>1.145619266605916</v>
+        <v>0.8787441961356106</v>
       </c>
       <c r="D142">
-        <v>1.485560786536215</v>
+        <v>1.01077248284651</v>
       </c>
       <c r="E142">
-        <v>1.149355823554793</v>
+        <v>0.9418895242514804</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2805,16 +2805,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>1.204617246428858</v>
+        <v>0.9189018530524005</v>
       </c>
       <c r="C143">
-        <v>1.134783256203363</v>
+        <v>0.8886296492795694</v>
       </c>
       <c r="D143">
-        <v>1.346275201378287</v>
+        <v>0.9246278398770834</v>
       </c>
       <c r="E143">
-        <v>1.144196104174641</v>
+        <v>0.9443209330272323</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2822,16 +2822,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>1.170102076255237</v>
+        <v>0.9476327455287422</v>
       </c>
       <c r="C144">
-        <v>1.132276266858173</v>
+        <v>0.923091686954378</v>
       </c>
       <c r="D144">
-        <v>1.24069040388429</v>
+        <v>0.9758601027138797</v>
       </c>
       <c r="E144">
-        <v>1.140395309480151</v>
+        <v>0.9446866448548761</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2839,16 +2839,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>1.17414407381648</v>
+        <v>0.9614912781229027</v>
       </c>
       <c r="C145">
-        <v>1.117827797959842</v>
+        <v>0.9481224177261895</v>
       </c>
       <c r="D145">
-        <v>1.269196897156407</v>
+        <v>0.9907779769823474</v>
       </c>
       <c r="E145">
-        <v>1.140933322045335</v>
+        <v>0.9462268933001963</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2856,16 +2856,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>1.186799792189918</v>
+        <v>0.9560833983172757</v>
       </c>
       <c r="C146">
-        <v>1.128761863508095</v>
+        <v>0.9353949045211749</v>
       </c>
       <c r="D146">
-        <v>1.294783288033677</v>
+        <v>0.9899142969014776</v>
       </c>
       <c r="E146">
-        <v>1.143754910578106</v>
+        <v>0.9438320804539713</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2873,16 +2873,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1.167057667985545</v>
+        <v>0.9762866661344105</v>
       </c>
       <c r="C147">
-        <v>1.108419731905022</v>
+        <v>0.9259952833619877</v>
       </c>
       <c r="D147">
-        <v>1.265694946302542</v>
+        <v>1.068071124893817</v>
       </c>
       <c r="E147">
-        <v>1.133035858832474</v>
+        <v>0.9408559264883475</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2890,16 +2890,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>1.162698182283805</v>
+        <v>0.9713210798293432</v>
       </c>
       <c r="C148">
-        <v>1.07875435771058</v>
+        <v>0.907412138012862</v>
       </c>
       <c r="D148">
-        <v>1.294468262861415</v>
+        <v>1.078375396038593</v>
       </c>
       <c r="E148">
-        <v>1.125607583397557</v>
+        <v>0.9365131656320309</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2907,16 +2907,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>1.174230050532904</v>
+        <v>0.9538935056713725</v>
       </c>
       <c r="C149">
-        <v>1.074559707217917</v>
+        <v>0.8781325047925503</v>
       </c>
       <c r="D149">
-        <v>1.34319486390692</v>
+        <v>1.060590632075931</v>
       </c>
       <c r="E149">
-        <v>1.121734293507851</v>
+        <v>0.9319483334699991</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2924,16 +2924,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>1.167472176984166</v>
+        <v>0.9491887761526047</v>
       </c>
       <c r="C150">
-        <v>1.106103711053498</v>
+        <v>0.8857393881830994</v>
       </c>
       <c r="D150">
-        <v>1.281381342666352</v>
+        <v>1.044295978784356</v>
       </c>
       <c r="E150">
-        <v>1.122704264603588</v>
+        <v>0.9245453507291406</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2941,16 +2941,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>1.169784892099223</v>
+        <v>0.9393881668435057</v>
       </c>
       <c r="C151">
-        <v>1.080844489168541</v>
+        <v>0.8799829367817514</v>
       </c>
       <c r="D151">
-        <v>1.316597385167008</v>
+        <v>1.021971271402471</v>
       </c>
       <c r="E151">
-        <v>1.124868676676972</v>
+        <v>0.9217694642969979</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2958,16 +2958,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.168320328899493</v>
+        <v>0.93407808675849</v>
       </c>
       <c r="C152">
-        <v>1.063178850592711</v>
+        <v>0.859173258376923</v>
       </c>
       <c r="D152">
-        <v>1.337682094578069</v>
+        <v>1.031868193514873</v>
       </c>
       <c r="E152">
-        <v>1.121312227299674</v>
+        <v>0.9192731471819503</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2975,16 +2975,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>1.155340622787227</v>
+        <v>0.8760416012349005</v>
       </c>
       <c r="C153">
-        <v>1.047890052857762</v>
+        <v>0.8081997548886897</v>
       </c>
       <c r="D153">
-        <v>1.311944868921625</v>
+        <v>0.906974078311769</v>
       </c>
       <c r="E153">
-        <v>1.121757103084879</v>
+        <v>0.9171927256649098</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2992,16 +2992,16 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>1.209877214290511</v>
+        <v>0.8560050418396244</v>
       </c>
       <c r="C154">
-        <v>1.080788285635593</v>
+        <v>0.8044372134237228</v>
       </c>
       <c r="D154">
-        <v>1.458266890057353</v>
+        <v>0.8497569802260136</v>
       </c>
       <c r="E154">
-        <v>1.123689309245782</v>
+        <v>0.9175760604975086</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3009,16 +3009,16 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>1.18669061163142</v>
+        <v>0.8573998730683353</v>
       </c>
       <c r="C155">
-        <v>1.086979051386691</v>
+        <v>0.7937176284955538</v>
       </c>
       <c r="D155">
-        <v>1.372916536787973</v>
+        <v>0.8622443109819058</v>
       </c>
       <c r="E155">
-        <v>1.119817394063903</v>
+        <v>0.9209878077090278</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3026,16 +3026,16 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>1.187842259983854</v>
+        <v>0.8572873078276325</v>
       </c>
       <c r="C156">
-        <v>1.087782625789837</v>
+        <v>0.8017686005441713</v>
       </c>
       <c r="D156">
-        <v>1.377071765951115</v>
+        <v>0.8521955203061149</v>
       </c>
       <c r="E156">
-        <v>1.118864834832995</v>
+        <v>0.9221273241235179</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3043,16 +3043,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>1.187678480894394</v>
+        <v>0.8564650408421226</v>
       </c>
       <c r="C157">
-        <v>1.10144138164612</v>
+        <v>0.8274440348615689</v>
       </c>
       <c r="D157">
-        <v>1.363262424957007</v>
+        <v>0.8150383679720875</v>
       </c>
       <c r="E157">
-        <v>1.11572151914074</v>
+        <v>0.9315630172556929</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3060,16 +3060,16 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>1.188922763433479</v>
+        <v>0.869549495781224</v>
       </c>
       <c r="C158">
-        <v>1.122849894404481</v>
+        <v>0.8621713692780029</v>
       </c>
       <c r="D158">
-        <v>1.335486976844596</v>
+        <v>0.8108013233601131</v>
       </c>
       <c r="E158">
-        <v>1.120726308656296</v>
+        <v>0.9405348171275226</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3077,16 +3077,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>1.164434092707423</v>
+        <v>0.8638625233663096</v>
       </c>
       <c r="C159">
-        <v>1.105597229335301</v>
+        <v>0.8952004266760086</v>
       </c>
       <c r="D159">
-        <v>1.273396408252022</v>
+        <v>0.7636294780655969</v>
       </c>
       <c r="E159">
-        <v>1.121460999418677</v>
+        <v>0.9430417829712086</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3094,16 +3094,16 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.162146805782858</v>
+        <v>0.8697661763809269</v>
       </c>
       <c r="C160">
-        <v>1.109531662929518</v>
+        <v>0.8947631706573298</v>
       </c>
       <c r="D160">
-        <v>1.262174467002404</v>
+        <v>0.7786552911684101</v>
       </c>
       <c r="E160">
-        <v>1.120789072207701</v>
+        <v>0.9443961443314515</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3111,16 +3111,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>1.167314059034408</v>
+        <v>0.8739291120483297</v>
       </c>
       <c r="C161">
-        <v>1.131614454646845</v>
+        <v>0.925059209021829</v>
       </c>
       <c r="D161">
-        <v>1.255420195906161</v>
+        <v>0.7640285462361266</v>
       </c>
       <c r="E161">
-        <v>1.119632641675824</v>
+        <v>0.944385920545298</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3128,16 +3128,16 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>1.177222663620942</v>
+        <v>0.8761492636815739</v>
       </c>
       <c r="C162">
-        <v>1.148659948780956</v>
+        <v>0.9040967442716388</v>
       </c>
       <c r="D162">
-        <v>1.267892408405844</v>
+        <v>0.7869628173056854</v>
       </c>
       <c r="E162">
-        <v>1.120216495297663</v>
+        <v>0.945290258709515</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3145,16 +3145,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>1.165952080022997</v>
+        <v>0.8688225245930538</v>
       </c>
       <c r="C163">
-        <v>1.155873113711019</v>
+        <v>0.8774836941873383</v>
       </c>
       <c r="D163">
-        <v>1.223643643782646</v>
+        <v>0.797710676321331</v>
       </c>
       <c r="E163">
-        <v>1.120668033524109</v>
+        <v>0.9369334742661675</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3162,16 +3162,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>1.148561027382822</v>
+        <v>0.8608061419920574</v>
       </c>
       <c r="C164">
-        <v>1.178481408844755</v>
+        <v>0.8608281417792053</v>
       </c>
       <c r="D164">
-        <v>1.150280318627596</v>
+        <v>0.7953929222003503</v>
       </c>
       <c r="E164">
-        <v>1.117727156629187</v>
+        <v>0.9315751452420989</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3179,16 +3179,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>1.16328510461208</v>
+        <v>0.8488479098481736</v>
       </c>
       <c r="C165">
-        <v>1.217202266378995</v>
+        <v>0.8462074257617813</v>
       </c>
       <c r="D165">
-        <v>1.156175992142153</v>
+        <v>0.7757887887119521</v>
       </c>
       <c r="E165">
-        <v>1.118592239845293</v>
+        <v>0.9316854637243975</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3196,16 +3196,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1.178353745762255</v>
+        <v>0.8460539062879129</v>
       </c>
       <c r="C166">
-        <v>1.262146699469574</v>
+        <v>0.8323079067654037</v>
       </c>
       <c r="D166">
-        <v>1.159277540293857</v>
+        <v>0.7742570976499682</v>
       </c>
       <c r="E166">
-        <v>1.118226556882796</v>
+        <v>0.939777167426013</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3213,16 +3213,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>1.269307883123835</v>
+        <v>0.861362571067517</v>
       </c>
       <c r="C167">
-        <v>1.243953151447838</v>
+        <v>0.8155093618864744</v>
       </c>
       <c r="D167">
-        <v>1.474457807383355</v>
+        <v>0.8322128922339597</v>
       </c>
       <c r="E167">
-        <v>1.114973531427197</v>
+        <v>0.9416610319083553</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3230,16 +3230,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>1.2947986787825</v>
+        <v>0.8499755009802571</v>
       </c>
       <c r="C168">
-        <v>1.218179666681551</v>
+        <v>0.7895834916661661</v>
       </c>
       <c r="D168">
-        <v>1.606258671104792</v>
+        <v>0.8231794985243345</v>
       </c>
       <c r="E168">
-        <v>1.109378925328871</v>
+        <v>0.9447711414366775</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3247,16 +3247,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>1.273078380714931</v>
+        <v>0.8540675785020913</v>
       </c>
       <c r="C169">
-        <v>1.195004161733995</v>
+        <v>0.8012596351447605</v>
       </c>
       <c r="D169">
-        <v>1.562010335136066</v>
+        <v>0.8241739855893278</v>
       </c>
       <c r="E169">
-        <v>1.105381287486207</v>
+        <v>0.9433753849817585</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3264,16 +3264,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1.257452690816145</v>
+        <v>0.8388163937891847</v>
       </c>
       <c r="C170">
-        <v>1.179284621894077</v>
+        <v>0.8136084470009005</v>
       </c>
       <c r="D170">
-        <v>1.52351475144605</v>
+        <v>0.7661179524649057</v>
       </c>
       <c r="E170">
-        <v>1.106648410955858</v>
+        <v>0.9468684391832217</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3281,16 +3281,16 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>1.247060551178778</v>
+        <v>0.854030534011717</v>
       </c>
       <c r="C171">
-        <v>1.198897841104983</v>
+        <v>0.8366878931055042</v>
       </c>
       <c r="D171">
-        <v>1.46841805608524</v>
+        <v>0.783170434758765</v>
       </c>
       <c r="E171">
-        <v>1.10161725401969</v>
+        <v>0.950605725486569</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3298,16 +3298,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>1.269697903184943</v>
+        <v>0.8620140950189166</v>
       </c>
       <c r="C172">
-        <v>1.236850218994176</v>
+        <v>0.8575502673748285</v>
       </c>
       <c r="D172">
-        <v>1.504550228438591</v>
+        <v>0.7826329219850455</v>
       </c>
       <c r="E172">
-        <v>1.099961300696002</v>
+        <v>0.9543889489608854</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3315,16 +3315,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>1.281521729526346</v>
+        <v>0.8675668980398421</v>
       </c>
       <c r="C173">
-        <v>1.251815213833155</v>
+        <v>0.8755420120982562</v>
       </c>
       <c r="D173">
-        <v>1.529721463758169</v>
+        <v>0.7676713943416031</v>
       </c>
       <c r="E173">
-        <v>1.099069959707428</v>
+        <v>0.9715307958725325</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3332,16 +3332,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>1.278688431438202</v>
+        <v>0.8624452699309593</v>
       </c>
       <c r="C174">
-        <v>1.275288807951632</v>
+        <v>0.8917213532518403</v>
       </c>
       <c r="D174">
-        <v>1.494905013942875</v>
+        <v>0.7337818236352109</v>
       </c>
       <c r="E174">
-        <v>1.09666014688299</v>
+        <v>0.980389198609007</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3349,16 +3349,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>1.262331967592646</v>
+        <v>0.8908893734519977</v>
       </c>
       <c r="C175">
-        <v>1.250502330514583</v>
+        <v>0.8924871417683479</v>
       </c>
       <c r="D175">
-        <v>1.466851599682564</v>
+        <v>0.8076224303832076</v>
       </c>
       <c r="E175">
-        <v>1.096604584907551</v>
+        <v>0.9809819036760119</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3366,16 +3366,16 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>1.280283381212124</v>
+        <v>0.8887088943594093</v>
       </c>
       <c r="C176">
-        <v>1.284468912177863</v>
+        <v>0.8816063208505572</v>
       </c>
       <c r="D176">
-        <v>1.490155288505081</v>
+        <v>0.8122374521291501</v>
       </c>
       <c r="E176">
-        <v>1.096385285921199</v>
+        <v>0.980213938725328</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3383,16 +3383,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>1.295836084169381</v>
+        <v>0.8922487394827227</v>
       </c>
       <c r="C177">
-        <v>1.290637567951572</v>
+        <v>0.8876469210999024</v>
       </c>
       <c r="D177">
-        <v>1.536403560627085</v>
+        <v>0.8133513450204682</v>
       </c>
       <c r="E177">
-        <v>1.09733845882831</v>
+        <v>0.983873784899813</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3400,16 +3400,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>1.299509649127309</v>
+        <v>0.880898838814153</v>
       </c>
       <c r="C178">
-        <v>1.293561155999221</v>
+        <v>0.8932731364394768</v>
       </c>
       <c r="D178">
-        <v>1.545330805464615</v>
+        <v>0.770956061538504</v>
       </c>
       <c r="E178">
-        <v>1.097817369382285</v>
+        <v>0.9925770093176011</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3417,16 +3417,16 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>1.288942639113022</v>
+        <v>0.8858105918667933</v>
       </c>
       <c r="C179">
-        <v>1.282283750178098</v>
+        <v>0.8926547562612005</v>
       </c>
       <c r="D179">
-        <v>1.524855525203481</v>
+        <v>0.7809185607869895</v>
       </c>
       <c r="E179">
-        <v>1.095186131578858</v>
+        <v>0.9970876527769313</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3434,16 +3434,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.31036827369999</v>
+        <v>0.9088354917243938</v>
       </c>
       <c r="C180">
-        <v>1.305945981229556</v>
+        <v>0.9183685444231902</v>
       </c>
       <c r="D180">
-        <v>1.58458995121331</v>
+        <v>0.82482202409451</v>
       </c>
       <c r="E180">
-        <v>1.087271483733401</v>
+        <v>0.9910112560446894</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3451,16 +3451,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>1.293735510471582</v>
+        <v>0.9113562161410783</v>
       </c>
       <c r="C181">
-        <v>1.305137416198512</v>
+        <v>0.9178783602820694</v>
       </c>
       <c r="D181">
-        <v>1.530793663160263</v>
+        <v>0.8356685924672582</v>
       </c>
       <c r="E181">
-        <v>1.083836070385587</v>
+        <v>0.9868366474791183</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3468,16 +3468,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>1.274477980015584</v>
+        <v>0.9358457155100175</v>
       </c>
       <c r="C182">
-        <v>1.300730463937559</v>
+        <v>0.9467583503451741</v>
       </c>
       <c r="D182">
-        <v>1.467470253019729</v>
+        <v>0.8760194612589386</v>
       </c>
       <c r="E182">
-        <v>1.084527055050109</v>
+        <v>0.988234179660644</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3485,16 +3485,16 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>1.306664883763559</v>
+        <v>0.9424775593693633</v>
       </c>
       <c r="C183">
-        <v>1.334360301360075</v>
+        <v>0.956636387339694</v>
       </c>
       <c r="D183">
-        <v>1.546627883604572</v>
+        <v>0.8818136833318401</v>
       </c>
       <c r="E183">
-        <v>1.081019954733881</v>
+        <v>0.9924058722579642</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3502,16 +3502,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>1.280037306231291</v>
+        <v>0.9544303245722479</v>
       </c>
       <c r="C184">
-        <v>1.310016416743756</v>
+        <v>0.9700349768240762</v>
       </c>
       <c r="D184">
-        <v>1.484425262915301</v>
+        <v>0.901100882258678</v>
       </c>
       <c r="E184">
-        <v>1.078531432426964</v>
+        <v>0.994653647305891</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3519,16 +3519,16 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>1.2249084563164</v>
+        <v>0.9633111990488025</v>
       </c>
       <c r="C185">
-        <v>1.257136272963834</v>
+        <v>0.9480000318969458</v>
       </c>
       <c r="D185">
-        <v>1.357059647088701</v>
+        <v>0.9466181368245963</v>
       </c>
       <c r="E185">
-        <v>1.077282498414693</v>
+        <v>0.996131456256114</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3536,16 +3536,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>1.204135508730931</v>
+        <v>0.9526048141902881</v>
       </c>
       <c r="C186">
-        <v>1.225141892621182</v>
+        <v>0.9576370388813072</v>
       </c>
       <c r="D186">
-        <v>1.322360858167859</v>
+        <v>0.9039135139818085</v>
       </c>
       <c r="E186">
-        <v>1.077679730140151</v>
+        <v>0.9986435503005225</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3553,16 +3553,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>1.198848818375288</v>
+        <v>0.9452552341889199</v>
       </c>
       <c r="C187">
-        <v>1.189919115922071</v>
+        <v>0.9926575804586217</v>
       </c>
       <c r="D187">
-        <v>1.345796909007684</v>
+        <v>0.8507132326674797</v>
       </c>
       <c r="E187">
-        <v>1.075960407436641</v>
+        <v>1.000148806337197</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3570,16 +3570,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>1.147844306671106</v>
+        <v>0.9676594801753039</v>
       </c>
       <c r="C188">
-        <v>1.161218636052869</v>
+        <v>1.013960749398336</v>
       </c>
       <c r="D188">
-        <v>1.21538755592449</v>
+        <v>0.8882196849279721</v>
       </c>
       <c r="E188">
-        <v>1.071569073332685</v>
+        <v>1.006065206422434</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3587,16 +3587,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>1.165022034609465</v>
+        <v>0.9657238210384944</v>
       </c>
       <c r="C189">
-        <v>1.205171646468092</v>
+        <v>1.010897245841782</v>
       </c>
       <c r="D189">
-        <v>1.229421830046257</v>
+        <v>0.883046574362098</v>
       </c>
       <c r="E189">
-        <v>1.067216650393022</v>
+        <v>1.008946664166223</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3604,16 +3604,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>1.183460768447507</v>
+        <v>0.9702252936864532</v>
       </c>
       <c r="C190">
-        <v>1.209845907106193</v>
+        <v>1.026819294897403</v>
       </c>
       <c r="D190">
-        <v>1.288321234173487</v>
+        <v>0.8785019327453154</v>
       </c>
       <c r="E190">
-        <v>1.063426240688468</v>
+        <v>1.012467369084235</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3621,16 +3621,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.173975543792868</v>
+        <v>1.003937979711098</v>
       </c>
       <c r="C191">
-        <v>1.165691728287836</v>
+        <v>1.037490940843219</v>
       </c>
       <c r="D191">
-        <v>1.305751411080038</v>
+        <v>0.9595144763379878</v>
       </c>
       <c r="E191">
-        <v>1.062999183233835</v>
+        <v>1.016447163006049</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3638,16 +3638,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>1.169976504908601</v>
+        <v>0.9872621005746055</v>
       </c>
       <c r="C192">
-        <v>1.155637340801232</v>
+        <v>1.05503730560924</v>
       </c>
       <c r="D192">
-        <v>1.304432397872492</v>
+        <v>0.900480079464375</v>
       </c>
       <c r="E192">
-        <v>1.062400529351522</v>
+        <v>1.012874109944242</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3655,16 +3655,16 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>1.146307989579706</v>
+        <v>0.9676828837762093</v>
       </c>
       <c r="C193">
-        <v>1.148667990577407</v>
+        <v>1.03213427208074</v>
       </c>
       <c r="D193">
-        <v>1.236400087443374</v>
+        <v>0.8638421540835844</v>
       </c>
       <c r="E193">
-        <v>1.060597043347343</v>
+        <v>1.016315586289546</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3672,16 +3672,16 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1.188996095676832</v>
+        <v>0.9632084909480897</v>
       </c>
       <c r="C194">
-        <v>1.167960426020185</v>
+        <v>1.045637682212701</v>
       </c>
       <c r="D194">
-        <v>1.345314751955439</v>
+        <v>0.8445785814406253</v>
       </c>
       <c r="E194">
-        <v>1.069767139335055</v>
+        <v>1.011904711014828</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3689,16 +3689,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>1.198882520087736</v>
+        <v>0.94520379458916</v>
       </c>
       <c r="C195">
-        <v>1.189937362281689</v>
+        <v>1.054813335811671</v>
       </c>
       <c r="D195">
-        <v>1.355021971053721</v>
+        <v>0.7858259499214253</v>
       </c>
       <c r="E195">
-        <v>1.068708949813564</v>
+        <v>1.018765879991111</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3706,16 +3706,16 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>1.215834764272709</v>
+        <v>0.9571875919082528</v>
       </c>
       <c r="C196">
-        <v>1.220269418254961</v>
+        <v>1.056948025714671</v>
       </c>
       <c r="D196">
-        <v>1.378598866144132</v>
+        <v>0.815318617090473</v>
       </c>
       <c r="E196">
-        <v>1.068390521994621</v>
+        <v>1.017677539334129</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3723,16 +3723,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>1.243386314568637</v>
+        <v>0.956543411160515</v>
       </c>
       <c r="C197">
-        <v>1.237046481877683</v>
+        <v>1.087449865554272</v>
       </c>
       <c r="D197">
-        <v>1.459501105846008</v>
+        <v>0.78839120891583</v>
       </c>
       <c r="E197">
-        <v>1.064701343291928</v>
+        <v>1.020852594299568</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3740,16 +3740,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>1.213478196612963</v>
+        <v>0.9602614738412211</v>
       </c>
       <c r="C198">
-        <v>1.226967080364408</v>
+        <v>1.142711600780951</v>
       </c>
       <c r="D198">
-        <v>1.371562136672571</v>
+        <v>0.7536336202349342</v>
       </c>
       <c r="E198">
-        <v>1.061811767816829</v>
+        <v>1.02818583044834</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3757,16 +3757,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>1.240384816880606</v>
+        <v>0.9388793188767801</v>
       </c>
       <c r="C199">
-        <v>1.256954841064814</v>
+        <v>1.158388566947073</v>
       </c>
       <c r="D199">
-        <v>1.427421975627598</v>
+        <v>0.6917287954213623</v>
       </c>
       <c r="E199">
-        <v>1.063646391641592</v>
+        <v>1.032854630432308</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3774,16 +3774,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.25565693523523</v>
+        <v>0.9332371942420777</v>
       </c>
       <c r="C200">
-        <v>1.249757671849447</v>
+        <v>1.148840988798115</v>
       </c>
       <c r="D200">
-        <v>1.489197925521385</v>
+        <v>0.6802190875982722</v>
       </c>
       <c r="E200">
-        <v>1.06373822338952</v>
+        <v>1.040081523263392</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3791,16 +3791,16 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.319207853313427</v>
+        <v>0.9287175692740995</v>
       </c>
       <c r="C201">
-        <v>1.25756503078932</v>
+        <v>1.106794814343667</v>
       </c>
       <c r="D201">
-        <v>1.703384809615234</v>
+        <v>0.6939949193460513</v>
       </c>
       <c r="E201">
-        <v>1.071757328120019</v>
+        <v>1.042863764869294</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3808,16 +3808,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.350605336917333</v>
+        <v>0.9189989836289721</v>
       </c>
       <c r="C202">
-        <v>1.259681194864967</v>
+        <v>1.073054965208719</v>
       </c>
       <c r="D202">
-        <v>1.817383208611717</v>
+        <v>0.6932958645674533</v>
       </c>
       <c r="E202">
-        <v>1.076163423733405</v>
+        <v>1.043288727835348</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3825,16 +3825,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>1.370292503150292</v>
+        <v>0.9020262578479887</v>
       </c>
       <c r="C203">
-        <v>1.247745931882982</v>
+        <v>1.035011761203589</v>
       </c>
       <c r="D203">
-        <v>1.911407093505383</v>
+        <v>0.6809503593757535</v>
       </c>
       <c r="E203">
-        <v>1.078848567284638</v>
+        <v>1.041350192475306</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3842,16 +3842,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.333541698343588</v>
+        <v>0.8968056267917672</v>
       </c>
       <c r="C204">
-        <v>1.243411736690647</v>
+        <v>1.023293059214184</v>
       </c>
       <c r="D204">
-        <v>1.772271402257993</v>
+        <v>0.6777752714292954</v>
       </c>
       <c r="E204">
-        <v>1.076154456100959</v>
+        <v>1.039942256360995</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3859,16 +3859,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.340255589222039</v>
+        <v>0.893358125669318</v>
       </c>
       <c r="C205">
-        <v>1.244805137994814</v>
+        <v>1.002660914251227</v>
       </c>
       <c r="D205">
-        <v>1.798057655503512</v>
+        <v>0.6850806182534056</v>
       </c>
       <c r="E205">
-        <v>1.075617588986849</v>
+        <v>1.037960936629771</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3876,16 +3876,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>1.328612725060912</v>
+        <v>0.8578835401562114</v>
       </c>
       <c r="C206">
-        <v>1.246153992231994</v>
+        <v>1.000900047361756</v>
       </c>
       <c r="D206">
-        <v>1.739710990470527</v>
+        <v>0.6055995722350962</v>
       </c>
       <c r="E206">
-        <v>1.081798569368922</v>
+        <v>1.041618623768513</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3893,16 +3893,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>1.308107947544351</v>
+        <v>0.8918726430614157</v>
       </c>
       <c r="C207">
-        <v>1.252929406823505</v>
+        <v>1.055990251619693</v>
       </c>
       <c r="D207">
-        <v>1.659964696543777</v>
+        <v>0.6424238688379553</v>
       </c>
       <c r="E207">
-        <v>1.076230507395035</v>
+        <v>1.045747778678307</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3910,16 +3910,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>1.295178398340696</v>
+        <v>0.9044870009661549</v>
       </c>
       <c r="C208">
-        <v>1.233741392445524</v>
+        <v>1.076846013340079</v>
       </c>
       <c r="D208">
-        <v>1.640634955674356</v>
+        <v>0.6572391253360375</v>
       </c>
       <c r="E208">
-        <v>1.073377978608475</v>
+        <v>1.045514295725574</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3927,16 +3927,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>1.287788120801281</v>
+        <v>0.897045670790646</v>
       </c>
       <c r="C209">
-        <v>1.20798820452634</v>
+        <v>1.055031018317225</v>
       </c>
       <c r="D209">
-        <v>1.65412196780792</v>
+        <v>0.6520831702141223</v>
       </c>
       <c r="E209">
-        <v>1.068816183036814</v>
+        <v>1.049241462284922</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3944,16 +3944,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1.275900382414217</v>
+        <v>0.9219408797703135</v>
       </c>
       <c r="C210">
-        <v>1.193931132101498</v>
+        <v>1.060079293579179</v>
       </c>
       <c r="D210">
-        <v>1.629826121170412</v>
+        <v>0.7038042132247825</v>
       </c>
       <c r="E210">
-        <v>1.067406276418292</v>
+        <v>1.050313634940917</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3961,16 +3961,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>1.306869465569349</v>
+        <v>0.9350181473116677</v>
       </c>
       <c r="C211">
-        <v>1.194033019367887</v>
+        <v>1.089936446331066</v>
       </c>
       <c r="D211">
-        <v>1.750257060741226</v>
+        <v>0.7172747125836453</v>
       </c>
       <c r="E211">
-        <v>1.068017718760393</v>
+        <v>1.045618899763151</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3978,16 +3978,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>1.282910511775232</v>
+        <v>0.9576377339047693</v>
       </c>
       <c r="C212">
-        <v>1.192543000202172</v>
+        <v>1.116818588427411</v>
       </c>
       <c r="D212">
-        <v>1.657114773686357</v>
+        <v>0.7571674270382863</v>
       </c>
       <c r="E212">
-        <v>1.068470298488026</v>
+        <v>1.038554267274393</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3995,16 +3995,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>1.240054504632838</v>
+        <v>0.9481681670602069</v>
       </c>
       <c r="C213">
-        <v>1.166226125731374</v>
+        <v>1.107932298384009</v>
       </c>
       <c r="D213">
-        <v>1.528966477123646</v>
+        <v>0.7434065900255171</v>
       </c>
       <c r="E213">
-        <v>1.069403480333214</v>
+        <v>1.034943120734591</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4012,16 +4012,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>1.249603402536368</v>
+        <v>0.9551306055083078</v>
       </c>
       <c r="C214">
-        <v>1.139815798399982</v>
+        <v>1.122720882580922</v>
       </c>
       <c r="D214">
-        <v>1.597071546830727</v>
+        <v>0.7466969975358577</v>
       </c>
       <c r="E214">
-        <v>1.071908099612132</v>
+        <v>1.039374550841936</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4029,16 +4029,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>1.264811515744703</v>
+        <v>0.9586624059739545</v>
       </c>
       <c r="C215">
-        <v>1.143002229066288</v>
+        <v>1.118452754101486</v>
       </c>
       <c r="D215">
-        <v>1.654184825636988</v>
+        <v>0.7552967872329693</v>
       </c>
       <c r="E215">
-        <v>1.070154108779857</v>
+        <v>1.042945968781406</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4046,16 +4046,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>1.2893041668937</v>
+        <v>0.9769392130157794</v>
       </c>
       <c r="C216">
-        <v>1.150781183773729</v>
+        <v>1.102517174296084</v>
       </c>
       <c r="D216">
-        <v>1.740137271880533</v>
+        <v>0.8132635955555498</v>
       </c>
       <c r="E216">
-        <v>1.0702614859387</v>
+        <v>1.039886476286913</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4063,16 +4063,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>1.265300530312967</v>
+        <v>0.9763878068399785</v>
       </c>
       <c r="C217">
-        <v>1.134781364521252</v>
+        <v>1.085052228651399</v>
       </c>
       <c r="D217">
-        <v>1.668550027036268</v>
+        <v>0.8287954091929787</v>
       </c>
       <c r="E217">
-        <v>1.069866632305364</v>
+        <v>1.035068427965441</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4080,16 +4080,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1.262018387323745</v>
+        <v>1.01079451534689</v>
       </c>
       <c r="C218">
-        <v>1.135875821200013</v>
+        <v>1.071179187875805</v>
       </c>
       <c r="D218">
-        <v>1.650080380202201</v>
+        <v>0.9282555517179881</v>
       </c>
       <c r="E218">
-        <v>1.072410585305487</v>
+        <v>1.038625422804152</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4097,16 +4097,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>1.280592820418315</v>
+        <v>0.976618690628988</v>
       </c>
       <c r="C219">
-        <v>1.139568104590371</v>
+        <v>1.043437780324798</v>
       </c>
       <c r="D219">
-        <v>1.715923354742872</v>
+        <v>0.858944145608982</v>
       </c>
       <c r="E219">
-        <v>1.073977090657255</v>
+        <v>1.03930642814973</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4114,16 +4114,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>1.292596087934796</v>
+        <v>0.9258163412375833</v>
       </c>
       <c r="C220">
-        <v>1.143566630849509</v>
+        <v>1.023381951506142</v>
       </c>
       <c r="D220">
-        <v>1.753688005271213</v>
+        <v>0.7456043243723285</v>
       </c>
       <c r="E220">
-        <v>1.076898335810965</v>
+        <v>1.039988063354366</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4131,16 +4131,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>1.258565050282541</v>
+        <v>0.9017209283876766</v>
       </c>
       <c r="C221">
-        <v>1.120155672553879</v>
+        <v>1.03064589952146</v>
       </c>
       <c r="D221">
-        <v>1.652477486916885</v>
+        <v>0.6813544331304556</v>
       </c>
       <c r="E221">
-        <v>1.076993465673154</v>
+        <v>1.044080255227157</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4148,16 +4148,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>1.27120917821531</v>
+        <v>0.9222059804507855</v>
       </c>
       <c r="C222">
-        <v>1.1133112346425</v>
+        <v>1.056844658900223</v>
       </c>
       <c r="D222">
-        <v>1.710754786941006</v>
+        <v>0.7066735114193463</v>
       </c>
       <c r="E222">
-        <v>1.078565945985016</v>
+        <v>1.050156036555213</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4165,16 +4165,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>1.307507664207929</v>
+        <v>0.9320868756298243</v>
       </c>
       <c r="C223">
-        <v>1.101533539797442</v>
+        <v>1.066497413173775</v>
       </c>
       <c r="D223">
-        <v>1.871371034957562</v>
+        <v>0.7222690597691622</v>
       </c>
       <c r="E223">
-        <v>1.084364026014526</v>
+        <v>1.051260535164859</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4182,16 +4182,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>1.302793320882955</v>
+        <v>0.9054197105602736</v>
       </c>
       <c r="C224">
-        <v>1.084133448594671</v>
+        <v>1.037952268963226</v>
       </c>
       <c r="D224">
-        <v>1.876546281454078</v>
+        <v>0.6806753004200068</v>
       </c>
       <c r="E224">
-        <v>1.086887380526245</v>
+        <v>1.050588057409136</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4199,16 +4199,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>1.350379504874252</v>
+        <v>0.8987072230134037</v>
       </c>
       <c r="C225">
-        <v>1.093597809053768</v>
+        <v>1.03235711465425</v>
       </c>
       <c r="D225">
-        <v>2.065075945048655</v>
+        <v>0.6685717862159195</v>
       </c>
       <c r="E225">
-        <v>1.090369900577478</v>
+        <v>1.051663245409982</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4216,16 +4216,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>1.316548961605697</v>
+        <v>0.8853524481103142</v>
       </c>
       <c r="C226">
-        <v>1.063031434055281</v>
+        <v>1.057797396307297</v>
       </c>
       <c r="D226">
-        <v>1.963191901866744</v>
+        <v>0.6237801590760896</v>
       </c>
       <c r="E226">
-        <v>1.093458195053352</v>
+        <v>1.051754858828594</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4233,16 +4233,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>1.351129173513262</v>
+        <v>0.9084350904912857</v>
       </c>
       <c r="C227">
-        <v>1.094547464042668</v>
+        <v>1.092051638070616</v>
       </c>
       <c r="D227">
-        <v>2.055138008265378</v>
+        <v>0.6547516037084991</v>
       </c>
       <c r="E227">
-        <v>1.096516127576782</v>
+        <v>1.048484366228992</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4250,16 +4250,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>1.325881546510498</v>
+        <v>0.901949800294736</v>
       </c>
       <c r="C228">
-        <v>1.115666148371476</v>
+        <v>1.081751525784998</v>
       </c>
       <c r="D228">
-        <v>1.904426034586236</v>
+        <v>0.6448791786277206</v>
       </c>
       <c r="E228">
-        <v>1.097023201473828</v>
+        <v>1.051819525992249</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4267,16 +4267,16 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>1.324770040010366</v>
+        <v>0.9059535804937843</v>
       </c>
       <c r="C229">
-        <v>1.098982409083573</v>
+        <v>1.09938925329998</v>
       </c>
       <c r="D229">
-        <v>1.92555968127207</v>
+        <v>0.6422301016310511</v>
       </c>
       <c r="E229">
-        <v>1.098686451217614</v>
+        <v>1.053114742745089</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4284,16 +4284,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>1.322007687325225</v>
+        <v>0.8957737759596297</v>
       </c>
       <c r="C230">
-        <v>1.079803056052071</v>
+        <v>1.11718080595726</v>
       </c>
       <c r="D230">
-        <v>1.932065560073415</v>
+        <v>0.6136801897489528</v>
       </c>
       <c r="E230">
-        <v>1.107479077377237</v>
+        <v>1.048405916128716</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4301,16 +4301,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>1.320852610769758</v>
+        <v>0.9066720286093088</v>
       </c>
       <c r="C231">
-        <v>1.076172038456092</v>
+        <v>1.121914822705893</v>
       </c>
       <c r="D231">
-        <v>1.926936307088735</v>
+        <v>0.6356152512323917</v>
       </c>
       <c r="E231">
-        <v>1.11125572979093</v>
+        <v>1.04519291658739</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4318,16 +4318,16 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>1.337618330575981</v>
+        <v>0.896042525823559</v>
       </c>
       <c r="C232">
-        <v>1.063350744359085</v>
+        <v>1.077779646082393</v>
       </c>
       <c r="D232">
-        <v>2.018460318071093</v>
+        <v>0.6415408154287343</v>
       </c>
       <c r="E232">
-        <v>1.115064218142271</v>
+        <v>1.040474869764486</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4335,16 +4335,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>1.369068161049436</v>
+        <v>0.8842955951157024</v>
       </c>
       <c r="C233">
-        <v>1.054967543500192</v>
+        <v>1.062247685122317</v>
       </c>
       <c r="D233">
-        <v>2.175451005727667</v>
+        <v>0.6281971128005824</v>
       </c>
       <c r="E233">
-        <v>1.118115856815237</v>
+        <v>1.036264584025639</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4352,16 +4352,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>1.362601249471938</v>
+        <v>0.8866106844471984</v>
       </c>
       <c r="C234">
-        <v>1.060204346222931</v>
+        <v>1.066123573406726</v>
       </c>
       <c r="D234">
-        <v>2.13162088458016</v>
+        <v>0.6302791510578816</v>
       </c>
       <c r="E234">
-        <v>1.119455415617371</v>
+        <v>1.037190175130091</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4369,16 +4369,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>1.342184412126002</v>
+        <v>0.9078119604671847</v>
       </c>
       <c r="C235">
-        <v>1.04583680467977</v>
+        <v>1.087822765256849</v>
       </c>
       <c r="D235">
-        <v>2.062845488965596</v>
+        <v>0.6577350750657053</v>
       </c>
       <c r="E235">
-        <v>1.120742783454123</v>
+        <v>1.045631253271045</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4386,16 +4386,16 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>1.358464325509977</v>
+        <v>0.9154279998525471</v>
       </c>
       <c r="C236">
-        <v>1.050724228672626</v>
+        <v>1.067526419844458</v>
       </c>
       <c r="D236">
-        <v>2.128049149963436</v>
+        <v>0.6845665000539695</v>
       </c>
       <c r="E236">
-        <v>1.121177342673448</v>
+        <v>1.049731672587645</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4403,16 +4403,16 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>1.32322508199571</v>
+        <v>0.9227155496511176</v>
       </c>
       <c r="C237">
-        <v>1.032449363463441</v>
+        <v>1.062291339683033</v>
       </c>
       <c r="D237">
-        <v>1.99519741832533</v>
+        <v>0.7071336222801955</v>
       </c>
       <c r="E237">
-        <v>1.124725491133181</v>
+        <v>1.045823484990842</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4420,16 +4420,16 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>1.264802100101223</v>
+        <v>0.9298024423465903</v>
       </c>
       <c r="C238">
-        <v>1.055593324779299</v>
+        <v>1.071752496124847</v>
       </c>
       <c r="D238">
-        <v>1.700008076613496</v>
+        <v>0.7178038295454944</v>
       </c>
       <c r="E238">
-        <v>1.127509251857938</v>
+        <v>1.044892888062511</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4437,16 +4437,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>1.29580786419037</v>
+        <v>0.9229378536159646</v>
       </c>
       <c r="C239">
-        <v>1.081214560164165</v>
+        <v>1.04110128746731</v>
       </c>
       <c r="D239">
-        <v>1.777256711215326</v>
+        <v>0.7186592985234598</v>
       </c>
       <c r="E239">
-        <v>1.132295511189142</v>
+        <v>1.050754704565966</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4454,16 +4454,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>1.338535507781886</v>
+        <v>0.9002923971322985</v>
       </c>
       <c r="C240">
-        <v>1.088902529114877</v>
+        <v>1.023351635659723</v>
       </c>
       <c r="D240">
-        <v>1.947123849902467</v>
+        <v>0.6760233580517918</v>
       </c>
       <c r="E240">
-        <v>1.131115897094227</v>
+        <v>1.054785516397932</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4471,16 +4471,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>1.353619043206163</v>
+        <v>0.8994168665758652</v>
       </c>
       <c r="C241">
-        <v>1.079264008266525</v>
+        <v>1.023378093193565</v>
       </c>
       <c r="D241">
-        <v>2.029392191162165</v>
+        <v>0.6697878118158104</v>
       </c>
       <c r="E241">
-        <v>1.132389118531232</v>
+        <v>1.061474892730995</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4488,16 +4488,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>1.363918006393911</v>
+        <v>0.8957091273934841</v>
       </c>
       <c r="C242">
-        <v>1.066178046734579</v>
+        <v>1.047363748846242</v>
       </c>
       <c r="D242">
-        <v>2.092053950859662</v>
+        <v>0.6409291034400179</v>
       </c>
       <c r="E242">
-        <v>1.137528202565737</v>
+        <v>1.070516754078394</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4505,16 +4505,16 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>1.404457818027225</v>
+        <v>0.8930841129539604</v>
       </c>
       <c r="C243">
-        <v>1.092303753294131</v>
+        <v>1.060570131277561</v>
       </c>
       <c r="D243">
-        <v>2.225362894565092</v>
+        <v>0.6247304131227693</v>
       </c>
       <c r="E243">
-        <v>1.139677125448131</v>
+        <v>1.075090565241042</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4522,16 +4522,16 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>1.406531234565768</v>
+        <v>0.8888879599384569</v>
       </c>
       <c r="C244">
-        <v>1.086339369900952</v>
+        <v>1.10450648487457</v>
       </c>
       <c r="D244">
-        <v>2.240830750790599</v>
+        <v>0.5895046910944783</v>
       </c>
       <c r="E244">
-        <v>1.143071950899644</v>
+        <v>1.07866238803166</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4539,16 +4539,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>1.427554887172031</v>
+        <v>0.9151139865106196</v>
       </c>
       <c r="C245">
-        <v>1.105779299704344</v>
+        <v>1.092724133385923</v>
       </c>
       <c r="D245">
-        <v>2.304047444839776</v>
+        <v>0.6494100498062452</v>
       </c>
       <c r="E245">
-        <v>1.141875019240441</v>
+        <v>1.079931077977534</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4556,16 +4556,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>1.444123810781297</v>
+        <v>0.9234273570396901</v>
       </c>
       <c r="C246">
-        <v>1.107404883194354</v>
+        <v>1.070606754535688</v>
       </c>
       <c r="D246">
-        <v>2.397166308545102</v>
+        <v>0.6802903832397627</v>
       </c>
       <c r="E246">
-        <v>1.134510936362974</v>
+        <v>1.081144887803593</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4573,16 +4573,16 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>1.443925979370981</v>
+        <v>0.9151828140095001</v>
       </c>
       <c r="C247">
-        <v>1.095286896623794</v>
+        <v>1.039207752842178</v>
       </c>
       <c r="D247">
-        <v>2.413768779625938</v>
+        <v>0.6823454668849556</v>
       </c>
       <c r="E247">
-        <v>1.138705015034387</v>
+        <v>1.08097805972116</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4590,16 +4590,16 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>1.448726331474202</v>
+        <v>0.9474298510342225</v>
       </c>
       <c r="C248">
-        <v>1.081211676568779</v>
+        <v>1.055604650085162</v>
       </c>
       <c r="D248">
-        <v>2.462500593304708</v>
+        <v>0.7451794829891307</v>
       </c>
       <c r="E248">
-        <v>1.142015478505875</v>
+        <v>1.081132713391464</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4607,16 +4607,16 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>1.412467724218601</v>
+        <v>0.9375176890611781</v>
       </c>
       <c r="C249">
-        <v>1.077152517041498</v>
+        <v>1.04539233461738</v>
       </c>
       <c r="D249">
-        <v>2.288292716802705</v>
+        <v>0.7275128393553473</v>
       </c>
       <c r="E249">
-        <v>1.143264765676674</v>
+        <v>1.083473861708235</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4624,16 +4624,16 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>1.424200906884485</v>
+        <v>0.91471317477132</v>
       </c>
       <c r="C250">
-        <v>1.094695965897401</v>
+        <v>1.061075986825535</v>
       </c>
       <c r="D250">
-        <v>2.307349972623734</v>
+        <v>0.6642390975478015</v>
       </c>
       <c r="E250">
-        <v>1.14368594538004</v>
+        <v>1.085885120115045</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4641,16 +4641,16 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>1.410121055966342</v>
+        <v>0.9071538074563688</v>
       </c>
       <c r="C251">
-        <v>1.10755476176094</v>
+        <v>1.053083156409613</v>
       </c>
       <c r="D251">
-        <v>2.223226830970809</v>
+        <v>0.6505835106676587</v>
       </c>
       <c r="E251">
-        <v>1.138728548894119</v>
+        <v>1.089625014932538</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4658,16 +4658,16 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>1.45980081792316</v>
+        <v>0.9465505536122379</v>
       </c>
       <c r="C252">
-        <v>1.11305891120947</v>
+        <v>1.050876616715584</v>
       </c>
       <c r="D252">
-        <v>2.456365948457079</v>
+        <v>0.7431412936661981</v>
       </c>
       <c r="E252">
-        <v>1.137809586762696</v>
+        <v>1.085946222082772</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4675,16 +4675,16 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>1.468949553655532</v>
+        <v>0.9610738187738879</v>
       </c>
       <c r="C253">
-        <v>1.107644477330075</v>
+        <v>1.021267744472659</v>
       </c>
       <c r="D253">
-        <v>2.51768207819945</v>
+        <v>0.8016469097238702</v>
       </c>
       <c r="E253">
-        <v>1.136630668290333</v>
+        <v>1.08429511545699</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4692,16 +4692,16 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>1.491027116890727</v>
+        <v>0.9562630340418969</v>
       </c>
       <c r="C254">
-        <v>1.082877303030497</v>
+        <v>1.00723609351486</v>
       </c>
       <c r="D254">
-        <v>2.683502027023423</v>
+        <v>0.8072767490338558</v>
       </c>
       <c r="E254">
-        <v>1.140710520665624</v>
+        <v>1.075420668532473</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4709,16 +4709,16 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>1.438860608080062</v>
+        <v>0.9574752992852745</v>
       </c>
       <c r="C255">
-        <v>1.052308863807911</v>
+        <v>0.9817785297079659</v>
       </c>
       <c r="D255">
-        <v>2.480030027583095</v>
+        <v>0.8371449494862971</v>
       </c>
       <c r="E255">
-        <v>1.141447657731612</v>
+        <v>1.067993341450764</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4726,16 +4726,16 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>1.441525924991279</v>
+        <v>0.9394745155765042</v>
       </c>
       <c r="C256">
-        <v>1.055920256759057</v>
+        <v>0.967062956451443</v>
       </c>
       <c r="D256">
-        <v>2.492179597621845</v>
+        <v>0.8069508597272198</v>
       </c>
       <c r="E256">
-        <v>1.138300467444091</v>
+        <v>1.062559295502042</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4743,16 +4743,16 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>1.454531387062338</v>
+        <v>0.9393916011330187</v>
       </c>
       <c r="C257">
-        <v>1.059553225609464</v>
+        <v>0.9218016745697571</v>
       </c>
       <c r="D257">
-        <v>2.564019986308097</v>
+        <v>0.8491092373559394</v>
       </c>
       <c r="E257">
-        <v>1.132726621906617</v>
+        <v>1.059104859094635</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4760,16 +4760,16 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>1.390830275053107</v>
+        <v>0.9555760251090134</v>
       </c>
       <c r="C258">
-        <v>1.015764638194827</v>
+        <v>0.9081783644753477</v>
       </c>
       <c r="D258">
-        <v>2.335090543433229</v>
+        <v>0.9084266006288607</v>
       </c>
       <c r="E258">
-        <v>1.134293888881224</v>
+        <v>1.057632385372338</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4777,16 +4777,16 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>1.357208929598378</v>
+        <v>0.9477376119317611</v>
       </c>
       <c r="C259">
-        <v>1.011537044209961</v>
+        <v>0.9098992364146405</v>
       </c>
       <c r="D259">
-        <v>2.176547705027564</v>
+        <v>0.8880215752584163</v>
       </c>
       <c r="E259">
-        <v>1.13550785477634</v>
+        <v>1.053531514107328</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4794,16 +4794,16 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>1.369401340591001</v>
+        <v>0.9309081945976631</v>
       </c>
       <c r="C260">
-        <v>1.033275651359576</v>
+        <v>0.8929671736840837</v>
       </c>
       <c r="D260">
-        <v>2.199719825040577</v>
+        <v>0.8581148261362287</v>
       </c>
       <c r="E260">
-        <v>1.12981849959944</v>
+        <v>1.052784931562125</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4811,16 +4811,16 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>1.356031533895972</v>
+        <v>0.9142515979985569</v>
       </c>
       <c r="C261">
-        <v>1.03046827309541</v>
+        <v>0.8998563801450237</v>
       </c>
       <c r="D261">
-        <v>2.140088820330939</v>
+        <v>0.8101064273092005</v>
       </c>
       <c r="E261">
-        <v>1.130688418345503</v>
+        <v>1.048291118330603</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4828,16 +4828,16 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>1.377753734468252</v>
+        <v>0.9113817065755171</v>
       </c>
       <c r="C262">
-        <v>1.037779498513835</v>
+        <v>0.9077612470082665</v>
       </c>
       <c r="D262">
-        <v>2.222908187589912</v>
+        <v>0.7935048000743599</v>
       </c>
       <c r="E262">
-        <v>1.133673978435585</v>
+        <v>1.050944361807113</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4845,16 +4845,16 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>1.356791124220394</v>
+        <v>0.9130043307298797</v>
       </c>
       <c r="C263">
-        <v>1.033405163012661</v>
+        <v>0.9033304828513858</v>
       </c>
       <c r="D263">
-        <v>2.134832806838787</v>
+        <v>0.7989694284968468</v>
       </c>
       <c r="E263">
-        <v>1.132151344048075</v>
+        <v>1.054488104819748</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4862,16 +4862,16 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>1.321851992191452</v>
+        <v>0.8996630069860473</v>
       </c>
       <c r="C264">
-        <v>1.024568279363801</v>
+        <v>0.920180093134799</v>
       </c>
       <c r="D264">
-        <v>1.994639501478204</v>
+        <v>0.7451627848811846</v>
       </c>
       <c r="E264">
-        <v>1.130168421281559</v>
+        <v>1.061978192868527</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4879,16 +4879,16 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>1.273101012430467</v>
+        <v>0.914577864281631</v>
       </c>
       <c r="C265">
-        <v>1.030788454284069</v>
+        <v>0.9487288351529728</v>
       </c>
       <c r="D265">
-        <v>1.771885083886299</v>
+        <v>0.7610316153067599</v>
       </c>
       <c r="E265">
-        <v>1.129752973156535</v>
+        <v>1.059539758984823</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4896,16 +4896,16 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>1.278199070449783</v>
+        <v>0.889268802914925</v>
       </c>
       <c r="C266">
-        <v>1.044555392333114</v>
+        <v>0.9477675621689488</v>
       </c>
       <c r="D266">
-        <v>1.757139728863696</v>
+        <v>0.6981468426360146</v>
       </c>
       <c r="E266">
-        <v>1.13777848857606</v>
+        <v>1.062797566706557</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4913,16 +4913,16 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>1.298472909087588</v>
+        <v>0.8779813435886273</v>
       </c>
       <c r="C267">
-        <v>1.073148301370657</v>
+        <v>0.9583235843357002</v>
       </c>
       <c r="D267">
-        <v>1.798062445535487</v>
+        <v>0.6634051552797851</v>
       </c>
       <c r="E267">
-        <v>1.13457749893766</v>
+        <v>1.064547009878948</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4930,16 +4930,16 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>1.261413336961085</v>
+        <v>0.8895753968678515</v>
       </c>
       <c r="C268">
-        <v>1.097008941361916</v>
+        <v>0.9526953767338218</v>
       </c>
       <c r="D268">
-        <v>1.610831220835953</v>
+        <v>0.6920003784622731</v>
       </c>
       <c r="E268">
-        <v>1.135826637705934</v>
+        <v>1.067795040779292</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4947,16 +4947,16 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>1.228624614328952</v>
+        <v>0.8821490582826692</v>
       </c>
       <c r="C269">
-        <v>1.113933003264023</v>
+        <v>0.9417545445408849</v>
       </c>
       <c r="D269">
-        <v>1.464173616480547</v>
+        <v>0.68317011447373</v>
       </c>
       <c r="E269">
-        <v>1.137119185712699</v>
+        <v>1.066987521062907</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4964,16 +4964,16 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>1.249412934175596</v>
+        <v>0.8954065878114567</v>
       </c>
       <c r="C270">
-        <v>1.108776696092453</v>
+        <v>0.9291798735348219</v>
       </c>
       <c r="D270">
-        <v>1.551587083629731</v>
+        <v>0.7203207503110731</v>
       </c>
       <c r="E270">
-        <v>1.133698958083226</v>
+        <v>1.072593438875329</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4981,16 +4981,16 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>1.25225774946175</v>
+        <v>0.8753938996108442</v>
       </c>
       <c r="C271">
-        <v>1.099886873232762</v>
+        <v>0.9359611040359416</v>
       </c>
       <c r="D271">
-        <v>1.58290114647976</v>
+        <v>0.6620042249931211</v>
       </c>
       <c r="E271">
-        <v>1.127922788701089</v>
+        <v>1.08265973474524</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -4998,16 +4998,16 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>1.268279468810052</v>
+        <v>0.8806690724410782</v>
       </c>
       <c r="C272">
-        <v>1.101701349182437</v>
+        <v>0.9366906652067617</v>
       </c>
       <c r="D272">
-        <v>1.643630748711852</v>
+        <v>0.6708025967623686</v>
       </c>
       <c r="E272">
-        <v>1.126618160399316</v>
+        <v>1.087044461135993</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5015,16 +5015,16 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>1.25926893719266</v>
+        <v>0.8872523460383106</v>
       </c>
       <c r="C273">
-        <v>1.129192752369144</v>
+        <v>0.9373731832950144</v>
       </c>
       <c r="D273">
-        <v>1.564293053607389</v>
+        <v>0.6855401226149607</v>
       </c>
       <c r="E273">
-        <v>1.130496632544095</v>
+        <v>1.086916211490168</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5032,16 +5032,16 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>1.213319792632502</v>
+        <v>0.8768959045651507</v>
       </c>
       <c r="C274">
-        <v>1.126173570830534</v>
+        <v>0.9305264547007086</v>
       </c>
       <c r="D274">
-        <v>1.400543906758145</v>
+        <v>0.6692161066874939</v>
       </c>
       <c r="E274">
-        <v>1.132462388742318</v>
+        <v>1.082801916357235</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5049,16 +5049,16 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>1.172880486376385</v>
+        <v>0.8584291794630203</v>
       </c>
       <c r="C275">
-        <v>1.131674052691451</v>
+        <v>0.9261801175991276</v>
       </c>
       <c r="D275">
-        <v>1.263129029153184</v>
+        <v>0.6320434298999444</v>
       </c>
       <c r="E275">
-        <v>1.128735561405598</v>
+        <v>1.080615120075902</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5066,16 +5066,16 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>1.163163249512558</v>
+        <v>0.8482285209016767</v>
       </c>
       <c r="C276">
-        <v>1.140213660116411</v>
+        <v>0.9242020709055426</v>
       </c>
       <c r="D276">
-        <v>1.219264326749588</v>
+        <v>0.6112092309514</v>
       </c>
       <c r="E276">
-        <v>1.131977798549635</v>
+        <v>1.080393024105399</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5083,16 +5083,16 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>1.197550248988971</v>
+        <v>0.8323289979742607</v>
       </c>
       <c r="C277">
-        <v>1.135149090981896</v>
+        <v>0.9078311404332192</v>
       </c>
       <c r="D277">
-        <v>1.337696359695987</v>
+        <v>0.5908539405763548</v>
       </c>
       <c r="E277">
-        <v>1.1310213035651</v>
+        <v>1.07497871324365</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5100,16 +5100,16 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>1.182529106747531</v>
+        <v>0.8613972302087138</v>
       </c>
       <c r="C278">
-        <v>1.124594283812218</v>
+        <v>0.9412224815233069</v>
       </c>
       <c r="D278">
-        <v>1.294477752643035</v>
+        <v>0.6332014642819375</v>
       </c>
       <c r="E278">
-        <v>1.135912961538925</v>
+        <v>1.072447918067731</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5117,16 +5117,16 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>1.18022266795606</v>
+        <v>0.9158778239803256</v>
       </c>
       <c r="C279">
-        <v>1.13376203091181</v>
+        <v>0.9324243863839156</v>
       </c>
       <c r="D279">
-        <v>1.278966505223406</v>
+        <v>0.7681918988179238</v>
       </c>
       <c r="E279">
-        <v>1.133732967294672</v>
+        <v>1.072578987492012</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5134,16 +5134,16 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>1.198657696348859</v>
+        <v>0.9051866552875171</v>
       </c>
       <c r="C280">
-        <v>1.162197953764065</v>
+        <v>0.9410349792452367</v>
       </c>
       <c r="D280">
-        <v>1.312674947586363</v>
+        <v>0.7368016428987949</v>
       </c>
       <c r="E280">
-        <v>1.128881176556187</v>
+        <v>1.06969034468662</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5151,16 +5151,16 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>1.184499657343898</v>
+        <v>0.9018854327723606</v>
       </c>
       <c r="C281">
-        <v>1.123818580280675</v>
+        <v>0.9441068932216169</v>
       </c>
       <c r="D281">
-        <v>1.319409559342757</v>
+        <v>0.7276414195846627</v>
       </c>
       <c r="E281">
-        <v>1.120802223623834</v>
+        <v>1.067862991925138</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5168,16 +5168,16 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>1.141736240758925</v>
+        <v>0.921163262004008</v>
       </c>
       <c r="C282">
-        <v>1.143254858187144</v>
+        <v>0.9698441144182377</v>
       </c>
       <c r="D282">
-        <v>1.172007784268401</v>
+        <v>0.7547095970227086</v>
       </c>
       <c r="E282">
-        <v>1.110769146347281</v>
+        <v>1.06789368891036</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5185,16 +5185,16 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>1.123133646722929</v>
+        <v>0.9388295385043475</v>
       </c>
       <c r="C283">
-        <v>1.147936518621055</v>
+        <v>0.983695360197494</v>
       </c>
       <c r="D283">
-        <v>1.112674969893055</v>
+        <v>0.7873991470178158</v>
       </c>
       <c r="E283">
-        <v>1.109195562366455</v>
+        <v>1.068328153039843</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5202,16 +5202,16 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>1.067770218315883</v>
+        <v>0.9532754825027092</v>
       </c>
       <c r="C284">
-        <v>1.141549631229951</v>
+        <v>0.9737068053772536</v>
       </c>
       <c r="D284">
-        <v>0.9634792427026514</v>
+        <v>0.8345926160156345</v>
       </c>
       <c r="E284">
-        <v>1.106869065444762</v>
+        <v>1.065988518368814</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5219,16 +5219,16 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>1.065931441977292</v>
+        <v>0.9560557979891541</v>
       </c>
       <c r="C285">
-        <v>1.186869297572573</v>
+        <v>0.9897748736761262</v>
       </c>
       <c r="D285">
-        <v>0.9238726865063397</v>
+        <v>0.8265457373218027</v>
       </c>
       <c r="E285">
-        <v>1.104517993690779</v>
+        <v>1.068184824400522</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5236,16 +5236,16 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>1.050028188850476</v>
+        <v>0.997290609396514</v>
       </c>
       <c r="C286">
-        <v>1.194330763543159</v>
+        <v>1.003816625785088</v>
       </c>
       <c r="D286">
-        <v>0.8807988475388397</v>
+        <v>0.9194949387493263</v>
       </c>
       <c r="E286">
-        <v>1.100529067907574</v>
+        <v>1.074636188954178</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5253,16 +5253,16 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>1.034632669472392</v>
+        <v>1.01669572823208</v>
       </c>
       <c r="C287">
-        <v>1.218886006279899</v>
+        <v>1.001377874602103</v>
       </c>
       <c r="D287">
-        <v>0.8272679218873795</v>
+        <v>0.9730282425906054</v>
       </c>
       <c r="E287">
-        <v>1.098371579848048</v>
+        <v>1.078573036263133</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5270,16 +5270,16 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>1.048725912097972</v>
+        <v>1.035800128573375</v>
       </c>
       <c r="C288">
-        <v>1.216871228734591</v>
+        <v>1.008967081740643</v>
       </c>
       <c r="D288">
-        <v>0.8674989287779354</v>
+        <v>1.025199617626595</v>
       </c>
       <c r="E288">
-        <v>1.0926282528385</v>
+        <v>1.07434173949968</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5287,16 +5287,16 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>1.055261225794643</v>
+        <v>1.053234675500897</v>
       </c>
       <c r="C289">
-        <v>1.188514250416607</v>
+        <v>0.9885140633698251</v>
       </c>
       <c r="D289">
-        <v>0.9089983481709352</v>
+        <v>1.096245351520724</v>
       </c>
       <c r="E289">
-        <v>1.087708331685923</v>
+        <v>1.078164007311873</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5304,16 +5304,16 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>1.041113473484322</v>
+        <v>1.031206039674646</v>
       </c>
       <c r="C290">
-        <v>1.204374483098627</v>
+        <v>0.9784032454349902</v>
       </c>
       <c r="D290">
-        <v>0.8606919080178369</v>
+        <v>1.03243167147584</v>
       </c>
       <c r="E290">
-        <v>1.088641623397176</v>
+        <v>1.085568269209373</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5321,16 +5321,16 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>1.007860745029537</v>
+        <v>1.042068789589168</v>
       </c>
       <c r="C291">
-        <v>1.206639228380682</v>
+        <v>0.9928319227781374</v>
       </c>
       <c r="D291">
-        <v>0.7839210211776387</v>
+        <v>1.049080754221438</v>
       </c>
       <c r="E291">
-        <v>1.082310421171657</v>
+        <v>1.086436915461269</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5338,16 +5338,16 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.9895225080228079</v>
+        <v>1.056728006849108</v>
       </c>
       <c r="C292">
-        <v>1.22788559904691</v>
+        <v>0.9835077116045714</v>
       </c>
       <c r="D292">
-        <v>0.7357084731380034</v>
+        <v>1.104607440545377</v>
       </c>
       <c r="E292">
-        <v>1.072539679136996</v>
+        <v>1.086185296975558</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5355,16 +5355,16 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.9874263937101441</v>
+        <v>1.069709308747364</v>
       </c>
       <c r="C293">
-        <v>1.225892313485447</v>
+        <v>0.9750539980188319</v>
       </c>
       <c r="D293">
-        <v>0.7376270001502054</v>
+        <v>1.153050983897943</v>
       </c>
       <c r="E293">
-        <v>1.064694639953373</v>
+        <v>1.088729892558743</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5372,16 +5372,16 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>1.024877756643264</v>
+        <v>1.069990788349521</v>
       </c>
       <c r="C294">
-        <v>1.224853197451079</v>
+        <v>0.9871082974619729</v>
       </c>
       <c r="D294">
-        <v>0.8248266779930762</v>
+        <v>1.139031304294661</v>
       </c>
       <c r="E294">
-        <v>1.065539277657443</v>
+        <v>1.08953115626918</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5389,16 +5389,16 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>1.044049380843105</v>
+        <v>1.058152458055938</v>
       </c>
       <c r="C295">
-        <v>1.251112719571461</v>
+        <v>1.011844121987766</v>
       </c>
       <c r="D295">
-        <v>0.8540234137502629</v>
+        <v>1.078036180804047</v>
       </c>
       <c r="E295">
-        <v>1.065115987838709</v>
+        <v>1.086169955150728</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5406,16 +5406,16 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>1.056888988885807</v>
+        <v>1.074573290637008</v>
       </c>
       <c r="C296">
-        <v>1.24715130806566</v>
+        <v>1.026552228594044</v>
       </c>
       <c r="D296">
-        <v>0.8916095174086259</v>
+        <v>1.110751888982938</v>
       </c>
       <c r="E296">
-        <v>1.061681567946603</v>
+        <v>1.088203239053493</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5423,16 +5423,16 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>1.101875933101204</v>
+        <v>1.04966817850027</v>
       </c>
       <c r="C297">
-        <v>1.179184773733803</v>
+        <v>1.046752028028805</v>
       </c>
       <c r="D297">
-        <v>1.07203887930571</v>
+        <v>1.014700393635298</v>
       </c>
       <c r="E297">
-        <v>1.058292439407412</v>
+        <v>1.08886604347915</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5440,16 +5440,16 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>1.07717921639278</v>
+        <v>1.033067807176243</v>
       </c>
       <c r="C298">
-        <v>1.148275589927706</v>
+        <v>1.059201761298789</v>
       </c>
       <c r="D298">
-        <v>1.034327368558996</v>
+        <v>0.958085236200698</v>
       </c>
       <c r="E298">
-        <v>1.052348889136723</v>
+        <v>1.086434734976876</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5457,16 +5457,16 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>1.060011414716712</v>
+        <v>1.036257977391139</v>
       </c>
       <c r="C299">
-        <v>1.190499535770829</v>
+        <v>1.103111319610126</v>
       </c>
       <c r="D299">
-        <v>0.953861302808509</v>
+        <v>0.9312055903909531</v>
       </c>
       <c r="E299">
-        <v>1.048859135667334</v>
+        <v>1.083275060927581</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5474,16 +5474,16 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>1.057262606332487</v>
+        <v>1.032508528982261</v>
       </c>
       <c r="C300">
-        <v>1.181999303821228</v>
+        <v>1.111574859486518</v>
       </c>
       <c r="D300">
-        <v>0.9550107614794763</v>
+        <v>0.9194967302174865</v>
       </c>
       <c r="E300">
-        <v>1.046943223893312</v>
+        <v>1.076941315543225</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5491,16 +5491,16 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>1.041893327586796</v>
+        <v>1.013175790416266</v>
       </c>
       <c r="C301">
-        <v>1.182512796630218</v>
+        <v>1.088391416893628</v>
       </c>
       <c r="D301">
-        <v>0.9142901226983419</v>
+        <v>0.8939889729713173</v>
       </c>
       <c r="E301">
-        <v>1.046116117002331</v>
+        <v>1.068900158409298</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5508,16 +5508,16 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>1.047814033287775</v>
+        <v>0.9794924741315012</v>
       </c>
       <c r="C302">
-        <v>1.190154737282584</v>
+        <v>1.071304193324098</v>
       </c>
       <c r="D302">
-        <v>0.9233862404353166</v>
+        <v>0.8269916380052983</v>
       </c>
       <c r="E302">
-        <v>1.046805036508326</v>
+        <v>1.060692229538985</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5525,16 +5525,16 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>1.080438175236696</v>
+        <v>0.9663668783683371</v>
       </c>
       <c r="C303">
-        <v>1.231945955672264</v>
+        <v>1.058148799205763</v>
       </c>
       <c r="D303">
-        <v>0.9845161241775008</v>
+        <v>0.8011477471932754</v>
       </c>
       <c r="E303">
-        <v>1.039884902130057</v>
+        <v>1.064551680416468</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5542,16 +5542,16 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>1.073836063455914</v>
+        <v>0.9546947380764338</v>
       </c>
       <c r="C304">
-        <v>1.239912728626217</v>
+        <v>1.095030176242967</v>
       </c>
       <c r="D304">
-        <v>0.965456721576654</v>
+        <v>0.7464258898457301</v>
       </c>
       <c r="E304">
-        <v>1.034403607501622</v>
+        <v>1.064586132745952</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5559,16 +5559,16 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>1.057077366893566</v>
+        <v>0.9621889743024769</v>
       </c>
       <c r="C305">
-        <v>1.254583523847226</v>
+        <v>1.073539918507327</v>
       </c>
       <c r="D305">
-        <v>0.9119762453612896</v>
+        <v>0.7767992564926448</v>
       </c>
       <c r="E305">
-        <v>1.032374376292129</v>
+        <v>1.068203825576718</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5576,16 +5576,16 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>1.048530634094721</v>
+        <v>0.924840703354837</v>
       </c>
       <c r="C306">
-        <v>1.23266233595039</v>
+        <v>1.067510500380285</v>
       </c>
       <c r="D306">
-        <v>0.9114672010496312</v>
+        <v>0.6927452968851302</v>
       </c>
       <c r="E306">
-        <v>1.02602560440744</v>
+        <v>1.069682927532401</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5593,16 +5593,16 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>1.031966527905561</v>
+        <v>0.8953415196870156</v>
       </c>
       <c r="C307">
-        <v>1.22631000445883</v>
+        <v>1.064660848871794</v>
       </c>
       <c r="D307">
-        <v>0.8811791405280328</v>
+        <v>0.630419690030821</v>
       </c>
       <c r="E307">
-        <v>1.017026698566891</v>
+        <v>1.06936291895788</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5610,16 +5610,16 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>1.05284182725299</v>
+        <v>0.9299016089844412</v>
       </c>
       <c r="C308">
-        <v>1.236099673778864</v>
+        <v>1.06790318932047</v>
       </c>
       <c r="D308">
-        <v>0.9310269991169015</v>
+        <v>0.7061664913970724</v>
       </c>
       <c r="E308">
-        <v>1.014083283068608</v>
+        <v>1.066281828639948</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5627,16 +5627,16 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>1.04752196719834</v>
+        <v>0.9296165807645022</v>
       </c>
       <c r="C309">
-        <v>1.246653795201062</v>
+        <v>1.051532067934893</v>
       </c>
       <c r="D309">
-        <v>0.9081715359307257</v>
+        <v>0.7186333927284421</v>
       </c>
       <c r="E309">
-        <v>1.015256241183003</v>
+        <v>1.063118482288777</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5644,16 +5644,16 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>1.062686957141566</v>
+        <v>0.9195317069899427</v>
       </c>
       <c r="C310">
-        <v>1.263345884073878</v>
+        <v>1.050684409143348</v>
       </c>
       <c r="D310">
-        <v>0.9341704759295227</v>
+        <v>0.6978405334815138</v>
       </c>
       <c r="E310">
-        <v>1.016875171860874</v>
+        <v>1.060404709112287</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5661,16 +5661,16 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>1.049477651892605</v>
+        <v>0.9003695869267205</v>
       </c>
       <c r="C311">
-        <v>1.268915584191632</v>
+        <v>1.035259075522141</v>
       </c>
       <c r="D311">
-        <v>0.8985074016565195</v>
+        <v>0.664079040583344</v>
       </c>
       <c r="E311">
-        <v>1.01383013154068</v>
+        <v>1.061679986280372</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5678,16 +5678,16 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>1.044899815340487</v>
+        <v>0.927482503342366</v>
       </c>
       <c r="C312">
-        <v>1.282404713709407</v>
+        <v>1.027919257304042</v>
       </c>
       <c r="D312">
-        <v>0.8840161016271721</v>
+        <v>0.7337347052126862</v>
       </c>
       <c r="E312">
-        <v>1.006325959899062</v>
+        <v>1.057837875867225</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5695,16 +5695,16 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>1.029873303124129</v>
+        <v>0.909429984794548</v>
       </c>
       <c r="C313">
-        <v>1.27297455479799</v>
+        <v>1.01464711357541</v>
       </c>
       <c r="D313">
-        <v>0.8553687050700306</v>
+        <v>0.7046242569271529</v>
       </c>
       <c r="E313">
-        <v>1.003178743524213</v>
+        <v>1.052047124268487</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5712,16 +5712,16 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>1.063755848614159</v>
+        <v>0.9160984468845224</v>
       </c>
       <c r="C314">
-        <v>1.293099001313822</v>
+        <v>1.03687363676978</v>
       </c>
       <c r="D314">
-        <v>0.9242013350503508</v>
+        <v>0.7094494121585306</v>
       </c>
       <c r="E314">
-        <v>1.007227361213449</v>
+        <v>1.045151323854214</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5729,16 +5729,16 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>1.042489577111925</v>
+        <v>0.9222600697466655</v>
       </c>
       <c r="C315">
-        <v>1.285267665942453</v>
+        <v>1.04888623005057</v>
       </c>
       <c r="D315">
-        <v>0.8741773528773197</v>
+        <v>0.719869929404037</v>
       </c>
       <c r="E315">
-        <v>1.008374910985699</v>
+        <v>1.038909699444417</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5746,16 +5746,16 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>1.023927793529776</v>
+        <v>0.9250752750986293</v>
       </c>
       <c r="C316">
-        <v>1.252838775694151</v>
+        <v>1.079213401491095</v>
       </c>
       <c r="D316">
-        <v>0.8498749967156696</v>
+        <v>0.7074466790387443</v>
       </c>
       <c r="E316">
-        <v>1.008225682542051</v>
+        <v>1.036884013542131</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5763,16 +5763,16 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>1.037390876174384</v>
+        <v>0.9062034896494522</v>
       </c>
       <c r="C317">
-        <v>1.257666891394033</v>
+        <v>1.083551820425605</v>
       </c>
       <c r="D317">
-        <v>0.8890038889107648</v>
+        <v>0.6676653382697029</v>
       </c>
       <c r="E317">
-        <v>0.9985227941442506</v>
+        <v>1.028652472094299</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5780,16 +5780,16 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>1.044707106914914</v>
+        <v>0.89192556209181</v>
       </c>
       <c r="C318">
-        <v>1.274065111790751</v>
+        <v>1.08113994624671</v>
       </c>
       <c r="D318">
-        <v>0.903517919247888</v>
+        <v>0.6421502059163584</v>
       </c>
       <c r="E318">
-        <v>0.9905017649175903</v>
+        <v>1.022038584955454</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5797,16 +5797,16 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>1.040072649151254</v>
+        <v>0.8794888000437269</v>
       </c>
       <c r="C319">
-        <v>1.26647906941188</v>
+        <v>1.09398832051174</v>
       </c>
       <c r="D319">
-        <v>0.8933951167462295</v>
+        <v>0.6119017377974992</v>
       </c>
       <c r="E319">
-        <v>0.9943732587416035</v>
+        <v>1.016240661324497</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5814,16 +5814,16 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>1.05084624585424</v>
+        <v>0.90037570477308</v>
       </c>
       <c r="C320">
-        <v>1.266307684597252</v>
+        <v>1.100304279555669</v>
       </c>
       <c r="D320">
-        <v>0.9222032186768473</v>
+        <v>0.65463691806777</v>
       </c>
       <c r="E320">
-        <v>0.9936916835059285</v>
+        <v>1.013346583226994</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5831,16 +5831,16 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>1.029255107149925</v>
+        <v>0.9131412088528343</v>
       </c>
       <c r="C321">
-        <v>1.233842147582783</v>
+        <v>1.101968678261592</v>
       </c>
       <c r="D321">
-        <v>0.8955833350608995</v>
+        <v>0.6826943007077814</v>
       </c>
       <c r="E321">
-        <v>0.9867417107814285</v>
+        <v>1.012088055113221</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5848,16 +5848,16 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>1.047635571179467</v>
+        <v>0.9058210957558566</v>
       </c>
       <c r="C322">
-        <v>1.243519083815983</v>
+        <v>1.089522373339473</v>
       </c>
       <c r="D322">
-        <v>0.9389926108257414</v>
+        <v>0.6786927435924792</v>
       </c>
       <c r="E322">
-        <v>0.9847275274057953</v>
+        <v>1.005120043726608</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5865,16 +5865,16 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>1.049971138868754</v>
+        <v>0.8768499521674518</v>
       </c>
       <c r="C323">
-        <v>1.221428405444556</v>
+        <v>1.055937002191461</v>
       </c>
       <c r="D323">
-        <v>0.9747171018843379</v>
+        <v>0.6389967063656384</v>
       </c>
       <c r="E323">
-        <v>0.9722668598812039</v>
+        <v>0.9991696171933696</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5882,16 +5882,16 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>1.07012451443391</v>
+        <v>0.8810300961379275</v>
       </c>
       <c r="C324">
-        <v>1.193632284371564</v>
+        <v>1.026325089808462</v>
       </c>
       <c r="D324">
-        <v>1.059647174001518</v>
+        <v>0.6657598103537494</v>
       </c>
       <c r="E324">
-        <v>0.9688824694547871</v>
+        <v>1.000851655953402</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5899,16 +5899,16 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>1.073659969139552</v>
+        <v>0.8775224110411121</v>
       </c>
       <c r="C325">
-        <v>1.1729653129424</v>
+        <v>0.9827997023466234</v>
       </c>
       <c r="D325">
-        <v>1.082652445249893</v>
+        <v>0.6896579241690133</v>
       </c>
       <c r="E325">
-        <v>0.9745992043103087</v>
+        <v>0.9969557976416104</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5916,16 +5916,16 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>1.062117627453175</v>
+        <v>0.8805890980982776</v>
       </c>
       <c r="C326">
-        <v>1.165186311190627</v>
+        <v>0.9619605278717838</v>
       </c>
       <c r="D326">
-        <v>1.045317845977502</v>
+        <v>0.7079473257753652</v>
       </c>
       <c r="E326">
-        <v>0.9837259124388552</v>
+        <v>1.00267853056264</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5933,16 +5933,16 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>1.106374120830257</v>
+        <v>0.8611431152013379</v>
       </c>
       <c r="C327">
-        <v>1.150093601877627</v>
+        <v>0.9712381820499236</v>
       </c>
       <c r="D327">
-        <v>1.201999394056308</v>
+        <v>0.6570012533227062</v>
       </c>
       <c r="E327">
-        <v>0.979644692236745</v>
+        <v>1.000769488042425</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5950,16 +5950,16 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>1.128358963682852</v>
+        <v>0.8515645168361088</v>
       </c>
       <c r="C328">
-        <v>1.13867351091855</v>
+        <v>0.9370655753893316</v>
       </c>
       <c r="D328">
-        <v>1.287533017645324</v>
+        <v>0.6578695500416821</v>
       </c>
       <c r="E328">
-        <v>0.979905639674252</v>
+        <v>1.001712058318696</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5967,16 +5967,16 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>1.104249098386318</v>
+        <v>0.8462530751606386</v>
       </c>
       <c r="C329">
-        <v>1.140433741449655</v>
+        <v>0.9324766259731603</v>
       </c>
       <c r="D329">
-        <v>1.206129732411496</v>
+        <v>0.6526916861866879</v>
       </c>
       <c r="E329">
-        <v>0.9788971824506261</v>
+        <v>0.9957601556961867</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5984,16 +5984,16 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>1.102189878763946</v>
+        <v>0.8668388241203847</v>
       </c>
       <c r="C330">
-        <v>1.135745199584031</v>
+        <v>0.9190284488674434</v>
       </c>
       <c r="D330">
-        <v>1.208170218572324</v>
+        <v>0.7131002046186572</v>
       </c>
       <c r="E330">
-        <v>0.9757986656923828</v>
+        <v>0.9938836508110975</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6001,16 +6001,16 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>1.094198355439511</v>
+        <v>0.8786721429155561</v>
       </c>
       <c r="C331">
-        <v>1.130007193914498</v>
+        <v>0.9164059098355251</v>
       </c>
       <c r="D331">
-        <v>1.190759095341851</v>
+        <v>0.7420659115851354</v>
       </c>
       <c r="E331">
-        <v>0.9736055868334963</v>
+        <v>0.9975856899483069</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6018,16 +6018,16 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>1.090777899173172</v>
+        <v>0.8870597380252297</v>
       </c>
       <c r="C332">
-        <v>1.104847517240243</v>
+        <v>0.9202118403478454</v>
       </c>
       <c r="D332">
-        <v>1.210982885577509</v>
+        <v>0.7579087721584761</v>
       </c>
       <c r="E332">
-        <v>0.9699930892447852</v>
+        <v>1.000815108513809</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6035,16 +6035,16 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>1.110580047333578</v>
+        <v>0.9056804012883582</v>
       </c>
       <c r="C333">
-        <v>1.104665232438808</v>
+        <v>0.9702984263753416</v>
       </c>
       <c r="D333">
-        <v>1.280439440623223</v>
+        <v>0.7624308136805371</v>
       </c>
       <c r="E333">
-        <v>0.9684113515721484</v>
+        <v>1.004197515111548</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6052,16 +6052,16 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>1.15079307255555</v>
+        <v>0.9481513960321629</v>
       </c>
       <c r="C334">
-        <v>1.091084328993574</v>
+        <v>0.9851619366470346</v>
       </c>
       <c r="D334">
-        <v>1.435920344954335</v>
+        <v>0.8647787734992077</v>
       </c>
       <c r="E334">
-        <v>0.9727540545447229</v>
+        <v>1.000507668330078</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6069,16 +6069,16 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>1.14244559340472</v>
+        <v>0.9735371875890354</v>
       </c>
       <c r="C335">
-        <v>1.074872087362572</v>
+        <v>0.9981008656634638</v>
       </c>
       <c r="D335">
-        <v>1.420755348856639</v>
+        <v>0.9261782276464661</v>
       </c>
       <c r="E335">
-        <v>0.9764061264052174</v>
+        <v>0.9981335113940712</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6086,16 +6086,16 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>1.135548733416414</v>
+        <v>0.977136320435719</v>
       </c>
       <c r="C336">
-        <v>1.09630890780438</v>
+        <v>1.027627384286329</v>
       </c>
       <c r="D336">
-        <v>1.359342326054286</v>
+        <v>0.9024800226732762</v>
       </c>
       <c r="E336">
-        <v>0.9825520112311704</v>
+        <v>1.005986617309957</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6103,16 +6103,16 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>1.142493195915335</v>
+        <v>0.9796865288035826</v>
       </c>
       <c r="C337">
-        <v>1.112758051984022</v>
+        <v>1.017143518495068</v>
       </c>
       <c r="D337">
-        <v>1.363629186422743</v>
+        <v>0.9093544724805253</v>
       </c>
       <c r="E337">
-        <v>0.9827970253982506</v>
+        <v>1.016590310147446</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6120,16 +6120,16 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>1.14765607410997</v>
+        <v>0.9683814479978775</v>
       </c>
       <c r="C338">
-        <v>1.097200568260533</v>
+        <v>1.019874495145356</v>
       </c>
       <c r="D338">
-        <v>1.396981724181615</v>
+        <v>0.8753096615300475</v>
       </c>
       <c r="E338">
-        <v>0.9861853128222271</v>
+        <v>1.01725756659768</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6137,16 +6137,16 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>1.157978587831334</v>
+        <v>0.9925093207148069</v>
       </c>
       <c r="C339">
-        <v>1.08071803235727</v>
+        <v>1.034157329732373</v>
       </c>
       <c r="D339">
-        <v>1.451655551825441</v>
+        <v>0.9312538670039164</v>
       </c>
       <c r="E339">
-        <v>0.9897502256589649</v>
+        <v>1.01519408395569</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6154,16 +6154,16 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>1.149387151207175</v>
+        <v>1.001551196679169</v>
       </c>
       <c r="C340">
-        <v>1.120401009028418</v>
+        <v>1.059004680517709</v>
       </c>
       <c r="D340">
-        <v>1.36523785335635</v>
+        <v>0.9326332453362819</v>
       </c>
       <c r="E340">
-        <v>0.992698124182412</v>
+        <v>1.017210162644004</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6171,16 +6171,16 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>1.163145271800305</v>
+        <v>0.9591136962190643</v>
       </c>
       <c r="C341">
-        <v>1.094539066706736</v>
+        <v>1.030405021422928</v>
       </c>
       <c r="D341">
-        <v>1.449485014596271</v>
+        <v>0.8386382685965201</v>
       </c>
       <c r="E341">
-        <v>0.9918748578657743</v>
+        <v>1.021004451937755</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6188,16 +6188,16 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>1.176705072975171</v>
+        <v>0.9885396354514492</v>
       </c>
       <c r="C342">
-        <v>1.084649252343492</v>
+        <v>1.085306994631523</v>
       </c>
       <c r="D342">
-        <v>1.520342540406449</v>
+        <v>0.8673777753310646</v>
       </c>
       <c r="E342">
-        <v>0.9880344978417219</v>
+        <v>1.026174855719003</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6205,16 +6205,16 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>1.205974823036984</v>
+        <v>0.9711528857130344</v>
       </c>
       <c r="C343">
-        <v>1.052681443931005</v>
+        <v>1.070995251884667</v>
       </c>
       <c r="D343">
-        <v>1.69145932965931</v>
+        <v>0.8293566712288676</v>
       </c>
       <c r="E343">
-        <v>0.9850452842588118</v>
+        <v>1.03117868436635</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6222,16 +6222,16 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>1.22048908285833</v>
+        <v>1.008204893097951</v>
       </c>
       <c r="C344">
-        <v>1.02189730051571</v>
+        <v>1.040852732060543</v>
       </c>
       <c r="D344">
-        <v>1.803169586938233</v>
+        <v>0.9544273986608977</v>
       </c>
       <c r="E344">
-        <v>0.9866380757819627</v>
+        <v>1.031606851759663</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6239,16 +6239,16 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>1.205602502028302</v>
+        <v>0.979630554716336</v>
       </c>
       <c r="C345">
-        <v>1.021218304780695</v>
+        <v>1.026908085198241</v>
       </c>
       <c r="D345">
-        <v>1.728307024820441</v>
+        <v>0.8936153202488919</v>
       </c>
       <c r="E345">
-        <v>0.9928255292785088</v>
+        <v>1.024483074923648</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6256,16 +6256,16 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>1.246508223626218</v>
+        <v>0.9589715247803582</v>
       </c>
       <c r="C346">
-        <v>1.006070012312519</v>
+        <v>1.00384109231301</v>
       </c>
       <c r="D346">
-        <v>1.928132010460035</v>
+        <v>0.8655438041708616</v>
       </c>
       <c r="E346">
-        <v>0.9984365594485379</v>
+        <v>1.01499315498941</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6273,16 +6273,16 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>1.234382553031223</v>
+        <v>0.9319612927448007</v>
       </c>
       <c r="C347">
-        <v>1.011969734704915</v>
+        <v>0.9710651896792711</v>
       </c>
       <c r="D347">
-        <v>1.859955688399131</v>
+        <v>0.8248675703285866</v>
       </c>
       <c r="E347">
-        <v>0.9992616087450926</v>
+        <v>1.010557453753232</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6290,16 +6290,16 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>1.228050420596845</v>
+        <v>0.9112539827965046</v>
       </c>
       <c r="C348">
-        <v>1.034632885710643</v>
+        <v>0.988310446248146</v>
       </c>
       <c r="D348">
-        <v>1.791206945745393</v>
+        <v>0.7643231039911405</v>
       </c>
       <c r="E348">
-        <v>0.9993475489388201</v>
+        <v>1.001723690904863</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6307,16 +6307,16 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>1.229501058590804</v>
+        <v>0.9087959205071191</v>
       </c>
       <c r="C349">
-        <v>1.042632047564473</v>
+        <v>1.005376524181094</v>
       </c>
       <c r="D349">
-        <v>1.795246486684305</v>
+        <v>0.7483530318790897</v>
       </c>
       <c r="E349">
-        <v>0.9929595697724911</v>
+        <v>0.9976170064593612</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6324,16 +6324,16 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>1.241597400779152</v>
+        <v>0.8989571168641984</v>
       </c>
       <c r="C350">
-        <v>1.048187341608703</v>
+        <v>0.9981076385499352</v>
       </c>
       <c r="D350">
-        <v>1.826828367996976</v>
+        <v>0.7304588658048266</v>
       </c>
       <c r="E350">
-        <v>0.9995527690375946</v>
+        <v>0.9964230859681465</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6341,16 +6341,16 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>1.230029584253057</v>
+        <v>0.891166905213446</v>
       </c>
       <c r="C351">
-        <v>1.065030741496793</v>
+        <v>1.017965040698422</v>
       </c>
       <c r="D351">
-        <v>1.741083575601416</v>
+        <v>0.697165127471538</v>
       </c>
       <c r="E351">
-        <v>1.003609835819831</v>
+        <v>0.9972605306452684</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6358,16 +6358,16 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>1.223940071052831</v>
+        <v>0.8737939308877775</v>
       </c>
       <c r="C352">
-        <v>1.080041713498524</v>
+        <v>1.022860192484603</v>
       </c>
       <c r="D352">
-        <v>1.68487885318498</v>
+        <v>0.6560137417730089</v>
       </c>
       <c r="E352">
-        <v>1.007560775403012</v>
+        <v>0.9942551696232613</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6375,16 +6375,16 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>1.183284181268104</v>
+        <v>0.8233868263185342</v>
       </c>
       <c r="C353">
-        <v>1.082937580907424</v>
+        <v>1.002118375218328</v>
       </c>
       <c r="D353">
-        <v>1.534804990578128</v>
+        <v>0.5651617338728959</v>
       </c>
       <c r="E353">
-        <v>0.9968057814058776</v>
+        <v>0.9856437409415959</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6392,16 +6392,16 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>1.156239581643403</v>
+        <v>0.8313187001916853</v>
       </c>
       <c r="C354">
-        <v>1.030843086489071</v>
+        <v>1.024349724587903</v>
       </c>
       <c r="D354">
-        <v>1.515666078323231</v>
+        <v>0.5703398450658794</v>
       </c>
       <c r="E354">
-        <v>0.9893441817919159</v>
+        <v>0.9833784376616198</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6409,16 +6409,16 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>1.151259621511485</v>
+        <v>0.8331105483859105</v>
       </c>
       <c r="C355">
-        <v>1.017403708016156</v>
+        <v>1.016646443464721</v>
       </c>
       <c r="D355">
-        <v>1.526053510338352</v>
+        <v>0.5797701154341985</v>
       </c>
       <c r="E355">
-        <v>0.982780973505523</v>
+        <v>0.9810296390358105</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6426,16 +6426,16 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>1.123353415309704</v>
+        <v>0.8677888846800026</v>
       </c>
       <c r="C356">
-        <v>1.055666159008942</v>
+        <v>1.000615206139377</v>
       </c>
       <c r="D356">
-        <v>1.377596064627646</v>
+        <v>0.6670551377063701</v>
       </c>
       <c r="E356">
-        <v>0.9747668176232426</v>
+        <v>0.9790692645188012</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6443,16 +6443,16 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>1.112015473407818</v>
+        <v>0.8702510211563181</v>
       </c>
       <c r="C357">
-        <v>1.065536397508668</v>
+        <v>1.012236765937877</v>
       </c>
       <c r="D357">
-        <v>1.325088609107131</v>
+        <v>0.6641650864945722</v>
       </c>
       <c r="E357">
-        <v>0.9739110226771697</v>
+        <v>0.9803371827867895</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6460,16 +6460,16 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>1.112649502908902</v>
+        <v>0.8717271574127675</v>
       </c>
       <c r="C358">
-        <v>1.03901311214108</v>
+        <v>0.9889772477496284</v>
       </c>
       <c r="D358">
-        <v>1.35053975626582</v>
+        <v>0.6828273846166353</v>
       </c>
       <c r="E358">
-        <v>0.9816275377857284</v>
+        <v>0.9809446379792313</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6477,16 +6477,16 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>1.063900754439933</v>
+        <v>0.8577761807232734</v>
       </c>
       <c r="C359">
-        <v>1.063843540814344</v>
+        <v>0.985519429112883</v>
       </c>
       <c r="D359">
-        <v>1.152580488928796</v>
+        <v>0.6549171020318447</v>
       </c>
       <c r="E359">
-        <v>0.9820968679097534</v>
+        <v>0.9778459128203586</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6494,16 +6494,16 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>1.001251448742616</v>
+        <v>0.8532605226364168</v>
       </c>
       <c r="C360">
-        <v>1.076408459600114</v>
+        <v>0.9986814330113469</v>
       </c>
       <c r="D360">
-        <v>0.9427124244719711</v>
+        <v>0.6395505911504747</v>
       </c>
       <c r="E360">
-        <v>0.9891750174115366</v>
+        <v>0.9726197363284893</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6511,16 +6511,16 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.9761215988603651</v>
+        <v>0.8822834062453382</v>
       </c>
       <c r="C361">
-        <v>1.11561817241166</v>
+        <v>1.027145274803196</v>
       </c>
       <c r="D361">
-        <v>0.8281952576332668</v>
+        <v>0.6869877969557042</v>
       </c>
       <c r="E361">
-        <v>1.006615117876425</v>
+        <v>0.9732926378670709</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6528,16 +6528,16 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.9867489120487112</v>
+        <v>0.8791312621365471</v>
       </c>
       <c r="C362">
-        <v>1.136066660960152</v>
+        <v>1.013835555593355</v>
       </c>
       <c r="D362">
-        <v>0.8280340510383604</v>
+        <v>0.6957103098430958</v>
       </c>
       <c r="E362">
-        <v>1.021334393263163</v>
+        <v>0.9633081054876697</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6545,16 +6545,16 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.9479368009000055</v>
+        <v>0.8604384698298689</v>
       </c>
       <c r="C363">
-        <v>1.103980920997047</v>
+        <v>0.9817297925808032</v>
       </c>
       <c r="D363">
-        <v>0.7551670212500128</v>
+        <v>0.6770146661148589</v>
       </c>
       <c r="E363">
-        <v>1.021723936039387</v>
+        <v>0.9584498862675037</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6562,16 +6562,16 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.9156860923335562</v>
+        <v>0.875337585526033</v>
       </c>
       <c r="C364">
-        <v>1.086700454146512</v>
+        <v>1.000100440428399</v>
       </c>
       <c r="D364">
-        <v>0.6908579824582505</v>
+        <v>0.7038511447998219</v>
       </c>
       <c r="E364">
-        <v>1.022683444840429</v>
+        <v>0.9528011888855162</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6579,16 +6579,16 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.9674058004767704</v>
+        <v>0.903253867198339</v>
       </c>
       <c r="C365">
-        <v>1.146011131962806</v>
+        <v>1.020964640294399</v>
       </c>
       <c r="D365">
-        <v>0.7723706960303092</v>
+        <v>0.7620690028983009</v>
       </c>
       <c r="E365">
-        <v>1.022848792370166</v>
+        <v>0.947162490195598</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6596,16 +6596,16 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.9960504862594548</v>
+        <v>0.91785748782083</v>
       </c>
       <c r="C366">
-        <v>1.133353570366136</v>
+        <v>1.015990119242324</v>
       </c>
       <c r="D366">
-        <v>0.8502005628814282</v>
+        <v>0.8092784736954501</v>
       </c>
       <c r="E366">
-        <v>1.025550971149365</v>
+        <v>0.9404555910881273</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6613,16 +6613,16 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>1.005586322967064</v>
+        <v>0.8879955750823464</v>
       </c>
       <c r="C367">
-        <v>1.113236270127864</v>
+        <v>1.006594397880125</v>
       </c>
       <c r="D367">
-        <v>0.891219376510925</v>
+        <v>0.7397035547255572</v>
       </c>
       <c r="E367">
-        <v>1.02491088566893</v>
+        <v>0.9404163913854497</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6630,16 +6630,16 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>1.009092307839961</v>
+        <v>0.8922609677067362</v>
       </c>
       <c r="C368">
-        <v>1.097808220210453</v>
+        <v>0.9941203254902534</v>
       </c>
       <c r="D368">
-        <v>0.9234502656398654</v>
+        <v>0.7602990098713365</v>
       </c>
       <c r="E368">
-        <v>1.013567550090316</v>
+        <v>0.9398364985070633</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6647,16 +6647,16 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>1.032178206291335</v>
+        <v>0.9384182304504131</v>
       </c>
       <c r="C369">
-        <v>1.083348814630952</v>
+        <v>1.012341949114836</v>
       </c>
       <c r="D369">
-        <v>1.000450099264289</v>
+        <v>0.8680827833594914</v>
       </c>
       <c r="E369">
-        <v>1.014612739244927</v>
+        <v>0.9403746908607246</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6664,16 +6664,16 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>1.039405356465865</v>
+        <v>0.926046642031961</v>
       </c>
       <c r="C370">
-        <v>1.094403352276933</v>
+        <v>0.9973542321544663</v>
       </c>
       <c r="D370">
-        <v>1.012674986258301</v>
+        <v>0.8472701292387884</v>
       </c>
       <c r="E370">
-        <v>1.013228400246723</v>
+        <v>0.9397822831745971</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6681,16 +6681,16 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>1.050893757088158</v>
+        <v>0.8903797398407367</v>
       </c>
       <c r="C371">
-        <v>1.095409206473147</v>
+        <v>1.008205993259144</v>
       </c>
       <c r="D371">
-        <v>1.04224704024478</v>
+        <v>0.7447818714189975</v>
       </c>
       <c r="E371">
-        <v>1.016551484908103</v>
+        <v>0.9400423857808441</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6698,16 +6698,16 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>1.031284268663025</v>
+        <v>0.8948699652728993</v>
       </c>
       <c r="C372">
-        <v>1.117683975192359</v>
+        <v>1.011144675403342</v>
       </c>
       <c r="D372">
-        <v>0.9673892460478869</v>
+        <v>0.7451024003918801</v>
       </c>
       <c r="E372">
-        <v>1.014413218021601</v>
+        <v>0.9511533333620371</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6715,16 +6715,16 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>1.041739938146038</v>
+        <v>0.8999821073876068</v>
       </c>
       <c r="C373">
-        <v>1.131985304719304</v>
+        <v>1.033893291018224</v>
       </c>
       <c r="D373">
-        <v>0.9905945089490354</v>
+        <v>0.7367930309344987</v>
       </c>
       <c r="E373">
-        <v>1.008187336415674</v>
+        <v>0.9569305051645518</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6732,16 +6732,16 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>1.053207566244045</v>
+        <v>0.9298777324096223</v>
       </c>
       <c r="C374">
-        <v>1.10294403269465</v>
+        <v>1.029675562142811</v>
       </c>
       <c r="D374">
-        <v>1.048563359246484</v>
+        <v>0.8098109637391016</v>
       </c>
       <c r="E374">
-        <v>1.010168351887612</v>
+        <v>0.9642585221942601</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6749,16 +6749,16 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>1.044032084916311</v>
+        <v>0.9322209473269613</v>
       </c>
       <c r="C375">
-        <v>1.137870650090476</v>
+        <v>1.044517988470003</v>
       </c>
       <c r="D375">
-        <v>0.9897634191174071</v>
+        <v>0.8038265504359295</v>
       </c>
       <c r="E375">
-        <v>1.010455616923138</v>
+        <v>0.9648911027290867</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6766,16 +6766,16 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>1.068266716239967</v>
+        <v>0.9383696603526096</v>
       </c>
       <c r="C376">
-        <v>1.1487855386384</v>
+        <v>1.029786973293205</v>
       </c>
       <c r="D376">
-        <v>1.044590905731031</v>
+        <v>0.8230560396039565</v>
       </c>
       <c r="E376">
-        <v>1.015906857230946</v>
+        <v>0.974866334404948</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6783,16 +6783,16 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>1.09367764059764</v>
+        <v>0.9674097305433411</v>
       </c>
       <c r="C377">
-        <v>1.12504270844722</v>
+        <v>1.039542660328741</v>
       </c>
       <c r="D377">
-        <v>1.144088211569233</v>
+        <v>0.885975362712783</v>
       </c>
       <c r="E377">
-        <v>1.016341080528331</v>
+        <v>0.9830314049769566</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6800,16 +6800,16 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>1.086583218169992</v>
+        <v>0.9899221392859822</v>
       </c>
       <c r="C378">
-        <v>1.12634213333791</v>
+        <v>1.030969853883694</v>
       </c>
       <c r="D378">
-        <v>1.126289196501668</v>
+        <v>0.9546016464907695</v>
       </c>
       <c r="E378">
-        <v>1.011273743022517</v>
+        <v>0.9856777792290254</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6817,16 +6817,16 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>1.058666749542506</v>
+        <v>1.00682472262897</v>
       </c>
       <c r="C379">
-        <v>1.140906359827655</v>
+        <v>1.050725143745334</v>
       </c>
       <c r="D379">
-        <v>1.031072991161734</v>
+        <v>0.9820147497047195</v>
       </c>
       <c r="E379">
-        <v>1.008645156375257</v>
+        <v>0.9891325131399908</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6834,16 +6834,16 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>1.040329452251679</v>
+        <v>1.005422340648194</v>
       </c>
       <c r="C380">
-        <v>1.182751296851644</v>
+        <v>1.059868131327757</v>
       </c>
       <c r="D380">
-        <v>0.9409562176029235</v>
+        <v>0.9747828949933414</v>
       </c>
       <c r="E380">
-        <v>1.01169553211027</v>
+        <v>0.9837525242197251</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6851,16 +6851,16 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>1.068164275086155</v>
+        <v>1.012111606843564</v>
       </c>
       <c r="C381">
-        <v>1.180466460649435</v>
+        <v>1.073859200542048</v>
       </c>
       <c r="D381">
-        <v>1.018278713480229</v>
+        <v>0.9800713176473984</v>
       </c>
       <c r="E381">
-        <v>1.013896978606433</v>
+        <v>0.9850997166416928</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6868,16 +6868,16 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>1.063168676728575</v>
+        <v>1.050734796253342</v>
       </c>
       <c r="C382">
-        <v>1.214614002619482</v>
+        <v>1.104110469879682</v>
       </c>
       <c r="D382">
-        <v>0.9679366219898518</v>
+        <v>1.066259910856037</v>
       </c>
       <c r="E382">
-        <v>1.022165722782261</v>
+        <v>0.9853799808293154</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6885,16 +6885,16 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>1.110536970619951</v>
+        <v>1.075442589356189</v>
       </c>
       <c r="C383">
-        <v>1.235371827914129</v>
+        <v>1.087709050411616</v>
       </c>
       <c r="D383">
-        <v>1.086294105255137</v>
+        <v>1.164518216404335</v>
       </c>
       <c r="E383">
-        <v>1.020596200672794</v>
+        <v>0.9819800510314703</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6902,16 +6902,16 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>1.108315530200089</v>
+        <v>1.070145456290601</v>
       </c>
       <c r="C384">
-        <v>1.241648584203765</v>
+        <v>1.076999182982449</v>
       </c>
       <c r="D384">
-        <v>1.087736574399415</v>
+        <v>1.158394560181167</v>
       </c>
       <c r="E384">
-        <v>1.008016931871835</v>
+        <v>0.9823280658415717</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6919,16 +6919,16 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>1.101812247981914</v>
+        <v>1.064051008580092</v>
       </c>
       <c r="C385">
-        <v>1.223363460246955</v>
+        <v>1.071880278163673</v>
       </c>
       <c r="D385">
-        <v>1.092944029783626</v>
+        <v>1.155972624060121</v>
       </c>
       <c r="E385">
-        <v>1.000390043047015</v>
+        <v>0.9722848387592173</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6936,16 +6936,16 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>1.107842995715318</v>
+        <v>1.071037076828682</v>
       </c>
       <c r="C386">
-        <v>1.203168707324526</v>
+        <v>1.061610098962846</v>
       </c>
       <c r="D386">
-        <v>1.126830321446531</v>
+        <v>1.191012539561373</v>
       </c>
       <c r="E386">
-        <v>1.002881444403509</v>
+        <v>0.9716998615593118</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6953,16 +6953,16 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>1.118988441539663</v>
+        <v>1.100081580193478</v>
       </c>
       <c r="C387">
-        <v>1.21767016606909</v>
+        <v>1.118182020763578</v>
       </c>
       <c r="D387">
-        <v>1.154620054831803</v>
+        <v>1.222083558983305</v>
       </c>
       <c r="E387">
-        <v>0.9965705281183606</v>
+        <v>0.9742294915979864</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6970,16 +6970,16 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>1.127828121226749</v>
+        <v>1.111185457547752</v>
       </c>
       <c r="C388">
-        <v>1.222414905510698</v>
+        <v>1.115640971670247</v>
       </c>
       <c r="D388">
-        <v>1.181202908250711</v>
+        <v>1.254165552812666</v>
       </c>
       <c r="E388">
-        <v>0.9935405862878182</v>
+        <v>0.9805738868635647</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -6987,16 +6987,16 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>1.124755973856511</v>
+        <v>1.09714843662487</v>
       </c>
       <c r="C389">
-        <v>1.225668406316628</v>
+        <v>1.100304917245713</v>
       </c>
       <c r="D389">
-        <v>1.17431421805379</v>
+        <v>1.223850441586021</v>
       </c>
       <c r="E389">
-        <v>0.9885931906546834</v>
+        <v>0.9807419748463635</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7004,16 +7004,16 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>1.155563238703077</v>
+        <v>1.102376363493326</v>
       </c>
       <c r="C390">
-        <v>1.253945105833284</v>
+        <v>1.15760841810773</v>
       </c>
       <c r="D390">
-        <v>1.251447230501595</v>
+        <v>1.181823633416337</v>
       </c>
       <c r="E390">
-        <v>0.9833091626248424</v>
+        <v>0.9792088535943755</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7021,16 +7021,16 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>1.156298539417364</v>
+        <v>1.131510181357636</v>
       </c>
       <c r="C391">
-        <v>1.27823599687611</v>
+        <v>1.174661335290788</v>
       </c>
       <c r="D391">
-        <v>1.23826350630261</v>
+        <v>1.254410221813992</v>
       </c>
       <c r="E391">
-        <v>0.9767553839067035</v>
+        <v>0.9831575985343939</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7038,16 +7038,16 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>1.148263588213961</v>
+        <v>1.101577966559409</v>
       </c>
       <c r="C392">
-        <v>1.267497731832072</v>
+        <v>1.114058775530567</v>
       </c>
       <c r="D392">
-        <v>1.222980200151019</v>
+        <v>1.214745201107151</v>
       </c>
       <c r="E392">
-        <v>0.9766931988012668</v>
+        <v>0.9877622538796863</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7055,16 +7055,16 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>1.135116412023493</v>
+        <v>1.048475500494083</v>
       </c>
       <c r="C393">
-        <v>1.282659513081006</v>
+        <v>1.113619748917174</v>
       </c>
       <c r="D393">
-        <v>1.17101707609666</v>
+        <v>1.040986129868908</v>
       </c>
       <c r="E393">
-        <v>0.9737480347769862</v>
+        <v>0.9942440335168372</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7072,16 +7072,16 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>1.109695625729116</v>
+        <v>1.027108471994764</v>
       </c>
       <c r="C394">
-        <v>1.304141973550337</v>
+        <v>1.123676421100626</v>
       </c>
       <c r="D394">
-        <v>1.088682590840924</v>
+        <v>0.96980712888138</v>
       </c>
       <c r="E394">
-        <v>0.9624661656591362</v>
+        <v>0.9943111152073347</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7089,16 +7089,16 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>1.06390417134001</v>
+        <v>1.038152324468878</v>
       </c>
       <c r="C395">
-        <v>1.307437350079809</v>
+        <v>1.125267259704883</v>
       </c>
       <c r="D395">
-        <v>0.9675908080819465</v>
+        <v>1.002590261673671</v>
       </c>
       <c r="E395">
-        <v>0.9519078615126738</v>
+        <v>0.9917542658202957</v>
       </c>
     </row>
   </sheetData>

--- a/Results_MF_Benchmark.xlsx
+++ b/Results_MF_Benchmark.xlsx
@@ -408,16 +408,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7720304168435163</v>
+        <v>1.17924060395036</v>
       </c>
       <c r="C2">
-        <v>0.8543800526209527</v>
+        <v>1.095619234702138</v>
       </c>
       <c r="D2">
-        <v>0.5934389974641857</v>
+        <v>1.442001273886719</v>
       </c>
       <c r="E2">
-        <v>0.9075614726086552</v>
+        <v>1.037963260020896</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -425,16 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7610594460078443</v>
+        <v>1.157851918389318</v>
       </c>
       <c r="C3">
-        <v>0.841585976607552</v>
+        <v>1.082270756332138</v>
       </c>
       <c r="D3">
-        <v>0.576315940177293</v>
+        <v>1.370418075327829</v>
       </c>
       <c r="E3">
-        <v>0.9088592254876013</v>
+        <v>1.046574278094843</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -442,16 +442,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7614112447577462</v>
+        <v>1.133305622874752</v>
       </c>
       <c r="C4">
-        <v>0.8148154548436931</v>
+        <v>1.082034521339675</v>
       </c>
       <c r="D4">
-        <v>0.5941951580592122</v>
+        <v>1.283368083604919</v>
       </c>
       <c r="E4">
-        <v>0.9117368173445921</v>
+        <v>1.048211160173102</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -459,16 +459,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7587814256462826</v>
+        <v>1.114789400840716</v>
       </c>
       <c r="C5">
-        <v>0.8216710804995283</v>
+        <v>1.093178672888275</v>
       </c>
       <c r="D5">
-        <v>0.5803004788675415</v>
+        <v>1.210715223819634</v>
       </c>
       <c r="E5">
-        <v>0.9162186815639475</v>
+        <v>1.046755710817461</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -476,16 +476,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7380589262089208</v>
+        <v>1.109075871456811</v>
       </c>
       <c r="C6">
-        <v>0.8265459130899675</v>
+        <v>1.062090845156358</v>
       </c>
       <c r="D6">
-        <v>0.5313356062899017</v>
+        <v>1.219172236134224</v>
       </c>
       <c r="E6">
-        <v>0.915455436471236</v>
+        <v>1.053554585868016</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -493,16 +493,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7284094452003855</v>
+        <v>1.122578700774784</v>
       </c>
       <c r="C7">
-        <v>0.8266954325901977</v>
+        <v>1.051440061632255</v>
       </c>
       <c r="D7">
-        <v>0.5124380149268336</v>
+        <v>1.279109520479946</v>
       </c>
       <c r="E7">
-        <v>0.9123045218481918</v>
+        <v>1.051860488643583</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -510,16 +510,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7371350679854319</v>
+        <v>1.119695536397325</v>
       </c>
       <c r="C8">
-        <v>0.8365806348473518</v>
+        <v>1.040736751380636</v>
       </c>
       <c r="D8">
-        <v>0.5232250663946663</v>
+        <v>1.291221280927039</v>
       </c>
       <c r="E8">
-        <v>0.9150500909346834</v>
+        <v>1.044619851226307</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -527,16 +527,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7175512289974931</v>
+        <v>1.08718068742727</v>
       </c>
       <c r="C9">
-        <v>0.8238862097351799</v>
+        <v>1.020151534447972</v>
       </c>
       <c r="D9">
-        <v>0.4927988037789238</v>
+        <v>1.211858077541172</v>
       </c>
       <c r="E9">
-        <v>0.9099590722429117</v>
+        <v>1.039414420981841</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -544,16 +544,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7283897195456199</v>
+        <v>1.045785319982958</v>
       </c>
       <c r="C10">
-        <v>0.8135395030149004</v>
+        <v>1.020783586434572</v>
       </c>
       <c r="D10">
-        <v>0.5215573773628281</v>
+        <v>1.07761760920428</v>
       </c>
       <c r="E10">
-        <v>0.9107741253789129</v>
+        <v>1.039750806384355</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -561,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7499764014503868</v>
+        <v>1.011399670359099</v>
       </c>
       <c r="C11">
-        <v>0.8472525130417248</v>
+        <v>0.9951105607344106</v>
       </c>
       <c r="D11">
-        <v>0.5426643067399631</v>
+        <v>0.9953598067190083</v>
       </c>
       <c r="E11">
-        <v>0.9174843643317169</v>
+        <v>1.044520548941519</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -578,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7559952336184814</v>
+        <v>1.000806742527681</v>
       </c>
       <c r="C12">
-        <v>0.8687966824587176</v>
+        <v>0.9947122194047786</v>
       </c>
       <c r="D12">
-        <v>0.5422465915260978</v>
+        <v>0.9591898523196485</v>
       </c>
       <c r="E12">
-        <v>0.9171538373428065</v>
+        <v>1.050627197599403</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -595,16 +595,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7385691871870909</v>
+        <v>0.9990690036184355</v>
       </c>
       <c r="C13">
-        <v>0.8731954375134146</v>
+        <v>1.001957196117761</v>
       </c>
       <c r="D13">
-        <v>0.5030474508145728</v>
+        <v>0.9434251895153041</v>
       </c>
       <c r="E13">
-        <v>0.9171769778038465</v>
+        <v>1.054945001532732</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -612,16 +612,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7401865755638958</v>
+        <v>1.049622533822894</v>
       </c>
       <c r="C14">
-        <v>0.8464594416429712</v>
+        <v>1.041341911240879</v>
       </c>
       <c r="D14">
-        <v>0.5231219896423659</v>
+        <v>1.043942924262669</v>
       </c>
       <c r="E14">
-        <v>0.9158291928469985</v>
+        <v>1.063724921848154</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,16 +629,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7544953103138911</v>
+        <v>1.055676521660219</v>
       </c>
       <c r="C15">
-        <v>0.8546219280896938</v>
+        <v>1.045536043234309</v>
       </c>
       <c r="D15">
-        <v>0.5464240395841278</v>
+        <v>1.051519687656177</v>
       </c>
       <c r="E15">
-        <v>0.9197415460139718</v>
+        <v>1.07012909336228</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,16 +646,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7921243120880399</v>
+        <v>1.069077087651492</v>
       </c>
       <c r="C16">
-        <v>0.8627037144293869</v>
+        <v>1.095245409594455</v>
       </c>
       <c r="D16">
-        <v>0.6249782579763236</v>
+        <v>1.045442670612141</v>
       </c>
       <c r="E16">
-        <v>0.9218355487727604</v>
+        <v>1.067125263895398</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -663,16 +663,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8145096065209375</v>
+        <v>1.09770561166894</v>
       </c>
       <c r="C17">
-        <v>0.8739649604967611</v>
+        <v>1.101300346429188</v>
       </c>
       <c r="D17">
-        <v>0.6662455767717346</v>
+        <v>1.127871589103852</v>
       </c>
       <c r="E17">
-        <v>0.9280262756826262</v>
+        <v>1.064859280890398</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,16 +680,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8097336430537245</v>
+        <v>1.098430569580743</v>
       </c>
       <c r="C18">
-        <v>0.882624287264243</v>
+        <v>1.118942222305906</v>
       </c>
       <c r="D18">
-        <v>0.6474006028408258</v>
+        <v>1.113521313623432</v>
       </c>
       <c r="E18">
-        <v>0.929132343395204</v>
+        <v>1.063681575489913</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -697,16 +697,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8257911845987495</v>
+        <v>1.124442018221327</v>
       </c>
       <c r="C19">
-        <v>0.9183818197693699</v>
+        <v>1.125891271291362</v>
       </c>
       <c r="D19">
-        <v>0.6559547238845842</v>
+        <v>1.18496536924139</v>
       </c>
       <c r="E19">
-        <v>0.9347889831240579</v>
+        <v>1.065636500190692</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -714,16 +714,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8526106977877855</v>
+        <v>1.102704114950582</v>
       </c>
       <c r="C20">
-        <v>0.8946234003349213</v>
+        <v>1.132436621060042</v>
       </c>
       <c r="D20">
-        <v>0.7351664072180871</v>
+        <v>1.109707421044836</v>
       </c>
       <c r="E20">
-        <v>0.9423807900127786</v>
+        <v>1.066975850990344</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -731,16 +731,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8447292541167846</v>
+        <v>1.091645687621676</v>
       </c>
       <c r="C21">
-        <v>0.9258325128871854</v>
+        <v>1.140169695320223</v>
       </c>
       <c r="D21">
-        <v>0.6858241088287904</v>
+        <v>1.070079639277655</v>
       </c>
       <c r="E21">
-        <v>0.9493086280083816</v>
+        <v>1.066251158730855</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -748,16 +748,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.910417145096506</v>
+        <v>1.072997638896297</v>
       </c>
       <c r="C22">
-        <v>0.9711444825796316</v>
+        <v>1.154025777522112</v>
       </c>
       <c r="D22">
-        <v>0.818849655896718</v>
+        <v>1.000052836414392</v>
       </c>
       <c r="E22">
-        <v>0.9489280085850643</v>
+        <v>1.070428942661192</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -765,16 +765,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.915494242115931</v>
+        <v>1.045878340167674</v>
       </c>
       <c r="C23">
-        <v>0.9692117818417527</v>
+        <v>1.155579202505985</v>
       </c>
       <c r="D23">
-        <v>0.8423837930712732</v>
+        <v>0.9161390916436568</v>
       </c>
       <c r="E23">
-        <v>0.9398058933673068</v>
+        <v>1.080643324486495</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -782,16 +782,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9163440850199334</v>
+        <v>1.057435879498643</v>
       </c>
       <c r="C24">
-        <v>0.9757155342861336</v>
+        <v>1.174581208557002</v>
       </c>
       <c r="D24">
-        <v>0.8382461904348114</v>
+        <v>0.9212928477661512</v>
       </c>
       <c r="E24">
-        <v>0.9407645301091503</v>
+        <v>1.092650775906989</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -799,16 +799,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9013855137643478</v>
+        <v>1.066277697413574</v>
       </c>
       <c r="C25">
-        <v>0.9835104385514091</v>
+        <v>1.178334840528098</v>
       </c>
       <c r="D25">
-        <v>0.7933233365623021</v>
+        <v>0.9331058643811992</v>
       </c>
       <c r="E25">
-        <v>0.9386474813809416</v>
+        <v>1.102583118063758</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -816,16 +816,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.931265290561021</v>
+        <v>1.094277418644539</v>
       </c>
       <c r="C26">
-        <v>1.008655433837132</v>
+        <v>1.152644672112118</v>
       </c>
       <c r="D26">
-        <v>0.8471604061719883</v>
+        <v>1.027918228734967</v>
       </c>
       <c r="E26">
-        <v>0.945174001661147</v>
+        <v>1.10593167507911</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -833,16 +833,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.9433791241579199</v>
+        <v>1.069131891986884</v>
       </c>
       <c r="C27">
-        <v>1.01946033263321</v>
+        <v>1.084370975318369</v>
       </c>
       <c r="D27">
-        <v>0.8616188984832257</v>
+        <v>1.009287453287225</v>
       </c>
       <c r="E27">
-        <v>0.9558136683970067</v>
+        <v>1.116608925283289</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -850,16 +850,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.9294684016696207</v>
+        <v>1.051234057142033</v>
       </c>
       <c r="C28">
-        <v>1.01066589339792</v>
+        <v>1.010679374657549</v>
       </c>
       <c r="D28">
-        <v>0.8269351296971321</v>
+        <v>1.030314656882163</v>
       </c>
       <c r="E28">
-        <v>0.9607819559943455</v>
+        <v>1.115616647475031</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -867,16 +867,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.9290411558465804</v>
+        <v>1.044782350237513</v>
       </c>
       <c r="C29">
-        <v>1.003973113428918</v>
+        <v>0.980108291162938</v>
       </c>
       <c r="D29">
-        <v>0.8296708594882284</v>
+        <v>1.036950072242591</v>
       </c>
       <c r="E29">
-        <v>0.9626688982339493</v>
+        <v>1.122136199663986</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -884,16 +884,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.9573869813803167</v>
+        <v>1.027180629809182</v>
       </c>
       <c r="C30">
-        <v>0.9949247318402735</v>
+        <v>1.006261963229036</v>
       </c>
       <c r="D30">
-        <v>0.9137694451342023</v>
+        <v>0.9613458655041072</v>
       </c>
       <c r="E30">
-        <v>0.9652408518443891</v>
+        <v>1.120339746052212</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -901,16 +901,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.9707532640954868</v>
+        <v>1.028022384582031</v>
       </c>
       <c r="C31">
-        <v>0.9875157878983559</v>
+        <v>1.022584924696499</v>
       </c>
       <c r="D31">
-        <v>0.9625616339360936</v>
+        <v>0.9527805948460204</v>
       </c>
       <c r="E31">
-        <v>0.962396385941096</v>
+        <v>1.115104130593841</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -918,16 +918,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.9480608814718633</v>
+        <v>1.039231454318335</v>
       </c>
       <c r="C32">
-        <v>0.9527837800647132</v>
+        <v>1.02519156157105</v>
       </c>
       <c r="D32">
-        <v>0.9341781124314464</v>
+        <v>0.978986461492369</v>
       </c>
       <c r="E32">
-        <v>0.9573806353147609</v>
+        <v>1.118291799705823</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -935,16 +935,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.9326583714301191</v>
+        <v>1.024499660161808</v>
       </c>
       <c r="C33">
-        <v>0.9552034610591291</v>
+        <v>0.9954156197582585</v>
       </c>
       <c r="D33">
-        <v>0.8890345392155464</v>
+        <v>0.9632182110794628</v>
       </c>
       <c r="E33">
-        <v>0.9553296505068407</v>
+        <v>1.121518184678544</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -952,16 +952,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.899860023922419</v>
+        <v>1.035766589740749</v>
       </c>
       <c r="C34">
-        <v>0.9228862688478855</v>
+        <v>0.9853977507593036</v>
       </c>
       <c r="D34">
-        <v>0.8269901395515524</v>
+        <v>1.010970053315396</v>
       </c>
       <c r="E34">
-        <v>0.9547207478261135</v>
+        <v>1.115413345450248</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -969,16 +969,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.9051619770101073</v>
+        <v>1.035980255809575</v>
       </c>
       <c r="C35">
-        <v>0.9197307107091963</v>
+        <v>0.9731393309962573</v>
       </c>
       <c r="D35">
-        <v>0.8376735424237954</v>
+        <v>1.023727826111823</v>
       </c>
       <c r="E35">
-        <v>0.9625945979401269</v>
+        <v>1.116078910641364</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -986,16 +986,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.8966011973982204</v>
+        <v>0.9928401530282797</v>
       </c>
       <c r="C36">
-        <v>0.9145157707018261</v>
+        <v>0.9312268598550357</v>
       </c>
       <c r="D36">
-        <v>0.8128725115126318</v>
+        <v>0.9399125796015608</v>
       </c>
       <c r="E36">
-        <v>0.9695814697828626</v>
+        <v>1.118137060398571</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1003,16 +1003,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.9257353786467342</v>
+        <v>0.991940842045946</v>
       </c>
       <c r="C37">
-        <v>0.9108367291741474</v>
+        <v>0.9735022421089357</v>
       </c>
       <c r="D37">
-        <v>0.8984829119635593</v>
+        <v>0.893877098956227</v>
       </c>
       <c r="E37">
-        <v>0.9694160981021115</v>
+        <v>1.121611748445683</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1020,16 +1020,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.9496937603891623</v>
+        <v>1.006013156813996</v>
       </c>
       <c r="C38">
-        <v>0.9335832774400062</v>
+        <v>0.9793206730444257</v>
       </c>
       <c r="D38">
-        <v>0.9422275905373139</v>
+        <v>0.9304991821353581</v>
       </c>
       <c r="E38">
-        <v>0.9737374488326205</v>
+        <v>1.117300681044898</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1037,16 +1037,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.9408975347276316</v>
+        <v>1.0065266883801</v>
       </c>
       <c r="C39">
-        <v>0.9224121019611565</v>
+        <v>0.9745468994880975</v>
       </c>
       <c r="D39">
-        <v>0.9257539699458905</v>
+        <v>0.9313124549669729</v>
       </c>
       <c r="E39">
-        <v>0.975453152260501</v>
+        <v>1.123512036060427</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1054,16 +1054,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.9376008081885423</v>
+        <v>0.9739427819491545</v>
       </c>
       <c r="C40">
-        <v>0.9450902630215033</v>
+        <v>0.9571648349438265</v>
       </c>
       <c r="D40">
-        <v>0.8990133918617347</v>
+        <v>0.858091736975222</v>
       </c>
       <c r="E40">
-        <v>0.9700954534542269</v>
+        <v>1.124811829732816</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1071,16 +1071,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.9521932509724603</v>
+        <v>0.9718888800481625</v>
       </c>
       <c r="C41">
-        <v>0.9403242409445252</v>
+        <v>0.961651093028175</v>
       </c>
       <c r="D41">
-        <v>0.9478167399951141</v>
+        <v>0.8501582014217195</v>
       </c>
       <c r="E41">
-        <v>0.9686642905095983</v>
+        <v>1.12287796911905</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1088,16 +1088,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.9876169519385702</v>
+        <v>0.969012240508331</v>
       </c>
       <c r="C42">
-        <v>0.9565125845645286</v>
+        <v>0.9673405179058635</v>
       </c>
       <c r="D42">
-        <v>1.046695340585858</v>
+        <v>0.8387575787815755</v>
       </c>
       <c r="E42">
-        <v>0.9621762397701314</v>
+        <v>1.121429439447761</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1105,16 +1105,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.97805389719962</v>
+        <v>0.9472035746505431</v>
       </c>
       <c r="C43">
-        <v>0.947794761812101</v>
+        <v>0.9440221600343762</v>
       </c>
       <c r="D43">
-        <v>1.031748429304987</v>
+        <v>0.8035946279871071</v>
       </c>
       <c r="E43">
-        <v>0.9567539044734835</v>
+        <v>1.12023921425568</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1122,16 +1122,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.9714860414542753</v>
+        <v>0.9554580263659838</v>
       </c>
       <c r="C44">
-        <v>0.906061949878859</v>
+        <v>0.9407923867580777</v>
       </c>
       <c r="D44">
-        <v>1.058415835925655</v>
+        <v>0.8278046326674537</v>
       </c>
       <c r="E44">
-        <v>0.9560827292291826</v>
+        <v>1.119987543476488</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1139,16 +1139,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.9734426174657582</v>
+        <v>0.9569712958147641</v>
       </c>
       <c r="C45">
-        <v>0.8867716963630026</v>
+        <v>0.9643636225746449</v>
       </c>
       <c r="D45">
-        <v>1.091121699253304</v>
+        <v>0.8149953385345826</v>
       </c>
       <c r="E45">
-        <v>0.9533361283020274</v>
+        <v>1.115066554529382</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1156,16 +1156,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.9884062842921941</v>
+        <v>0.9649977516770492</v>
       </c>
       <c r="C46">
-        <v>0.8763379482571814</v>
+        <v>0.9795268714510306</v>
       </c>
       <c r="D46">
-        <v>1.151363461985029</v>
+        <v>0.821484669283214</v>
       </c>
       <c r="E46">
-        <v>0.9570231257642748</v>
+        <v>1.116768323643348</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1173,16 +1173,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.985796844045969</v>
+        <v>0.9828648461735695</v>
       </c>
       <c r="C47">
-        <v>0.8645875396143807</v>
+        <v>1.007764149068839</v>
       </c>
       <c r="D47">
-        <v>1.153731244999074</v>
+        <v>0.8407737731538446</v>
       </c>
       <c r="E47">
-        <v>0.9603922436657926</v>
+        <v>1.120581235619822</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1190,16 +1190,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.9874653825671349</v>
+        <v>0.9980420459389427</v>
       </c>
       <c r="C48">
-        <v>0.8782539959346298</v>
+        <v>0.9851611705443248</v>
       </c>
       <c r="D48">
-        <v>1.141301755868826</v>
+        <v>0.9053981473058</v>
       </c>
       <c r="E48">
-        <v>0.9606053892777848</v>
+        <v>1.114550178829281</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1207,16 +1207,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.9933798471225918</v>
+        <v>0.9533427075881231</v>
       </c>
       <c r="C49">
-        <v>0.8814562187804338</v>
+        <v>0.9619555590707566</v>
       </c>
       <c r="D49">
-        <v>1.168557689108423</v>
+        <v>0.8084400414810341</v>
       </c>
       <c r="E49">
-        <v>0.9516891803272889</v>
+        <v>1.114151686919663</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1224,16 +1224,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1.002528199253471</v>
+        <v>0.9240324502843925</v>
       </c>
       <c r="C50">
-        <v>0.8686310227860128</v>
+        <v>0.9482645418463431</v>
       </c>
       <c r="D50">
-        <v>1.224383040345157</v>
+        <v>0.7495591297937317</v>
       </c>
       <c r="E50">
-        <v>0.9474082251473656</v>
+        <v>1.110008385167671</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1241,16 +1241,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.9677306844954193</v>
+        <v>0.9171419605308043</v>
       </c>
       <c r="C51">
-        <v>0.8264700262599137</v>
+        <v>0.945241685769963</v>
       </c>
       <c r="D51">
-        <v>1.154646937333906</v>
+        <v>0.7384895879639992</v>
       </c>
       <c r="E51">
-        <v>0.9497017094261114</v>
+        <v>1.105153104138062</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1258,16 +1258,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.9672417398003054</v>
+        <v>0.9213839726752424</v>
       </c>
       <c r="C52">
-        <v>0.8262898099870818</v>
+        <v>0.9905730804248986</v>
       </c>
       <c r="D52">
-        <v>1.154625671051501</v>
+        <v>0.7141146547732095</v>
       </c>
       <c r="E52">
-        <v>0.9484872180850185</v>
+        <v>1.105776849672188</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1275,16 +1275,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.9708598745215717</v>
+        <v>0.9619120450399357</v>
       </c>
       <c r="C53">
-        <v>0.8028086050023618</v>
+        <v>1.020001861558862</v>
       </c>
       <c r="D53">
-        <v>1.207087475004461</v>
+        <v>0.7856138498970728</v>
       </c>
       <c r="E53">
-        <v>0.9443193609598347</v>
+        <v>1.110698009118463</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1292,16 +1292,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.9680442768124747</v>
+        <v>1.000707372512794</v>
       </c>
       <c r="C54">
-        <v>0.7959162182063347</v>
+        <v>1.063458188775789</v>
       </c>
       <c r="D54">
-        <v>1.207795956048688</v>
+        <v>0.850573144309032</v>
       </c>
       <c r="E54">
-        <v>0.9436799755809889</v>
+        <v>1.107871045347468</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1309,16 +1309,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.9821100079194058</v>
+        <v>1.008524203636693</v>
       </c>
       <c r="C55">
-        <v>0.8004581303821429</v>
+        <v>1.057374782941002</v>
       </c>
       <c r="D55">
-        <v>1.252720615907355</v>
+        <v>0.8703980323745893</v>
       </c>
       <c r="E55">
-        <v>0.9446861866118381</v>
+        <v>1.114582260456735</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1326,16 +1326,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1.009447907726264</v>
+        <v>1.028766901879498</v>
       </c>
       <c r="C56">
-        <v>0.7984774538980149</v>
+        <v>1.103383434952799</v>
       </c>
       <c r="D56">
-        <v>1.358672572946766</v>
+        <v>0.8802955161446431</v>
       </c>
       <c r="E56">
-        <v>0.9481439328531579</v>
+        <v>1.120975190519255</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1343,16 +1343,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1.006675644141587</v>
+        <v>1.016062304664409</v>
       </c>
       <c r="C57">
-        <v>0.7965480366648604</v>
+        <v>1.134678728038717</v>
       </c>
       <c r="D57">
-        <v>1.348605979851833</v>
+        <v>0.8189828133049903</v>
       </c>
       <c r="E57">
-        <v>0.9496676216436702</v>
+        <v>1.128790426907368</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1360,16 +1360,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1.011372539423908</v>
+        <v>1.003940510885782</v>
       </c>
       <c r="C58">
-        <v>0.7986708806788023</v>
+        <v>1.118102829138678</v>
       </c>
       <c r="D58">
-        <v>1.372213934410059</v>
+        <v>0.799972781087526</v>
       </c>
       <c r="E58">
-        <v>0.9439387115259152</v>
+        <v>1.131271850586764</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1377,16 +1377,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.9955029706554311</v>
+        <v>0.975693439734186</v>
       </c>
       <c r="C59">
-        <v>0.7893977732696361</v>
+        <v>1.104871111078587</v>
       </c>
       <c r="D59">
-        <v>1.324297820004537</v>
+        <v>0.7461366055131013</v>
       </c>
       <c r="E59">
-        <v>0.9437264338836487</v>
+        <v>1.126704916717413</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1394,16 +1394,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.9719730198794836</v>
+        <v>0.9718404696021473</v>
       </c>
       <c r="C60">
-        <v>0.7977316721727894</v>
+        <v>1.107207122305209</v>
       </c>
       <c r="D60">
-        <v>1.21412680099239</v>
+        <v>0.7390567359581524</v>
       </c>
       <c r="E60">
-        <v>0.9480729347309402</v>
+        <v>1.121704054980277</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1411,16 +1411,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.97499583755148</v>
+        <v>0.9833812112890863</v>
       </c>
       <c r="C61">
-        <v>0.8269522449211778</v>
+        <v>1.11535069209526</v>
       </c>
       <c r="D61">
-        <v>1.179032287422922</v>
+        <v>0.764393871855878</v>
       </c>
       <c r="E61">
-        <v>0.9506095129480512</v>
+        <v>1.115416542535509</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1428,16 +1428,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.9859367809127438</v>
+        <v>1.029805394939123</v>
       </c>
       <c r="C62">
-        <v>0.8467441229029642</v>
+        <v>1.159713658699066</v>
       </c>
       <c r="D62">
-        <v>1.188800361248118</v>
+        <v>0.8461059233464828</v>
       </c>
       <c r="E62">
-        <v>0.9521077191268441</v>
+        <v>1.112986714906376</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1445,16 +1445,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.9826018011265444</v>
+        <v>1.05978387152013</v>
       </c>
       <c r="C63">
-        <v>0.8637003132917571</v>
+        <v>1.178933349139638</v>
       </c>
       <c r="D63">
-        <v>1.152837494459436</v>
+        <v>0.9096267232217509</v>
       </c>
       <c r="E63">
-        <v>0.9527994496237211</v>
+        <v>1.109939875058797</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1462,16 +1462,16 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.9688013799345079</v>
+        <v>1.038621119132458</v>
       </c>
       <c r="C64">
-        <v>0.8462261730728411</v>
+        <v>1.136746215691978</v>
       </c>
       <c r="D64">
-        <v>1.130095834275983</v>
+        <v>0.8889446293364873</v>
       </c>
       <c r="E64">
-        <v>0.9508292177861598</v>
+        <v>1.108748946329237</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1479,16 +1479,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1.011183016612557</v>
+        <v>1.024643073169854</v>
       </c>
       <c r="C65">
-        <v>0.8545577245975392</v>
+        <v>1.163926114977037</v>
       </c>
       <c r="D65">
-        <v>1.270924449874798</v>
+        <v>0.8474710148237531</v>
       </c>
       <c r="E65">
-        <v>0.9519807386212848</v>
+        <v>1.090605188389356</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1496,16 +1496,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>1.021967756099393</v>
+        <v>1.043687702197096</v>
       </c>
       <c r="C66">
-        <v>0.8558340695255935</v>
+        <v>1.1914189318147</v>
       </c>
       <c r="D66">
-        <v>1.300790565356573</v>
+        <v>0.8801206529603699</v>
       </c>
       <c r="E66">
-        <v>0.9587704307484428</v>
+        <v>1.084188981980941</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1513,16 +1513,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>1.029257415394554</v>
+        <v>1.049923884239987</v>
       </c>
       <c r="C67">
-        <v>0.8482030789248231</v>
+        <v>1.179510658899468</v>
       </c>
       <c r="D67">
-        <v>1.334355265966341</v>
+        <v>0.9044689398333207</v>
       </c>
       <c r="E67">
-        <v>0.9633868085713904</v>
+        <v>1.084870547419929</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1530,16 +1530,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1.059489128579762</v>
+        <v>1.070033339995814</v>
       </c>
       <c r="C68">
-        <v>0.8378349723241258</v>
+        <v>1.173848692763564</v>
       </c>
       <c r="D68">
-        <v>1.471850543294007</v>
+        <v>0.962747936274263</v>
       </c>
       <c r="E68">
-        <v>0.9644224632938858</v>
+        <v>1.084094676507426</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1547,16 +1547,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1.042654061455307</v>
+        <v>1.088974289332233</v>
       </c>
       <c r="C69">
-        <v>0.8479306990192409</v>
+        <v>1.164560783219884</v>
       </c>
       <c r="D69">
-        <v>1.381886528336421</v>
+        <v>1.024512282072261</v>
       </c>
       <c r="E69">
-        <v>0.9673596665346567</v>
+        <v>1.08236452173248</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1564,16 +1564,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>1.027751827924218</v>
+        <v>1.096631955867255</v>
       </c>
       <c r="C70">
-        <v>0.8228453033435064</v>
+        <v>1.146280207656579</v>
       </c>
       <c r="D70">
-        <v>1.364160480331091</v>
+        <v>1.061974003593772</v>
       </c>
       <c r="E70">
-        <v>0.9671216714020283</v>
+        <v>1.083373010165837</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1581,16 +1581,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1.016050295590687</v>
+        <v>1.113087576849963</v>
       </c>
       <c r="C71">
-        <v>0.813302431858693</v>
+        <v>1.154881136044872</v>
       </c>
       <c r="D71">
-        <v>1.332607635037181</v>
+        <v>1.104382498044356</v>
       </c>
       <c r="E71">
-        <v>0.9678125545384695</v>
+        <v>1.0812626559939</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1598,16 +1598,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1.046852412845812</v>
+        <v>1.137374843246525</v>
       </c>
       <c r="C72">
-        <v>0.829794315524194</v>
+        <v>1.150368267784855</v>
       </c>
       <c r="D72">
-        <v>1.425301584142702</v>
+        <v>1.184430331868195</v>
       </c>
       <c r="E72">
-        <v>0.9700165674634047</v>
+        <v>1.079852505963545</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1615,16 +1615,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1.058154789838798</v>
+        <v>1.105407224496638</v>
       </c>
       <c r="C73">
-        <v>0.8356254328358833</v>
+        <v>1.133968060832708</v>
       </c>
       <c r="D73">
-        <v>1.455731963856664</v>
+        <v>1.10936965031666</v>
       </c>
       <c r="E73">
-        <v>0.9739900917505846</v>
+        <v>1.073716910232704</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1632,16 +1632,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1.083958016295256</v>
+        <v>1.091927606066301</v>
       </c>
       <c r="C74">
-        <v>0.8231160025242898</v>
+        <v>1.125874929508389</v>
       </c>
       <c r="D74">
-        <v>1.597175242131031</v>
+        <v>1.083294006911949</v>
       </c>
       <c r="E74">
-        <v>0.9687768891707369</v>
+        <v>1.067443872974219</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1649,16 +1649,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>1.077401327739834</v>
+        <v>1.085014449559263</v>
       </c>
       <c r="C75">
-        <v>0.8192302924586996</v>
+        <v>1.075535967169686</v>
       </c>
       <c r="D75">
-        <v>1.572702967650784</v>
+        <v>1.118802275963769</v>
       </c>
       <c r="E75">
-        <v>0.9706883341117075</v>
+        <v>1.061520256978869</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1666,16 +1666,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1.089546854123912</v>
+        <v>1.083603487572917</v>
       </c>
       <c r="C76">
-        <v>0.8039643019916393</v>
+        <v>1.086939824569389</v>
       </c>
       <c r="D76">
-        <v>1.659646987258427</v>
+        <v>1.10293434281329</v>
       </c>
       <c r="E76">
-        <v>0.9693603371430333</v>
+        <v>1.061343638885145</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1683,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>1.103451656042603</v>
+        <v>1.062361129130707</v>
       </c>
       <c r="C77">
-        <v>0.8037647612773787</v>
+        <v>1.091264241773656</v>
       </c>
       <c r="D77">
-        <v>1.732910467912215</v>
+        <v>1.040898956875784</v>
       </c>
       <c r="E77">
-        <v>0.9646168530531114</v>
+        <v>1.055548074014488</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1700,16 +1700,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1.107456679941186</v>
+        <v>1.085615398510323</v>
       </c>
       <c r="C78">
-        <v>0.7922704621805322</v>
+        <v>1.098504202289439</v>
       </c>
       <c r="D78">
-        <v>1.778781536899415</v>
+        <v>1.114316698111312</v>
       </c>
       <c r="E78">
-        <v>0.963793878440576</v>
+        <v>1.045243855503376</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1717,16 +1717,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1.072008095049546</v>
+        <v>1.110183621608513</v>
       </c>
       <c r="C79">
-        <v>0.8128796556218705</v>
+        <v>1.07736064931074</v>
       </c>
       <c r="D79">
-        <v>1.573499310188268</v>
+        <v>1.223431429390576</v>
       </c>
       <c r="E79">
-        <v>0.9631665319550419</v>
+        <v>1.038110791922691</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1734,16 +1734,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1.09621719110616</v>
+        <v>1.117481858269852</v>
       </c>
       <c r="C80">
-        <v>0.7997713359027245</v>
+        <v>1.08266409132854</v>
       </c>
       <c r="D80">
-        <v>1.70990737637292</v>
+        <v>1.245238036085543</v>
       </c>
       <c r="E80">
-        <v>0.9632774746592158</v>
+        <v>1.035083375256403</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1751,16 +1751,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.063202828280524</v>
+        <v>1.157420625572494</v>
       </c>
       <c r="C81">
-        <v>0.7881663846070155</v>
+        <v>1.078127286893595</v>
       </c>
       <c r="D81">
-        <v>1.578089170964333</v>
+        <v>1.401350363372464</v>
       </c>
       <c r="E81">
-        <v>0.9662709471298618</v>
+        <v>1.026258775104748</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1768,16 +1768,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1.080555405668399</v>
+        <v>1.167369140549177</v>
       </c>
       <c r="C82">
-        <v>0.7695458683483529</v>
+        <v>1.051820906081627</v>
       </c>
       <c r="D82">
-        <v>1.682127583006528</v>
+        <v>1.486053031223583</v>
       </c>
       <c r="E82">
-        <v>0.9746477349212268</v>
+        <v>1.017767360462861</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1785,16 +1785,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1.077923656907967</v>
+        <v>1.122394200630359</v>
       </c>
       <c r="C83">
-        <v>0.7697156757285315</v>
+        <v>1.018500511077468</v>
       </c>
       <c r="D83">
-        <v>1.664809883674488</v>
+        <v>1.379180861839941</v>
       </c>
       <c r="E83">
-        <v>0.9773925700195352</v>
+        <v>1.006592682220381</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1802,16 +1802,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>1.110540996424145</v>
+        <v>1.111080766827398</v>
       </c>
       <c r="C84">
-        <v>0.7760607078048194</v>
+        <v>1.021373186383514</v>
       </c>
       <c r="D84">
-        <v>1.800247932819457</v>
+        <v>1.343120311747476</v>
       </c>
       <c r="E84">
-        <v>0.9803378484130091</v>
+        <v>0.999856145724347</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1819,16 +1819,16 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1.071608835552328</v>
+        <v>1.076539270574509</v>
       </c>
       <c r="C85">
-        <v>0.75690517869636</v>
+        <v>1.049371176784125</v>
       </c>
       <c r="D85">
-        <v>1.657848442892818</v>
+        <v>1.202658735705194</v>
       </c>
       <c r="E85">
-        <v>0.9806692436738143</v>
+        <v>0.9885942707116147</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1836,16 +1836,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1.059628916181826</v>
+        <v>1.073947391386776</v>
       </c>
       <c r="C86">
-        <v>0.7457677262213878</v>
+        <v>1.064352174844492</v>
       </c>
       <c r="D86">
-        <v>1.638428461388042</v>
+        <v>1.183874897551774</v>
       </c>
       <c r="E86">
-        <v>0.9737115805950604</v>
+        <v>0.9830098246281542</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1853,16 +1853,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1.082093289139423</v>
+        <v>1.082348130555607</v>
       </c>
       <c r="C87">
-        <v>0.7548721589629643</v>
+        <v>1.106037281936549</v>
       </c>
       <c r="D87">
-        <v>1.721619449841739</v>
+        <v>1.164160722925729</v>
       </c>
       <c r="E87">
-        <v>0.9749526913180758</v>
+        <v>0.9847323492667293</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1870,16 +1870,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>1.056543959136124</v>
+        <v>1.088949061462676</v>
       </c>
       <c r="C88">
-        <v>0.7590209346056577</v>
+        <v>1.11415715604507</v>
       </c>
       <c r="D88">
-        <v>1.5947634510737</v>
+        <v>1.181959339089514</v>
       </c>
       <c r="E88">
-        <v>0.9743448309346761</v>
+        <v>0.9805589414542982</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1887,16 +1887,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>1.032688317606224</v>
+        <v>1.120313904057975</v>
       </c>
       <c r="C89">
-        <v>0.7729667574013768</v>
+        <v>1.088507973774135</v>
       </c>
       <c r="D89">
-        <v>1.455798063072078</v>
+        <v>1.315366398303346</v>
       </c>
       <c r="E89">
-        <v>0.978691548747382</v>
+        <v>0.9820663258714267</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1904,16 +1904,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1.031644542371934</v>
+        <v>1.125818328557514</v>
       </c>
       <c r="C90">
-        <v>0.7959382076487537</v>
+        <v>1.093361263355717</v>
       </c>
       <c r="D90">
-        <v>1.40481766510317</v>
+        <v>1.332127160866546</v>
       </c>
       <c r="E90">
-        <v>0.9819535454763584</v>
+        <v>0.9797055715379663</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1921,16 +1921,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1.048985219941466</v>
+        <v>1.127142405807359</v>
       </c>
       <c r="C91">
-        <v>0.8200705009067136</v>
+        <v>1.121808331354024</v>
       </c>
       <c r="D91">
-        <v>1.421746450318676</v>
+        <v>1.308522271908728</v>
       </c>
       <c r="E91">
-        <v>0.9899990199049132</v>
+        <v>0.9755209212123965</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1938,16 +1938,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1.041203881379181</v>
+        <v>1.130377364594248</v>
       </c>
       <c r="C92">
-        <v>0.834971376909572</v>
+        <v>1.113740295851434</v>
       </c>
       <c r="D92">
-        <v>1.362187748539682</v>
+        <v>1.333680633130184</v>
       </c>
       <c r="E92">
-        <v>0.9924274709081952</v>
+        <v>0.9723767796219049</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1955,16 +1955,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1.039250056450186</v>
+        <v>1.097033288510466</v>
       </c>
       <c r="C93">
-        <v>0.8557436268043485</v>
+        <v>1.136050286336245</v>
       </c>
       <c r="D93">
-        <v>1.31426900599534</v>
+        <v>1.192794765441772</v>
       </c>
       <c r="E93">
-        <v>0.9980038823119157</v>
+        <v>0.9743077074418836</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1972,16 +1972,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1.076085693438793</v>
+        <v>1.085616798862806</v>
       </c>
       <c r="C94">
-        <v>0.8865633412056934</v>
+        <v>1.126294789760794</v>
       </c>
       <c r="D94">
-        <v>1.412552257198976</v>
+        <v>1.164659683128153</v>
       </c>
       <c r="E94">
-        <v>0.995007328495033</v>
+        <v>0.9753905599493439</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -1989,16 +1989,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>1.118826079673399</v>
+        <v>1.093781076354666</v>
       </c>
       <c r="C95">
-        <v>0.9001780649578923</v>
+        <v>1.141203991872604</v>
       </c>
       <c r="D95">
-        <v>1.572260681391084</v>
+        <v>1.186554217983008</v>
       </c>
       <c r="E95">
-        <v>0.9895432109381717</v>
+        <v>0.966363117825862</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2006,16 +2006,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>1.073386573798301</v>
+        <v>1.062336140738845</v>
       </c>
       <c r="C96">
-        <v>0.8922854231455337</v>
+        <v>1.098514824921151</v>
       </c>
       <c r="D96">
-        <v>1.408168678182989</v>
+        <v>1.133364455101801</v>
       </c>
       <c r="E96">
-        <v>0.9842603671198739</v>
+        <v>0.9629646818464151</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2023,16 +2023,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>1.071488807322096</v>
+        <v>1.051329466774056</v>
       </c>
       <c r="C97">
-        <v>0.8815777090734173</v>
+        <v>1.07154292303437</v>
       </c>
       <c r="D97">
-        <v>1.425854581073076</v>
+        <v>1.128606283937931</v>
       </c>
       <c r="E97">
-        <v>0.9786492795180542</v>
+        <v>0.9608696471811621</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2040,16 +2040,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1.061479849331138</v>
+        <v>1.065713817598472</v>
       </c>
       <c r="C98">
-        <v>0.8743633295222432</v>
+        <v>1.073683426161878</v>
       </c>
       <c r="D98">
-        <v>1.406152730631903</v>
+        <v>1.180871277118529</v>
       </c>
       <c r="E98">
-        <v>0.9727714873887404</v>
+        <v>0.9546473727567267</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2057,16 +2057,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1.058466201954163</v>
+        <v>1.096185524584839</v>
       </c>
       <c r="C99">
-        <v>0.8354447506118047</v>
+        <v>1.069881333431561</v>
       </c>
       <c r="D99">
-        <v>1.458948452545139</v>
+        <v>1.292685860079567</v>
       </c>
       <c r="E99">
-        <v>0.9729114239338719</v>
+        <v>0.9524091952643075</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2074,16 +2074,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>1.022551187460002</v>
+        <v>1.131601943321558</v>
       </c>
       <c r="C100">
-        <v>0.8162951368009946</v>
+        <v>1.073523906117267</v>
       </c>
       <c r="D100">
-        <v>1.349930922034261</v>
+        <v>1.416375029475501</v>
       </c>
       <c r="E100">
-        <v>0.9702785208331204</v>
+        <v>0.9529959875785778</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2091,16 +2091,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.9917061167198544</v>
+        <v>1.14230515937692</v>
       </c>
       <c r="C101">
-        <v>0.8078144020610544</v>
+        <v>1.054251450965483</v>
       </c>
       <c r="D101">
-        <v>1.243524752073191</v>
+        <v>1.4880651495911</v>
       </c>
       <c r="E101">
-        <v>0.9709188880300808</v>
+        <v>0.9501239421163339</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2108,16 +2108,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>1.006984362381308</v>
+        <v>1.145201393287207</v>
       </c>
       <c r="C102">
-        <v>0.7928773221324833</v>
+        <v>1.077500079647449</v>
       </c>
       <c r="D102">
-        <v>1.319986798151378</v>
+        <v>1.461206450636323</v>
       </c>
       <c r="E102">
-        <v>0.9756467341874734</v>
+        <v>0.953930448965848</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2125,16 +2125,16 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>1.025371987734083</v>
+        <v>1.092365220160823</v>
       </c>
       <c r="C103">
-        <v>0.818956305614456</v>
+        <v>1.072912843890584</v>
       </c>
       <c r="D103">
-        <v>1.349570052109894</v>
+        <v>1.272774408054457</v>
       </c>
       <c r="E103">
-        <v>0.9754121986198434</v>
+        <v>0.9545258933737739</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2142,16 +2142,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1.014634856019416</v>
+        <v>1.06850608081514</v>
       </c>
       <c r="C104">
-        <v>0.8253870697762883</v>
+        <v>1.067424980766014</v>
       </c>
       <c r="D104">
-        <v>1.285049608442412</v>
+        <v>1.200953428794502</v>
       </c>
       <c r="E104">
-        <v>0.9848084771182858</v>
+        <v>0.9516285555083044</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2159,16 +2159,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1.003257503062458</v>
+        <v>1.05449060962177</v>
       </c>
       <c r="C105">
-        <v>0.8433433490041511</v>
+        <v>1.031419317050224</v>
       </c>
       <c r="D105">
-        <v>1.2106962388717</v>
+        <v>1.196657480611672</v>
       </c>
       <c r="E105">
-        <v>0.9890030516591154</v>
+        <v>0.9499987394139152</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2176,16 +2176,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>1.056699654835364</v>
+        <v>1.009976743459062</v>
       </c>
       <c r="C106">
-        <v>0.8929287333551333</v>
+        <v>0.9938493335207073</v>
       </c>
       <c r="D106">
-        <v>1.33364317803355</v>
+        <v>1.091756765966287</v>
       </c>
       <c r="E106">
-        <v>0.990827953847684</v>
+        <v>0.949484058679991</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2193,16 +2193,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>1.082057289242797</v>
+        <v>1.014929528382127</v>
       </c>
       <c r="C107">
-        <v>0.9411129301690176</v>
+        <v>1.004761230013883</v>
       </c>
       <c r="D107">
-        <v>1.363414704534949</v>
+        <v>1.091204249175236</v>
       </c>
       <c r="E107">
-        <v>0.9873725541817006</v>
+        <v>0.9535396286162601</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2210,16 +2210,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>1.081236418551775</v>
+        <v>1.064997267532417</v>
       </c>
       <c r="C108">
-        <v>0.9543253532269261</v>
+        <v>1.01556079028656</v>
       </c>
       <c r="D108">
-        <v>1.331628549173021</v>
+        <v>1.248001266394812</v>
       </c>
       <c r="E108">
-        <v>0.9946778264588861</v>
+        <v>0.9530694079531555</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2227,16 +2227,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1.071660711858996</v>
+        <v>1.053099539940153</v>
       </c>
       <c r="C109">
-        <v>0.9711597506041327</v>
+        <v>1.004201578621745</v>
       </c>
       <c r="D109">
-        <v>1.267596767571491</v>
+        <v>1.217494341924231</v>
       </c>
       <c r="E109">
-        <v>0.9997700673950617</v>
+        <v>0.9552574156064337</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2244,16 +2244,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1.071474981689893</v>
+        <v>1.076713800282425</v>
       </c>
       <c r="C110">
-        <v>0.9683798244207086</v>
+        <v>1.04805454378915</v>
       </c>
       <c r="D110">
-        <v>1.269106393468197</v>
+        <v>1.242586690153844</v>
       </c>
       <c r="E110">
-        <v>1.000926852088847</v>
+        <v>0.9584958918109907</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2261,16 +2261,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1.084747566313293</v>
+        <v>1.062829402074666</v>
       </c>
       <c r="C111">
-        <v>0.9520077104524587</v>
+        <v>1.018345963381988</v>
       </c>
       <c r="D111">
-        <v>1.341624108545505</v>
+        <v>1.220744566144942</v>
       </c>
       <c r="E111">
-        <v>0.9993433657698269</v>
+        <v>0.9657629372115513</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2278,16 +2278,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>1.068983861876889</v>
+        <v>1.032194112120981</v>
       </c>
       <c r="C112">
-        <v>0.9696862532986311</v>
+        <v>1.010505447720367</v>
       </c>
       <c r="D112">
-        <v>1.260304932979736</v>
+        <v>1.123127590405545</v>
       </c>
       <c r="E112">
-        <v>0.9995547135842276</v>
+        <v>0.9689834890479154</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2295,16 +2295,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>1.073105612355721</v>
+        <v>1.006011113801214</v>
       </c>
       <c r="C113">
-        <v>0.957592427868856</v>
+        <v>1.00133943112172</v>
       </c>
       <c r="D113">
-        <v>1.29483052040051</v>
+        <v>1.045342412842214</v>
       </c>
       <c r="E113">
-        <v>0.9966295684957135</v>
+        <v>0.9726765505123803</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2312,16 +2312,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.062425898883124</v>
+        <v>0.9882845651673344</v>
       </c>
       <c r="C114">
-        <v>0.9614780202794903</v>
+        <v>0.9988991016842756</v>
       </c>
       <c r="D114">
-        <v>1.262790011428876</v>
+        <v>1.002433746568486</v>
       </c>
       <c r="E114">
-        <v>0.9877008975885276</v>
+        <v>0.963981583415904</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2329,16 +2329,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>1.072385116539927</v>
+        <v>0.9466125324005206</v>
       </c>
       <c r="C115">
-        <v>0.9550115101113844</v>
+        <v>0.9828660635521599</v>
       </c>
       <c r="D115">
-        <v>1.318404318259526</v>
+        <v>0.901484736751499</v>
       </c>
       <c r="E115">
-        <v>0.9794789586698093</v>
+        <v>0.9573352088771813</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2346,16 +2346,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>1.055573214621484</v>
+        <v>0.9305298215503476</v>
       </c>
       <c r="C116">
-        <v>0.9509394248667244</v>
+        <v>0.9909047668341276</v>
       </c>
       <c r="D116">
-        <v>1.267172108952412</v>
+        <v>0.850331034721185</v>
       </c>
       <c r="E116">
-        <v>0.9760602481377606</v>
+        <v>0.9562488816458595</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2363,16 +2363,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>1.067608449729481</v>
+        <v>0.9223395716491064</v>
       </c>
       <c r="C117">
-        <v>0.9324811654209693</v>
+        <v>0.9993558025583019</v>
       </c>
       <c r="D117">
-        <v>1.339746706414249</v>
+        <v>0.8183352968060718</v>
       </c>
       <c r="E117">
-        <v>0.9740320349535824</v>
+        <v>0.959447251826673</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2380,16 +2380,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.058267518411359</v>
+        <v>0.929721408800684</v>
       </c>
       <c r="C118">
-        <v>0.9103480283044142</v>
+        <v>0.999303766172237</v>
       </c>
       <c r="D118">
-        <v>1.342497300318402</v>
+        <v>0.8343993343815537</v>
       </c>
       <c r="E118">
-        <v>0.9697628040274631</v>
+        <v>0.9638002213653729</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2397,16 +2397,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>1.061924873127086</v>
+        <v>0.8938677837793294</v>
       </c>
       <c r="C119">
-        <v>0.892993868986142</v>
+        <v>0.991914766444398</v>
       </c>
       <c r="D119">
-        <v>1.391184900131862</v>
+        <v>0.7454338055609891</v>
       </c>
       <c r="E119">
-        <v>0.9639356610571087</v>
+        <v>0.9659094504135407</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2414,16 +2414,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1.032492812910873</v>
+        <v>0.8984909196047111</v>
       </c>
       <c r="C120">
-        <v>0.8767027357711675</v>
+        <v>1.018682656292993</v>
       </c>
       <c r="D120">
-        <v>1.305995683728189</v>
+        <v>0.7393004190805629</v>
       </c>
       <c r="E120">
-        <v>0.9613178541789087</v>
+        <v>0.9631217989496728</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2431,16 +2431,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>1.017105551185236</v>
+        <v>0.8564042273804215</v>
       </c>
       <c r="C121">
-        <v>0.8472022734645612</v>
+        <v>0.9847316119888198</v>
       </c>
       <c r="D121">
-        <v>1.287597210358852</v>
+        <v>0.668249223000396</v>
       </c>
       <c r="E121">
-        <v>0.9645637453378469</v>
+        <v>0.9545090815606201</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2448,16 +2448,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>1.031956042812369</v>
+        <v>0.8337194478618175</v>
       </c>
       <c r="C122">
-        <v>0.8452094462998259</v>
+        <v>0.9752834450102911</v>
       </c>
       <c r="D122">
-        <v>1.341206374007856</v>
+        <v>0.6277975502880579</v>
       </c>
       <c r="E122">
-        <v>0.9694460479186576</v>
+        <v>0.946475393565239</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2465,16 +2465,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1.029836132497063</v>
+        <v>0.8432935867959255</v>
       </c>
       <c r="C123">
-        <v>0.8487376649908266</v>
+        <v>1.001284214780873</v>
       </c>
       <c r="D123">
-        <v>1.329235052987649</v>
+        <v>0.6325187603840712</v>
       </c>
       <c r="E123">
-        <v>0.9681198276079986</v>
+        <v>0.946903260449139</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2482,16 +2482,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>1.017878321154423</v>
+        <v>0.8820542400264654</v>
       </c>
       <c r="C124">
-        <v>0.8340869146255742</v>
+        <v>0.9992461536709438</v>
       </c>
       <c r="D124">
-        <v>1.30769126401887</v>
+        <v>0.7181844084348287</v>
       </c>
       <c r="E124">
-        <v>0.9668766320197344</v>
+        <v>0.9562631450789826</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2499,16 +2499,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>1.027702012151669</v>
+        <v>0.874055146775772</v>
       </c>
       <c r="C125">
-        <v>0.8230830737402856</v>
+        <v>0.9797993354549643</v>
       </c>
       <c r="D125">
-        <v>1.370091488251286</v>
+        <v>0.709884951058834</v>
       </c>
       <c r="E125">
-        <v>0.9625169395815627</v>
+        <v>0.9600445646410998</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2516,16 +2516,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>1.037177303987629</v>
+        <v>0.872163418912149</v>
       </c>
       <c r="C126">
-        <v>0.8285426293442945</v>
+        <v>0.9745435650025331</v>
       </c>
       <c r="D126">
-        <v>1.412369242953336</v>
+        <v>0.7125689788921781</v>
       </c>
       <c r="E126">
-        <v>0.9534455687814379</v>
+        <v>0.9553564311790154</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2533,16 +2533,16 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>1.007669364827881</v>
+        <v>0.8664135814870181</v>
       </c>
       <c r="C127">
-        <v>0.8162487343098128</v>
+        <v>0.9716144408510626</v>
       </c>
       <c r="D127">
-        <v>1.319906684969332</v>
+        <v>0.7048504993388586</v>
       </c>
       <c r="E127">
-        <v>0.9497043269593042</v>
+        <v>0.9496963779710689</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2550,16 +2550,16 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.9832883209527428</v>
+        <v>0.866669105549815</v>
       </c>
       <c r="C128">
-        <v>0.795327220020725</v>
+        <v>0.9625477431161419</v>
       </c>
       <c r="D128">
-        <v>1.264605540673052</v>
+        <v>0.714401003148203</v>
       </c>
       <c r="E128">
-        <v>0.9452391823519701</v>
+        <v>0.9466634516972544</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2567,16 +2567,16 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.9735411568213606</v>
+        <v>0.8473686944648718</v>
       </c>
       <c r="C129">
-        <v>0.7938718721135448</v>
+        <v>0.9689423225335182</v>
       </c>
       <c r="D129">
-        <v>1.237112317713682</v>
+        <v>0.6676280465142087</v>
       </c>
       <c r="E129">
-        <v>0.9395143176794166</v>
+        <v>0.9405561921775516</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2584,16 +2584,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.9848807469247916</v>
+        <v>0.845733820295187</v>
       </c>
       <c r="C130">
-        <v>0.805958788465276</v>
+        <v>0.9809336797923093</v>
       </c>
       <c r="D130">
-        <v>1.262115548638366</v>
+        <v>0.6555355169981308</v>
       </c>
       <c r="E130">
-        <v>0.939158709928493</v>
+        <v>0.9407304926012872</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2601,16 +2601,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.962062028781174</v>
+        <v>0.8350877888556646</v>
       </c>
       <c r="C131">
-        <v>0.7928962331023898</v>
+        <v>0.97485745662239</v>
       </c>
       <c r="D131">
-        <v>1.197610513096225</v>
+        <v>0.6345198714820109</v>
       </c>
       <c r="E131">
-        <v>0.9377288284016415</v>
+        <v>0.9414777356410285</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2618,16 +2618,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.9509132655279462</v>
+        <v>0.8190275332901633</v>
       </c>
       <c r="C132">
-        <v>0.7926653730237228</v>
+        <v>0.953426895425043</v>
       </c>
       <c r="D132">
-        <v>1.166665338708217</v>
+        <v>0.6134767907971673</v>
       </c>
       <c r="E132">
-        <v>0.9297935643685811</v>
+        <v>0.9393122132317605</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2635,16 +2635,16 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.9271375535436525</v>
+        <v>0.81332069357748</v>
       </c>
       <c r="C133">
-        <v>0.7897270091419648</v>
+        <v>0.9310953339902948</v>
       </c>
       <c r="D133">
-        <v>1.082569474708948</v>
+        <v>0.6150789539098094</v>
       </c>
       <c r="E133">
-        <v>0.9321799313045425</v>
+        <v>0.939421401043799</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2652,16 +2652,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.9411883038919768</v>
+        <v>0.8074510001105224</v>
       </c>
       <c r="C134">
-        <v>0.8203564879244297</v>
+        <v>0.9595090583907182</v>
       </c>
       <c r="D134">
-        <v>1.096625939863438</v>
+        <v>0.5847621000572027</v>
       </c>
       <c r="E134">
-        <v>0.9267624585960751</v>
+        <v>0.9382535885533665</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2669,16 +2669,16 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.926900989782526</v>
+        <v>0.7975984702308335</v>
       </c>
       <c r="C135">
-        <v>0.8290336585579022</v>
+        <v>0.9445526187721051</v>
       </c>
       <c r="D135">
-        <v>1.027972887409818</v>
+        <v>0.573880393644518</v>
       </c>
       <c r="E135">
-        <v>0.9344287975629817</v>
+        <v>0.9360636766470468</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2686,16 +2686,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.9586813982971456</v>
+        <v>0.8262594375560804</v>
       </c>
       <c r="C136">
-        <v>0.8203984438574924</v>
+        <v>0.9533539659080791</v>
       </c>
       <c r="D136">
-        <v>1.143089251459376</v>
+        <v>0.6291537984376342</v>
       </c>
       <c r="E136">
-        <v>0.9395457512734789</v>
+        <v>0.9404556039212242</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2703,16 +2703,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.9268491986320223</v>
+        <v>0.808701019980575</v>
       </c>
       <c r="C137">
-        <v>0.8165376550744119</v>
+        <v>0.9314217871106876</v>
       </c>
       <c r="D137">
-        <v>1.028587943957868</v>
+        <v>0.6000917869630663</v>
       </c>
       <c r="E137">
-        <v>0.948002733056318</v>
+        <v>0.9462369375630333</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2720,16 +2720,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.9495797358462006</v>
+        <v>0.8259524009730651</v>
       </c>
       <c r="C138">
-        <v>0.8145278865239701</v>
+        <v>0.9402580051196434</v>
       </c>
       <c r="D138">
-        <v>1.106182777263017</v>
+        <v>0.6303091265411842</v>
       </c>
       <c r="E138">
-        <v>0.9503016086232493</v>
+        <v>0.9507458202501401</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2737,16 +2737,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.930707751489811</v>
+        <v>0.8249027000945923</v>
       </c>
       <c r="C139">
-        <v>0.819663848274184</v>
+        <v>0.9333166300394774</v>
       </c>
       <c r="D139">
-        <v>1.039563722077331</v>
+        <v>0.6309388324615059</v>
       </c>
       <c r="E139">
-        <v>0.9461349747091933</v>
+        <v>0.9532172947757461</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2754,16 +2754,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.9423645666913373</v>
+        <v>0.8135993251278262</v>
       </c>
       <c r="C140">
-        <v>0.816451205113732</v>
+        <v>0.9062254034719823</v>
       </c>
       <c r="D140">
-        <v>1.084724703675537</v>
+        <v>0.6173372957771148</v>
       </c>
       <c r="E140">
-        <v>0.9449461913472934</v>
+        <v>0.9626601440673278</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2771,16 +2771,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.9278978975146956</v>
+        <v>0.8180382548438823</v>
       </c>
       <c r="C141">
-        <v>0.8394517896365454</v>
+        <v>0.9224612844224245</v>
       </c>
       <c r="D141">
-        <v>1.009289351059777</v>
+        <v>0.6133820769324926</v>
       </c>
       <c r="E141">
-        <v>0.9429509917803141</v>
+        <v>0.9674791424703187</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2788,16 +2788,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.9422625897417967</v>
+        <v>0.8428518043870925</v>
       </c>
       <c r="C142">
-        <v>0.8787441961356106</v>
+        <v>0.949207551775511</v>
       </c>
       <c r="D142">
-        <v>1.01077248284651</v>
+        <v>0.6471720002777555</v>
       </c>
       <c r="E142">
-        <v>0.9418895242514804</v>
+        <v>0.9747040229474843</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2805,16 +2805,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.9189018530524005</v>
+        <v>0.8590412036759826</v>
       </c>
       <c r="C143">
-        <v>0.8886296492795694</v>
+        <v>0.9236490369803123</v>
       </c>
       <c r="D143">
-        <v>0.9246278398770834</v>
+        <v>0.6997642474138672</v>
       </c>
       <c r="E143">
-        <v>0.9443209330272323</v>
+        <v>0.9808063164817155</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2822,16 +2822,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.9476327455287422</v>
+        <v>0.8557843409641587</v>
       </c>
       <c r="C144">
-        <v>0.923091686954378</v>
+        <v>0.92476720676645</v>
       </c>
       <c r="D144">
-        <v>0.9758601027138797</v>
+        <v>0.6811027664383793</v>
       </c>
       <c r="E144">
-        <v>0.9446866448548761</v>
+        <v>0.9950569596342647</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2839,16 +2839,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.9614912781229027</v>
+        <v>0.8664462873560631</v>
       </c>
       <c r="C145">
-        <v>0.9481224177261895</v>
+        <v>0.9201890292785433</v>
       </c>
       <c r="D145">
-        <v>0.9907779769823474</v>
+        <v>0.7093978442733523</v>
       </c>
       <c r="E145">
-        <v>0.9462268933001963</v>
+        <v>0.9964557552142808</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2856,16 +2856,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.9560833983172757</v>
+        <v>0.8582603132149039</v>
       </c>
       <c r="C146">
-        <v>0.9353949045211749</v>
+        <v>0.9179751837162555</v>
       </c>
       <c r="D146">
-        <v>0.9899142969014776</v>
+        <v>0.692188874643839</v>
       </c>
       <c r="E146">
-        <v>0.9438320804539713</v>
+        <v>0.9949506427039131</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2873,16 +2873,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.9762866661344105</v>
+        <v>0.8340858326530064</v>
       </c>
       <c r="C147">
-        <v>0.9259952833619877</v>
+        <v>0.9308144149119026</v>
       </c>
       <c r="D147">
-        <v>1.068071124893817</v>
+        <v>0.6268603367595252</v>
       </c>
       <c r="E147">
-        <v>0.9408559264883475</v>
+        <v>0.994485239863124</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2890,16 +2890,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.9713210798293432</v>
+        <v>0.8070784792513153</v>
       </c>
       <c r="C148">
-        <v>0.907412138012862</v>
+        <v>0.945419836589265</v>
       </c>
       <c r="D148">
-        <v>1.078375396038593</v>
+        <v>0.5590503630353938</v>
       </c>
       <c r="E148">
-        <v>0.9365131656320309</v>
+        <v>0.9946531373707358</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2907,16 +2907,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.9538935056713725</v>
+        <v>0.8193080207779031</v>
       </c>
       <c r="C149">
-        <v>0.8781325047925503</v>
+        <v>0.9116662925045355</v>
       </c>
       <c r="D149">
-        <v>1.060590632075931</v>
+        <v>0.6043447556618589</v>
       </c>
       <c r="E149">
-        <v>0.9319483334699991</v>
+        <v>0.9982078112003657</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2924,16 +2924,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.9491887761526047</v>
+        <v>0.8191862870075991</v>
       </c>
       <c r="C150">
-        <v>0.8857393881830994</v>
+        <v>0.8814486156772117</v>
       </c>
       <c r="D150">
-        <v>1.044295978784356</v>
+        <v>0.6212015339235186</v>
       </c>
       <c r="E150">
-        <v>0.9245453507291406</v>
+        <v>1.003964835434596</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2941,16 +2941,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.9393881668435057</v>
+        <v>0.8318381081728142</v>
       </c>
       <c r="C151">
-        <v>0.8799829367817514</v>
+        <v>0.9068097881813201</v>
       </c>
       <c r="D151">
-        <v>1.021971271402471</v>
+        <v>0.6325389667813992</v>
       </c>
       <c r="E151">
-        <v>0.9217694642969979</v>
+        <v>1.003489778218669</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2958,16 +2958,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.93407808675849</v>
+        <v>0.8472987881850507</v>
       </c>
       <c r="C152">
-        <v>0.859173258376923</v>
+        <v>0.9044381784044038</v>
       </c>
       <c r="D152">
-        <v>1.031868193514873</v>
+        <v>0.6716045410147931</v>
       </c>
       <c r="E152">
-        <v>0.9192731471819503</v>
+        <v>1.001422270223395</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2975,16 +2975,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.8760416012349005</v>
+        <v>0.852689430781341</v>
       </c>
       <c r="C153">
-        <v>0.8081997548886897</v>
+        <v>0.8898171737523489</v>
       </c>
       <c r="D153">
-        <v>0.906974078311769</v>
+        <v>0.6992031761146659</v>
       </c>
       <c r="E153">
-        <v>0.9171927256649098</v>
+        <v>0.9964797180932652</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2992,16 +2992,16 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.8560050418396244</v>
+        <v>0.8487317355254534</v>
       </c>
       <c r="C154">
-        <v>0.8044372134237228</v>
+        <v>0.8956700592417306</v>
       </c>
       <c r="D154">
-        <v>0.8497569802260136</v>
+        <v>0.6819986820211675</v>
       </c>
       <c r="E154">
-        <v>0.9175760604975086</v>
+        <v>1.000874748495425</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3009,16 +3009,16 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.8573998730683353</v>
+        <v>0.8658495667048344</v>
       </c>
       <c r="C155">
-        <v>0.7937176284955538</v>
+        <v>0.9154683123678213</v>
       </c>
       <c r="D155">
-        <v>0.8622443109819058</v>
+        <v>0.7050517968989081</v>
       </c>
       <c r="E155">
-        <v>0.9209878077090278</v>
+        <v>1.005687359870285</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3026,16 +3026,16 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.8572873078276325</v>
+        <v>0.839300483551276</v>
       </c>
       <c r="C156">
-        <v>0.8017686005441713</v>
+        <v>0.9274963715158079</v>
       </c>
       <c r="D156">
-        <v>0.8521955203061149</v>
+        <v>0.6307424648980335</v>
       </c>
       <c r="E156">
-        <v>0.9221273241235179</v>
+        <v>1.010620561132341</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3043,16 +3043,16 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.8564650408421226</v>
+        <v>0.8343424744738464</v>
       </c>
       <c r="C157">
-        <v>0.8274440348615689</v>
+        <v>0.94279839375235</v>
       </c>
       <c r="D157">
-        <v>0.8150383679720875</v>
+        <v>0.6081564875421314</v>
       </c>
       <c r="E157">
-        <v>0.9315630172556929</v>
+        <v>1.012975359570191</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3060,16 +3060,16 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.869549495781224</v>
+        <v>0.8106092804382989</v>
       </c>
       <c r="C158">
-        <v>0.8621713692780029</v>
+        <v>0.9419372601973542</v>
       </c>
       <c r="D158">
-        <v>0.8108013233601131</v>
+        <v>0.5582940438187473</v>
       </c>
       <c r="E158">
-        <v>0.9405348171275226</v>
+        <v>1.012860753736148</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3077,16 +3077,16 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.8638625233663096</v>
+        <v>0.801956466398776</v>
       </c>
       <c r="C159">
-        <v>0.8952004266760086</v>
+        <v>0.9513578562395821</v>
       </c>
       <c r="D159">
-        <v>0.7636294780655969</v>
+        <v>0.5344889207659116</v>
       </c>
       <c r="E159">
-        <v>0.9430417829712086</v>
+        <v>1.014307798404941</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3094,16 +3094,16 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.8697661763809269</v>
+        <v>0.8147483760863962</v>
       </c>
       <c r="C160">
-        <v>0.8947631706573298</v>
+        <v>0.9908346432747922</v>
       </c>
       <c r="D160">
-        <v>0.7786552911684101</v>
+        <v>0.5347087433969098</v>
       </c>
       <c r="E160">
-        <v>0.9443961443314515</v>
+        <v>1.020826750804122</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3111,16 +3111,16 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.8739291120483297</v>
+        <v>0.8346415524274498</v>
       </c>
       <c r="C161">
-        <v>0.925059209021829</v>
+        <v>1.026855343139694</v>
       </c>
       <c r="D161">
-        <v>0.7640285462361266</v>
+        <v>0.5564674613279716</v>
       </c>
       <c r="E161">
-        <v>0.944385920545298</v>
+        <v>1.017538767641671</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3128,16 +3128,16 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.8761492636815739</v>
+        <v>0.8514090408602019</v>
       </c>
       <c r="C162">
-        <v>0.9040967442716388</v>
+        <v>1.021257932490891</v>
       </c>
       <c r="D162">
-        <v>0.7869628173056854</v>
+        <v>0.5937756227614424</v>
       </c>
       <c r="E162">
-        <v>0.945290258709515</v>
+        <v>1.017787155636332</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3145,16 +3145,16 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.8688225245930538</v>
+        <v>0.884159089932445</v>
       </c>
       <c r="C163">
-        <v>0.8774836941873383</v>
+        <v>1.031700235733353</v>
       </c>
       <c r="D163">
-        <v>0.797710676321331</v>
+        <v>0.6578567109129323</v>
       </c>
       <c r="E163">
-        <v>0.9369334742661675</v>
+        <v>1.018371905193046</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3162,16 +3162,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.8608061419920574</v>
+        <v>0.8850348816170821</v>
       </c>
       <c r="C164">
-        <v>0.8608281417792053</v>
+        <v>1.048362644901975</v>
       </c>
       <c r="D164">
-        <v>0.7953929222003503</v>
+        <v>0.6497004082330983</v>
       </c>
       <c r="E164">
-        <v>0.9315751452420989</v>
+        <v>1.017786030633138</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3179,16 +3179,16 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.8488479098481736</v>
+        <v>0.9018022680181922</v>
       </c>
       <c r="C165">
-        <v>0.8462074257617813</v>
+        <v>1.046777643248218</v>
       </c>
       <c r="D165">
-        <v>0.7757887887119521</v>
+        <v>0.6918725187534908</v>
       </c>
       <c r="E165">
-        <v>0.9316854637243975</v>
+        <v>1.012636204134368</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3196,16 +3196,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.8460539062879129</v>
+        <v>0.908781304891489</v>
       </c>
       <c r="C166">
-        <v>0.8323079067654037</v>
+        <v>1.020432989291676</v>
       </c>
       <c r="D166">
-        <v>0.7742570976499682</v>
+        <v>0.7337902975943004</v>
       </c>
       <c r="E166">
-        <v>0.939777167426013</v>
+        <v>1.002355314879535</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3213,16 +3213,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.861362571067517</v>
+        <v>0.8939513815668707</v>
       </c>
       <c r="C167">
-        <v>0.8155093618864744</v>
+        <v>1.013356738616036</v>
       </c>
       <c r="D167">
-        <v>0.8322128922339597</v>
+        <v>0.7069216196682834</v>
       </c>
       <c r="E167">
-        <v>0.9416610319083553</v>
+        <v>0.99725925644688</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3230,16 +3230,16 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.8499755009802571</v>
+        <v>0.8944146602560406</v>
       </c>
       <c r="C168">
-        <v>0.7895834916661661</v>
+        <v>1.0083663421792</v>
       </c>
       <c r="D168">
-        <v>0.8231794985243345</v>
+        <v>0.711781938524732</v>
       </c>
       <c r="E168">
-        <v>0.9447711414366775</v>
+        <v>0.9968996018051866</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3247,16 +3247,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.8540675785020913</v>
+        <v>0.889877227828248</v>
       </c>
       <c r="C169">
-        <v>0.8012596351447605</v>
+        <v>0.9787437108969662</v>
       </c>
       <c r="D169">
-        <v>0.8241739855893278</v>
+        <v>0.7276293594462749</v>
       </c>
       <c r="E169">
-        <v>0.9433753849817585</v>
+        <v>0.9894892513786626</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3264,16 +3264,16 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.8388163937891847</v>
+        <v>0.9057436276007379</v>
       </c>
       <c r="C170">
-        <v>0.8136084470009005</v>
+        <v>0.9863796906403546</v>
       </c>
       <c r="D170">
-        <v>0.7661179524649057</v>
+        <v>0.7620985674010865</v>
       </c>
       <c r="E170">
-        <v>0.9468684391832217</v>
+        <v>0.9884634034694341</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3281,16 +3281,16 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.854030534011717</v>
+        <v>0.9035085411474552</v>
       </c>
       <c r="C171">
-        <v>0.8366878931055042</v>
+        <v>0.9690898568633847</v>
       </c>
       <c r="D171">
-        <v>0.783170434758765</v>
+        <v>0.7692654127357272</v>
       </c>
       <c r="E171">
-        <v>0.950605725486569</v>
+        <v>0.989364978018167</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3298,16 +3298,16 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.8620140950189166</v>
+        <v>0.9008837704678657</v>
       </c>
       <c r="C172">
-        <v>0.8575502673748285</v>
+        <v>0.9858519083608596</v>
       </c>
       <c r="D172">
-        <v>0.7826329219850455</v>
+        <v>0.7509651415933792</v>
       </c>
       <c r="E172">
-        <v>0.9543889489608854</v>
+        <v>0.9875857835576423</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3315,16 +3315,16 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.8675668980398421</v>
+        <v>0.9219730433772534</v>
       </c>
       <c r="C173">
-        <v>0.8755420120982562</v>
+        <v>0.9957144112771829</v>
       </c>
       <c r="D173">
-        <v>0.7676713943416031</v>
+        <v>0.7941363267288611</v>
       </c>
       <c r="E173">
-        <v>0.9715307958725325</v>
+        <v>0.9911167469339529</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3332,16 +3332,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.8624452699309593</v>
+        <v>0.9581856636631304</v>
       </c>
       <c r="C174">
-        <v>0.8917213532518403</v>
+        <v>0.9551596254379467</v>
       </c>
       <c r="D174">
-        <v>0.7337818236352109</v>
+        <v>0.9270330335288719</v>
       </c>
       <c r="E174">
-        <v>0.980389198609007</v>
+        <v>0.9935228035034698</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3349,16 +3349,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.8908893734519977</v>
+        <v>0.9962138771799898</v>
       </c>
       <c r="C175">
-        <v>0.8924871417683479</v>
+        <v>0.9679393223500725</v>
       </c>
       <c r="D175">
-        <v>0.8076224303832076</v>
+        <v>1.028201438408236</v>
       </c>
       <c r="E175">
-        <v>0.9809819036760119</v>
+        <v>0.9934166186572891</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3366,16 +3366,16 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.8887088943594093</v>
+        <v>1.001310978931971</v>
       </c>
       <c r="C176">
-        <v>0.8816063208505572</v>
+        <v>0.9552626210985162</v>
       </c>
       <c r="D176">
-        <v>0.8122374521291501</v>
+        <v>1.063973385103432</v>
       </c>
       <c r="E176">
-        <v>0.980213938725328</v>
+        <v>0.9877644356015097</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3383,16 +3383,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.8922487394827227</v>
+        <v>0.9944836099934798</v>
       </c>
       <c r="C177">
-        <v>0.8876469210999024</v>
+        <v>0.9555251685372876</v>
       </c>
       <c r="D177">
-        <v>0.8133513450204682</v>
+        <v>1.04560874004099</v>
       </c>
       <c r="E177">
-        <v>0.983873784899813</v>
+        <v>0.9844225517050323</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3400,16 +3400,16 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.880898838814153</v>
+        <v>1.003244522317307</v>
       </c>
       <c r="C178">
-        <v>0.8932731364394768</v>
+        <v>0.9500379110469194</v>
       </c>
       <c r="D178">
-        <v>0.770956061538504</v>
+        <v>1.080867264501227</v>
       </c>
       <c r="E178">
-        <v>0.9925770093176011</v>
+        <v>0.9833476667001665</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3417,16 +3417,16 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.8858105918667933</v>
+        <v>1.016363466170233</v>
       </c>
       <c r="C179">
-        <v>0.8926547562612005</v>
+        <v>0.9365943789763111</v>
       </c>
       <c r="D179">
-        <v>0.7809185607869895</v>
+        <v>1.12934430627389</v>
       </c>
       <c r="E179">
-        <v>0.9970876527769313</v>
+        <v>0.9925884637242163</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3434,16 +3434,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.9088354917243938</v>
+        <v>1.029097065588049</v>
       </c>
       <c r="C180">
-        <v>0.9183685444231902</v>
+        <v>0.9583338537082489</v>
       </c>
       <c r="D180">
-        <v>0.82482202409451</v>
+        <v>1.134056793040611</v>
       </c>
       <c r="E180">
-        <v>0.9910112560446894</v>
+        <v>1.002807065032783</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3451,16 +3451,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.9113562161410783</v>
+        <v>1.03746603004874</v>
       </c>
       <c r="C181">
-        <v>0.9178783602820694</v>
+        <v>0.956080309672072</v>
       </c>
       <c r="D181">
-        <v>0.8356685924672582</v>
+        <v>1.15604044117555</v>
       </c>
       <c r="E181">
-        <v>0.9868366474791183</v>
+        <v>1.010309077702636</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3468,16 +3468,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.9358457155100175</v>
+        <v>1.027997562906901</v>
       </c>
       <c r="C182">
-        <v>0.9467583503451741</v>
+        <v>0.9449382595898739</v>
       </c>
       <c r="D182">
-        <v>0.8760194612589386</v>
+        <v>1.142547124372152</v>
       </c>
       <c r="E182">
-        <v>0.988234179660644</v>
+        <v>1.006233333558592</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3485,16 +3485,16 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.9424775593693633</v>
+        <v>0.9911863595743395</v>
       </c>
       <c r="C183">
-        <v>0.956636387339694</v>
+        <v>0.9186287850235483</v>
       </c>
       <c r="D183">
-        <v>0.8818136833318401</v>
+        <v>1.056046526499348</v>
       </c>
       <c r="E183">
-        <v>0.9924058722579642</v>
+        <v>1.003789961270568</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3502,16 +3502,16 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.9544303245722479</v>
+        <v>0.974935810443849</v>
       </c>
       <c r="C184">
-        <v>0.9700349768240762</v>
+        <v>0.8959915461733252</v>
       </c>
       <c r="D184">
-        <v>0.901100882258678</v>
+        <v>1.026956224866538</v>
       </c>
       <c r="E184">
-        <v>0.994653647305891</v>
+        <v>1.007099138842164</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3519,16 +3519,16 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.9633111990488025</v>
+        <v>0.9757437531081815</v>
       </c>
       <c r="C185">
-        <v>0.9480000318969458</v>
+        <v>0.8846956215543682</v>
       </c>
       <c r="D185">
-        <v>0.9466181368245963</v>
+        <v>1.032379648893533</v>
       </c>
       <c r="E185">
-        <v>0.996131456256114</v>
+        <v>1.017124290090704</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3536,16 +3536,16 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.9526048141902881</v>
+        <v>0.9871113904127764</v>
       </c>
       <c r="C186">
-        <v>0.9576370388813072</v>
+        <v>0.9029910564360178</v>
       </c>
       <c r="D186">
-        <v>0.9039135139818085</v>
+        <v>1.035554443456047</v>
       </c>
       <c r="E186">
-        <v>0.9986435503005225</v>
+        <v>1.028589542300763</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3553,16 +3553,16 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.9452552341889199</v>
+        <v>0.9747524966647796</v>
       </c>
       <c r="C187">
-        <v>0.9926575804586217</v>
+        <v>0.9056083355746641</v>
       </c>
       <c r="D187">
-        <v>0.8507132326674797</v>
+        <v>0.9892809973550766</v>
       </c>
       <c r="E187">
-        <v>1.000148806337197</v>
+        <v>1.033767775897482</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3570,16 +3570,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.9676594801753039</v>
+        <v>0.9884485204501611</v>
       </c>
       <c r="C188">
-        <v>1.013960749398336</v>
+        <v>0.8975827586659861</v>
       </c>
       <c r="D188">
-        <v>0.8882196849279721</v>
+        <v>1.034179569178391</v>
       </c>
       <c r="E188">
-        <v>1.006065206422434</v>
+        <v>1.040379321148394</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3587,16 +3587,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.9657238210384944</v>
+        <v>0.9980576848297268</v>
       </c>
       <c r="C189">
-        <v>1.010897245841782</v>
+        <v>0.8616523073616885</v>
       </c>
       <c r="D189">
-        <v>0.883046574362098</v>
+        <v>1.107735032710781</v>
       </c>
       <c r="E189">
-        <v>1.008946664166223</v>
+        <v>1.041595231190912</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3604,16 +3604,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.9702252936864532</v>
+        <v>1.020316480216285</v>
       </c>
       <c r="C190">
-        <v>1.026819294897403</v>
+        <v>0.8447208718168167</v>
       </c>
       <c r="D190">
-        <v>0.8785019327453154</v>
+        <v>1.209914830941046</v>
       </c>
       <c r="E190">
-        <v>1.012467369084235</v>
+        <v>1.039289833610213</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3621,16 +3621,16 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>1.003937979711098</v>
+        <v>0.99646313129085</v>
       </c>
       <c r="C191">
-        <v>1.037490940843219</v>
+        <v>0.8565037662703513</v>
       </c>
       <c r="D191">
-        <v>0.9595144763379878</v>
+        <v>1.11561792319465</v>
       </c>
       <c r="E191">
-        <v>1.016447163006049</v>
+        <v>1.035473392996912</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3638,16 +3638,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.9872621005746055</v>
+        <v>1.041042541260651</v>
       </c>
       <c r="C192">
-        <v>1.05503730560924</v>
+        <v>0.8983635253445607</v>
       </c>
       <c r="D192">
-        <v>0.900480079464375</v>
+        <v>1.218186662386798</v>
       </c>
       <c r="E192">
-        <v>1.012874109944242</v>
+        <v>1.030954455414874</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3655,16 +3655,16 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.9676828837762093</v>
+        <v>1.060782505117087</v>
       </c>
       <c r="C193">
-        <v>1.03213427208074</v>
+        <v>0.8771901257024169</v>
       </c>
       <c r="D193">
-        <v>0.8638421540835844</v>
+        <v>1.321255882861371</v>
       </c>
       <c r="E193">
-        <v>1.016315586289546</v>
+        <v>1.029907871281537</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3672,16 +3672,16 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.9632084909480897</v>
+        <v>1.056975602501631</v>
       </c>
       <c r="C194">
-        <v>1.045637682212701</v>
+        <v>0.8825388617066567</v>
       </c>
       <c r="D194">
-        <v>0.8445785814406253</v>
+        <v>1.303815831832294</v>
       </c>
       <c r="E194">
-        <v>1.011904711014828</v>
+        <v>1.026230221810516</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3689,16 +3689,16 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.94520379458916</v>
+        <v>1.018972029732153</v>
       </c>
       <c r="C195">
-        <v>1.054813335811671</v>
+        <v>0.8669373139175595</v>
       </c>
       <c r="D195">
-        <v>0.7858259499214253</v>
+        <v>1.196854196160357</v>
       </c>
       <c r="E195">
-        <v>1.018765879991111</v>
+        <v>1.019665784176225</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -3706,16 +3706,16 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.9571875919082528</v>
+        <v>1.034727579186614</v>
       </c>
       <c r="C196">
-        <v>1.056948025714671</v>
+        <v>0.8857559780918137</v>
       </c>
       <c r="D196">
-        <v>0.815318617090473</v>
+        <v>1.230333849095872</v>
       </c>
       <c r="E196">
-        <v>1.017677539334129</v>
+        <v>1.016578708681411</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -3723,16 +3723,16 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.956543411160515</v>
+        <v>0.9976411107525006</v>
       </c>
       <c r="C197">
-        <v>1.087449865554272</v>
+        <v>0.8974719956821858</v>
       </c>
       <c r="D197">
-        <v>0.78839120891583</v>
+        <v>1.091271946272406</v>
       </c>
       <c r="E197">
-        <v>1.020852594299568</v>
+        <v>1.013839283587534</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -3740,16 +3740,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.9602614738412211</v>
+        <v>0.9928168639380924</v>
       </c>
       <c r="C198">
-        <v>1.142711600780951</v>
+        <v>0.9010211972628843</v>
       </c>
       <c r="D198">
-        <v>0.7536336202349342</v>
+        <v>1.072848090733149</v>
       </c>
       <c r="E198">
-        <v>1.02818583044834</v>
+        <v>1.012358177922206</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -3757,16 +3757,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.9388793188767801</v>
+        <v>0.980258028264721</v>
       </c>
       <c r="C199">
-        <v>1.158388566947073</v>
+        <v>0.8897418602759142</v>
       </c>
       <c r="D199">
-        <v>0.6917287954213623</v>
+        <v>1.044154278131118</v>
       </c>
       <c r="E199">
-        <v>1.032854630432308</v>
+        <v>1.013893940928515</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -3774,16 +3774,16 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.9332371942420777</v>
+        <v>0.968690792934349</v>
       </c>
       <c r="C200">
-        <v>1.148840988798115</v>
+        <v>0.8804079242981435</v>
       </c>
       <c r="D200">
-        <v>0.6802190875982722</v>
+        <v>1.018705911254633</v>
       </c>
       <c r="E200">
-        <v>1.040081523263392</v>
+        <v>1.013497651588603</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -3791,16 +3791,16 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.9287175692740995</v>
+        <v>1.000862231295502</v>
       </c>
       <c r="C201">
-        <v>1.106794814343667</v>
+        <v>0.8762521401766309</v>
       </c>
       <c r="D201">
-        <v>0.6939949193460513</v>
+        <v>1.129058539121685</v>
       </c>
       <c r="E201">
-        <v>1.042863764869294</v>
+        <v>1.013391719817516</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -3808,16 +3808,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.9189989836289721</v>
+        <v>0.978057515063951</v>
       </c>
       <c r="C202">
-        <v>1.073054965208719</v>
+        <v>0.8897830208086627</v>
       </c>
       <c r="D202">
-        <v>0.6932958645674533</v>
+        <v>1.036059098384908</v>
       </c>
       <c r="E202">
-        <v>1.043288727835348</v>
+        <v>1.014903009096164</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -3825,16 +3825,16 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.9020262578479887</v>
+        <v>0.9724688417770854</v>
       </c>
       <c r="C203">
-        <v>1.035011761203589</v>
+        <v>0.8699744963115734</v>
       </c>
       <c r="D203">
-        <v>0.6809503593757535</v>
+        <v>1.037100375972555</v>
       </c>
       <c r="E203">
-        <v>1.041350192475306</v>
+        <v>1.019294716063608</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -3842,16 +3842,16 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.8968056267917672</v>
+        <v>0.9735293326945272</v>
       </c>
       <c r="C204">
-        <v>1.023293059214184</v>
+        <v>0.8942744741839083</v>
       </c>
       <c r="D204">
-        <v>0.6777752714292954</v>
+        <v>1.009355598943674</v>
       </c>
       <c r="E204">
-        <v>1.039942256360995</v>
+        <v>1.022191095379585</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -3859,16 +3859,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.893358125669318</v>
+        <v>0.9804811280559173</v>
       </c>
       <c r="C205">
-        <v>1.002660914251227</v>
+        <v>0.8912935041747483</v>
       </c>
       <c r="D205">
-        <v>0.6850806182534056</v>
+        <v>1.033947603563959</v>
       </c>
       <c r="E205">
-        <v>1.037960936629771</v>
+        <v>1.022818193539074</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -3876,16 +3876,16 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.8578835401562114</v>
+        <v>0.9996886304611844</v>
       </c>
       <c r="C206">
-        <v>1.000900047361756</v>
+        <v>0.88302181722011</v>
       </c>
       <c r="D206">
-        <v>0.6055995722350962</v>
+        <v>1.105785004729873</v>
       </c>
       <c r="E206">
-        <v>1.041618623768513</v>
+        <v>1.023180202291769</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -3893,16 +3893,16 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.8918726430614157</v>
+        <v>0.9835050303080873</v>
       </c>
       <c r="C207">
-        <v>1.055990251619693</v>
+        <v>0.8505915912398706</v>
       </c>
       <c r="D207">
-        <v>0.6424238688379553</v>
+        <v>1.094698214757598</v>
       </c>
       <c r="E207">
-        <v>1.045747778678307</v>
+        <v>1.021678517510895</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -3910,16 +3910,16 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.9044870009661549</v>
+        <v>0.9421469858541132</v>
       </c>
       <c r="C208">
-        <v>1.076846013340079</v>
+        <v>0.8720379047985328</v>
       </c>
       <c r="D208">
-        <v>0.6572391253360375</v>
+        <v>0.9437807000508035</v>
       </c>
       <c r="E208">
-        <v>1.045514295725574</v>
+        <v>1.016130610348255</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -3927,16 +3927,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.897045670790646</v>
+        <v>0.9277273050658852</v>
       </c>
       <c r="C209">
-        <v>1.055031018317225</v>
+        <v>0.8789518586238246</v>
       </c>
       <c r="D209">
-        <v>0.6520831702141223</v>
+        <v>0.9008784522650637</v>
       </c>
       <c r="E209">
-        <v>1.049241462284922</v>
+        <v>1.008392783306019</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -3944,16 +3944,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.9219408797703135</v>
+        <v>0.915558100577216</v>
       </c>
       <c r="C210">
-        <v>1.060079293579179</v>
+        <v>0.8673264529563652</v>
       </c>
       <c r="D210">
-        <v>0.7038042132247825</v>
+        <v>0.8817453639814833</v>
       </c>
       <c r="E210">
-        <v>1.050313634940917</v>
+        <v>1.003533676811003</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -3961,16 +3961,16 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.9350181473116677</v>
+        <v>0.8973631328728146</v>
       </c>
       <c r="C211">
-        <v>1.089936446331066</v>
+        <v>0.8540967764032409</v>
       </c>
       <c r="D211">
-        <v>0.7172747125836453</v>
+        <v>0.8422057250835636</v>
       </c>
       <c r="E211">
-        <v>1.045618899763151</v>
+        <v>1.004568132733473</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -3978,16 +3978,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.9576377339047693</v>
+        <v>0.8933213302958385</v>
       </c>
       <c r="C212">
-        <v>1.116818588427411</v>
+        <v>0.8846331124347591</v>
       </c>
       <c r="D212">
-        <v>0.7571674270382863</v>
+        <v>0.7983777307688901</v>
       </c>
       <c r="E212">
-        <v>1.038554267274393</v>
+        <v>1.009372587599847</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -3995,16 +3995,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.9481681670602069</v>
+        <v>0.8965367264536693</v>
       </c>
       <c r="C213">
-        <v>1.107932298384009</v>
+        <v>0.8940910472652948</v>
       </c>
       <c r="D213">
-        <v>0.7434065900255171</v>
+        <v>0.8038866974009382</v>
       </c>
       <c r="E213">
-        <v>1.034943120734591</v>
+        <v>1.002599922859195</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4012,16 +4012,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.9551306055083078</v>
+        <v>0.8955262915523059</v>
       </c>
       <c r="C214">
-        <v>1.122720882580922</v>
+        <v>0.885335363360495</v>
       </c>
       <c r="D214">
-        <v>0.7466969975358577</v>
+        <v>0.8160135565383175</v>
       </c>
       <c r="E214">
-        <v>1.039374550841936</v>
+        <v>0.9940994570074007</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4029,16 +4029,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.9586624059739545</v>
+        <v>0.8957845313813002</v>
       </c>
       <c r="C215">
-        <v>1.118452754101486</v>
+        <v>0.8740463868540518</v>
       </c>
       <c r="D215">
-        <v>0.7552967872329693</v>
+        <v>0.8282038838306148</v>
       </c>
       <c r="E215">
-        <v>1.042945968781406</v>
+        <v>0.9929764105507342</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4046,16 +4046,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.9769392130157794</v>
+        <v>0.9046792700220219</v>
       </c>
       <c r="C216">
-        <v>1.102517174296084</v>
+        <v>0.8715915210611462</v>
       </c>
       <c r="D216">
-        <v>0.8132635955555498</v>
+        <v>0.8555850237873588</v>
       </c>
       <c r="E216">
-        <v>1.039886476286913</v>
+        <v>0.9929051104839836</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4063,16 +4063,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.9763878068399785</v>
+        <v>0.9315524098760443</v>
       </c>
       <c r="C217">
-        <v>1.085052228651399</v>
+        <v>0.8943464057789441</v>
       </c>
       <c r="D217">
-        <v>0.8287954091929787</v>
+        <v>0.9050413969897475</v>
       </c>
       <c r="E217">
-        <v>1.035068427965441</v>
+        <v>0.9987290228354203</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4080,16 +4080,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>1.01079451534689</v>
+        <v>0.9245115685948996</v>
       </c>
       <c r="C218">
-        <v>1.071179187875805</v>
+        <v>0.8964737875881773</v>
       </c>
       <c r="D218">
-        <v>0.9282555517179881</v>
+        <v>0.8822347755297429</v>
       </c>
       <c r="E218">
-        <v>1.038625422804152</v>
+        <v>0.9991145455664093</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4097,16 +4097,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.976618690628988</v>
+        <v>0.9130028795993446</v>
       </c>
       <c r="C219">
-        <v>1.043437780324798</v>
+        <v>0.8605576386065034</v>
       </c>
       <c r="D219">
-        <v>0.858944145608982</v>
+        <v>0.8876931000207414</v>
       </c>
       <c r="E219">
-        <v>1.03930642814973</v>
+        <v>0.9962621567004807</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4114,16 +4114,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.9258163412375833</v>
+        <v>0.8873345306557641</v>
       </c>
       <c r="C220">
-        <v>1.023381951506142</v>
+        <v>0.8397826171791261</v>
       </c>
       <c r="D220">
-        <v>0.7456043243723285</v>
+        <v>0.8359216267019064</v>
       </c>
       <c r="E220">
-        <v>1.039988063354366</v>
+        <v>0.9952443141787595</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4131,16 +4131,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.9017209283876766</v>
+        <v>0.8827052466951193</v>
       </c>
       <c r="C221">
-        <v>1.03064589952146</v>
+        <v>0.8238192679526377</v>
       </c>
       <c r="D221">
-        <v>0.6813544331304556</v>
+        <v>0.838494696740185</v>
       </c>
       <c r="E221">
-        <v>1.044080255227157</v>
+        <v>0.9956687086212281</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4148,16 +4148,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.9222059804507855</v>
+        <v>0.8662531161149954</v>
       </c>
       <c r="C222">
-        <v>1.056844658900223</v>
+        <v>0.8292358865707922</v>
       </c>
       <c r="D222">
-        <v>0.7066735114193463</v>
+        <v>0.7861815367258712</v>
       </c>
       <c r="E222">
-        <v>1.050156036555213</v>
+        <v>0.9970880256086161</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4165,16 +4165,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.9320868756298243</v>
+        <v>0.8781546223833868</v>
       </c>
       <c r="C223">
-        <v>1.066497413173775</v>
+        <v>0.8409184153746778</v>
       </c>
       <c r="D223">
-        <v>0.7222690597691622</v>
+        <v>0.811062029416773</v>
       </c>
       <c r="E223">
-        <v>1.051260535164859</v>
+        <v>0.9928989280193445</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4182,16 +4182,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.9054197105602736</v>
+        <v>0.8848116927794329</v>
       </c>
       <c r="C224">
-        <v>1.037952268963226</v>
+        <v>0.8405241465005505</v>
       </c>
       <c r="D224">
-        <v>0.6806753004200068</v>
+        <v>0.8325691255838629</v>
       </c>
       <c r="E224">
-        <v>1.050588057409136</v>
+        <v>0.9898788918993294</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4199,16 +4199,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.8987072230134037</v>
+        <v>0.8828455598842357</v>
       </c>
       <c r="C225">
-        <v>1.03235711465425</v>
+        <v>0.8416793719772466</v>
       </c>
       <c r="D225">
-        <v>0.6685717862159195</v>
+        <v>0.8237103765472793</v>
       </c>
       <c r="E225">
-        <v>1.051663245409982</v>
+        <v>0.9925056573213291</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4216,16 +4216,16 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.8853524481103142</v>
+        <v>0.8843505001709904</v>
       </c>
       <c r="C226">
-        <v>1.057797396307297</v>
+        <v>0.846658951862307</v>
       </c>
       <c r="D226">
-        <v>0.6237801590760896</v>
+        <v>0.8212499117542429</v>
       </c>
       <c r="E226">
-        <v>1.051754858828594</v>
+        <v>0.9946938592877359</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4233,16 +4233,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.9084350904912857</v>
+        <v>0.8925506368342883</v>
       </c>
       <c r="C227">
-        <v>1.092051638070616</v>
+        <v>0.8682205202883234</v>
       </c>
       <c r="D227">
-        <v>0.6547516037084991</v>
+        <v>0.8239191162919294</v>
       </c>
       <c r="E227">
-        <v>1.048484366228992</v>
+        <v>0.993994467457028</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4250,16 +4250,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.901949800294736</v>
+        <v>0.8796693730593016</v>
       </c>
       <c r="C228">
-        <v>1.081751525784998</v>
+        <v>0.881740809235369</v>
       </c>
       <c r="D228">
-        <v>0.6448791786277206</v>
+        <v>0.7736588991760674</v>
       </c>
       <c r="E228">
-        <v>1.051819525992249</v>
+        <v>0.997856172178595</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4267,16 +4267,16 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.9059535804937843</v>
+        <v>0.8784176439486819</v>
       </c>
       <c r="C229">
-        <v>1.09938925329998</v>
+        <v>0.8721953582453282</v>
       </c>
       <c r="D229">
-        <v>0.6422301016310511</v>
+        <v>0.7828257736227664</v>
       </c>
       <c r="E229">
-        <v>1.053114742745089</v>
+        <v>0.9927142692284611</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4284,16 +4284,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.8957737759596297</v>
+        <v>0.8877631002368613</v>
       </c>
       <c r="C230">
-        <v>1.11718080595726</v>
+        <v>0.8745886891388868</v>
       </c>
       <c r="D230">
-        <v>0.6136801897489528</v>
+        <v>0.8103899750081697</v>
       </c>
       <c r="E230">
-        <v>1.048405916128716</v>
+        <v>0.9871731912636483</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -4301,16 +4301,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.9066720286093088</v>
+        <v>0.8994863274992738</v>
       </c>
       <c r="C231">
-        <v>1.121914822705893</v>
+        <v>0.8440403507584747</v>
       </c>
       <c r="D231">
-        <v>0.6356152512323917</v>
+        <v>0.8713105837683315</v>
       </c>
       <c r="E231">
-        <v>1.04519291658739</v>
+        <v>0.9895722319550181</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -4318,16 +4318,16 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.896042525823559</v>
+        <v>0.9017460334680095</v>
       </c>
       <c r="C232">
-        <v>1.077779646082393</v>
+        <v>0.8508837454377048</v>
       </c>
       <c r="D232">
-        <v>0.6415408154287343</v>
+        <v>0.8703731798304977</v>
       </c>
       <c r="E232">
-        <v>1.040474869764486</v>
+        <v>0.9900952902848329</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -4335,16 +4335,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.8842955951157024</v>
+        <v>0.8949221777299494</v>
       </c>
       <c r="C233">
-        <v>1.062247685122317</v>
+        <v>0.8695306258609072</v>
       </c>
       <c r="D233">
-        <v>0.6281971128005824</v>
+        <v>0.8341018717613022</v>
       </c>
       <c r="E233">
-        <v>1.036264584025639</v>
+        <v>0.9882158918169137</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -4352,16 +4352,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.8866106844471984</v>
+        <v>0.8552915718108152</v>
       </c>
       <c r="C234">
-        <v>1.066123573406726</v>
+        <v>0.8486424046594901</v>
       </c>
       <c r="D234">
-        <v>0.6302791510578816</v>
+        <v>0.7449958553885372</v>
       </c>
       <c r="E234">
-        <v>1.037190175130091</v>
+        <v>0.9896098104778377</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -4369,16 +4369,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.9078119604671847</v>
+        <v>0.8737678465486297</v>
       </c>
       <c r="C235">
-        <v>1.087822765256849</v>
+        <v>0.8351513222330152</v>
       </c>
       <c r="D235">
-        <v>0.6577350750657053</v>
+        <v>0.8009182763920142</v>
       </c>
       <c r="E235">
-        <v>1.045631253271045</v>
+        <v>0.9973206251392437</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -4386,16 +4386,16 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.9154279998525471</v>
+        <v>0.8888543935153264</v>
       </c>
       <c r="C236">
-        <v>1.067526419844458</v>
+        <v>0.8332226830538121</v>
       </c>
       <c r="D236">
-        <v>0.6845665000539695</v>
+        <v>0.8457709026001957</v>
       </c>
       <c r="E236">
-        <v>1.049731672587645</v>
+        <v>0.996501704932043</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -4403,16 +4403,16 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.9227155496511176</v>
+        <v>0.8757089711169171</v>
       </c>
       <c r="C237">
-        <v>1.062291339683033</v>
+        <v>0.8266984874796132</v>
       </c>
       <c r="D237">
-        <v>0.7071336222801955</v>
+        <v>0.817302702543049</v>
       </c>
       <c r="E237">
-        <v>1.045823484990842</v>
+        <v>0.993915168146743</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -4420,16 +4420,16 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.9298024423465903</v>
+        <v>0.8254604940665631</v>
       </c>
       <c r="C238">
-        <v>1.071752496124847</v>
+        <v>0.8066977756907209</v>
       </c>
       <c r="D238">
-        <v>0.7178038295454944</v>
+        <v>0.7046228378275512</v>
       </c>
       <c r="E238">
-        <v>1.044892888062511</v>
+        <v>0.9895125451355429</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -4437,16 +4437,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.9229378536159646</v>
+        <v>0.8239268443741657</v>
       </c>
       <c r="C239">
-        <v>1.04110128746731</v>
+        <v>0.826386777320656</v>
       </c>
       <c r="D239">
-        <v>0.7186592985234598</v>
+        <v>0.6845574829735208</v>
       </c>
       <c r="E239">
-        <v>1.050754704565966</v>
+        <v>0.9887185374229007</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -4454,16 +4454,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.9002923971322985</v>
+        <v>0.8279273032236005</v>
       </c>
       <c r="C240">
-        <v>1.023351635659723</v>
+        <v>0.8354754972476046</v>
       </c>
       <c r="D240">
-        <v>0.6760233580517918</v>
+        <v>0.6842812582325248</v>
       </c>
       <c r="E240">
-        <v>1.054785516397932</v>
+        <v>0.9926776684476712</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -4471,16 +4471,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.8994168665758652</v>
+        <v>0.8432758407588269</v>
       </c>
       <c r="C241">
-        <v>1.023378093193565</v>
+        <v>0.8451653044508903</v>
       </c>
       <c r="D241">
-        <v>0.6697878118158104</v>
+        <v>0.7112392397627266</v>
       </c>
       <c r="E241">
-        <v>1.061474892730995</v>
+        <v>0.9975888940723192</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -4488,16 +4488,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.8957091273934841</v>
+        <v>0.8474832206451113</v>
       </c>
       <c r="C242">
-        <v>1.047363748846242</v>
+        <v>0.8649297974662797</v>
       </c>
       <c r="D242">
-        <v>0.6409291034400179</v>
+        <v>0.7059702824228546</v>
       </c>
       <c r="E242">
-        <v>1.070516754078394</v>
+        <v>0.9968413529407888</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -4505,16 +4505,16 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.8930841129539604</v>
+        <v>0.8682738380760473</v>
       </c>
       <c r="C243">
-        <v>1.060570131277561</v>
+        <v>0.8745505015033389</v>
       </c>
       <c r="D243">
-        <v>0.6247304131227693</v>
+        <v>0.7546884797926312</v>
       </c>
       <c r="E243">
-        <v>1.075090565241042</v>
+        <v>0.9917849934625595</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -4522,16 +4522,16 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.8888879599384569</v>
+        <v>0.8824565076041044</v>
       </c>
       <c r="C244">
-        <v>1.10450648487457</v>
+        <v>0.8846227037596698</v>
       </c>
       <c r="D244">
-        <v>0.5895046910944783</v>
+        <v>0.7849927586891641</v>
       </c>
       <c r="E244">
-        <v>1.07866238803166</v>
+        <v>0.9895920519460349</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -4539,16 +4539,16 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.9151139865106196</v>
+        <v>0.8700203183845722</v>
       </c>
       <c r="C245">
-        <v>1.092724133385923</v>
+        <v>0.8695440009950245</v>
       </c>
       <c r="D245">
-        <v>0.6494100498062452</v>
+        <v>0.7659170668757369</v>
       </c>
       <c r="E245">
-        <v>1.079931077977534</v>
+        <v>0.9888146118753437</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -4556,16 +4556,16 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.9234273570396901</v>
+        <v>0.9040954512269336</v>
       </c>
       <c r="C246">
-        <v>1.070606754535688</v>
+        <v>0.8975580101233916</v>
       </c>
       <c r="D246">
-        <v>0.6802903832397627</v>
+        <v>0.8314836639459908</v>
       </c>
       <c r="E246">
-        <v>1.081144887803593</v>
+        <v>0.9902083959284723</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -4573,16 +4573,16 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.9151828140095001</v>
+        <v>0.9320505357004445</v>
       </c>
       <c r="C247">
-        <v>1.039207752842178</v>
+        <v>0.9026809332813901</v>
       </c>
       <c r="D247">
-        <v>0.6823454668849556</v>
+        <v>0.908510606403018</v>
       </c>
       <c r="E247">
-        <v>1.08097805972116</v>
+        <v>0.9873113056265007</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -4590,16 +4590,16 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.9474298510342225</v>
+        <v>0.9371013982654873</v>
       </c>
       <c r="C248">
-        <v>1.055604650085162</v>
+        <v>0.923253422756782</v>
       </c>
       <c r="D248">
-        <v>0.7451794829891307</v>
+        <v>0.9053739976893029</v>
       </c>
       <c r="E248">
-        <v>1.081132713391464</v>
+        <v>0.9844888773798284</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -4607,16 +4607,16 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.9375176890611781</v>
+        <v>0.9105041030081908</v>
       </c>
       <c r="C249">
-        <v>1.04539233461738</v>
+        <v>0.9496438736861836</v>
       </c>
       <c r="D249">
-        <v>0.7275128393553473</v>
+        <v>0.8088741796679941</v>
       </c>
       <c r="E249">
-        <v>1.083473861708235</v>
+        <v>0.9826615844083101</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -4624,16 +4624,16 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.91471317477132</v>
+        <v>0.9242427605064051</v>
       </c>
       <c r="C250">
-        <v>1.061075986825535</v>
+        <v>0.9494107505079502</v>
       </c>
       <c r="D250">
-        <v>0.6642390975478015</v>
+        <v>0.844066771944205</v>
       </c>
       <c r="E250">
-        <v>1.085885120115045</v>
+        <v>0.9852063978571176</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -4641,16 +4641,16 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.9071538074563688</v>
+        <v>0.8968728722731086</v>
       </c>
       <c r="C251">
-        <v>1.053083156409613</v>
+        <v>0.9273759382154446</v>
       </c>
       <c r="D251">
-        <v>0.6505835106676587</v>
+        <v>0.7825427360498424</v>
       </c>
       <c r="E251">
-        <v>1.089625014932538</v>
+        <v>0.9940970302305402</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -4658,16 +4658,16 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.9465505536122379</v>
+        <v>0.89895261833058</v>
       </c>
       <c r="C252">
-        <v>1.050876616715584</v>
+        <v>0.9619245136584937</v>
       </c>
       <c r="D252">
-        <v>0.7431412936661981</v>
+        <v>0.753347160338697</v>
       </c>
       <c r="E252">
-        <v>1.085946222082772</v>
+        <v>1.002476630161033</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -4675,16 +4675,16 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.9610738187738879</v>
+        <v>0.922489163485141</v>
       </c>
       <c r="C253">
-        <v>1.021267744472659</v>
+        <v>0.9553799739886824</v>
       </c>
       <c r="D253">
-        <v>0.8016469097238702</v>
+        <v>0.8156440016892297</v>
       </c>
       <c r="E253">
-        <v>1.08429511545699</v>
+        <v>1.007411813170692</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -4692,16 +4692,16 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.9562630340418969</v>
+        <v>0.9339401772775331</v>
       </c>
       <c r="C254">
-        <v>1.00723609351486</v>
+        <v>0.949715052123814</v>
       </c>
       <c r="D254">
-        <v>0.8072767490338558</v>
+        <v>0.8490627562668689</v>
       </c>
       <c r="E254">
-        <v>1.075420668532473</v>
+        <v>1.010238845475856</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -4709,16 +4709,16 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.9574752992852745</v>
+        <v>0.9386018100279616</v>
       </c>
       <c r="C255">
-        <v>0.9817785297079659</v>
+        <v>0.9802229303610095</v>
       </c>
       <c r="D255">
-        <v>0.8371449494862971</v>
+        <v>0.8331480375388477</v>
       </c>
       <c r="E255">
-        <v>1.067993341450764</v>
+        <v>1.012504888494043</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -4726,16 +4726,16 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.9394745155765042</v>
+        <v>0.9467735206343211</v>
       </c>
       <c r="C256">
-        <v>0.967062956451443</v>
+        <v>0.9733152014028394</v>
       </c>
       <c r="D256">
-        <v>0.8069508597272198</v>
+        <v>0.8584192461811133</v>
       </c>
       <c r="E256">
-        <v>1.062559295502042</v>
+        <v>1.015746551970115</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -4743,16 +4743,16 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.9393916011330187</v>
+        <v>0.9542003730253322</v>
       </c>
       <c r="C257">
-        <v>0.9218016745697571</v>
+        <v>0.9573641923406113</v>
       </c>
       <c r="D257">
-        <v>0.8491092373559394</v>
+        <v>0.8899974696427813</v>
       </c>
       <c r="E257">
-        <v>1.059104859094635</v>
+        <v>1.01965392255367</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -4760,16 +4760,16 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.9555760251090134</v>
+        <v>0.9865608854349882</v>
       </c>
       <c r="C258">
-        <v>0.9081783644753477</v>
+        <v>1.014472656910037</v>
       </c>
       <c r="D258">
-        <v>0.9084266006288607</v>
+        <v>0.9341162193527858</v>
       </c>
       <c r="E258">
-        <v>1.057632385372338</v>
+        <v>1.013282213869496</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -4777,16 +4777,16 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.9477376119317611</v>
+        <v>0.9592268452182574</v>
       </c>
       <c r="C259">
-        <v>0.9098992364146405</v>
+        <v>1.022183506083702</v>
       </c>
       <c r="D259">
-        <v>0.8880215752584163</v>
+        <v>0.8502390359436873</v>
       </c>
       <c r="E259">
-        <v>1.053531514107328</v>
+        <v>1.015533056090671</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -4794,16 +4794,16 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.9309081945976631</v>
+        <v>0.9330538970367858</v>
       </c>
       <c r="C260">
-        <v>0.8929671736840837</v>
+        <v>0.9997903954700311</v>
       </c>
       <c r="D260">
-        <v>0.8581148261362287</v>
+        <v>0.8007668245131468</v>
       </c>
       <c r="E260">
-        <v>1.052784931562125</v>
+        <v>1.014624069721272</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -4811,16 +4811,16 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.9142515979985569</v>
+        <v>0.9611305392932813</v>
       </c>
       <c r="C261">
-        <v>0.8998563801450237</v>
+        <v>0.981208090889483</v>
       </c>
       <c r="D261">
-        <v>0.8101064273092005</v>
+        <v>0.8936926883541155</v>
       </c>
       <c r="E261">
-        <v>1.048291118330603</v>
+        <v>1.012506465602274</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -4828,16 +4828,16 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.9113817065755171</v>
+        <v>0.9773242863680931</v>
       </c>
       <c r="C262">
-        <v>0.9077612470082665</v>
+        <v>0.9844763941308435</v>
       </c>
       <c r="D262">
-        <v>0.7935048000743599</v>
+        <v>0.9411082520746772</v>
       </c>
       <c r="E262">
-        <v>1.050944361807113</v>
+        <v>1.007560619138814</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -4845,16 +4845,16 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.9130043307298797</v>
+        <v>0.9854863346946608</v>
       </c>
       <c r="C263">
-        <v>0.9033304828513858</v>
+        <v>0.9541404529319543</v>
       </c>
       <c r="D263">
-        <v>0.7989694284968468</v>
+        <v>0.9969166412590453</v>
       </c>
       <c r="E263">
-        <v>1.054488104819748</v>
+        <v>1.006191547478285</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -4862,16 +4862,16 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.8996630069860473</v>
+        <v>0.9602378637915028</v>
       </c>
       <c r="C264">
-        <v>0.920180093134799</v>
+        <v>0.9273281517783512</v>
       </c>
       <c r="D264">
-        <v>0.7451627848811846</v>
+        <v>0.9492154831704985</v>
       </c>
       <c r="E264">
-        <v>1.061978192868527</v>
+        <v>1.005861586486824</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -4879,16 +4879,16 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.914577864281631</v>
+        <v>0.9470184608182186</v>
       </c>
       <c r="C265">
-        <v>0.9487288351529728</v>
+        <v>0.9344109759998482</v>
       </c>
       <c r="D265">
-        <v>0.7610316153067599</v>
+        <v>0.9018492595134738</v>
       </c>
       <c r="E265">
-        <v>1.059539758984823</v>
+        <v>1.007867522968709</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -4896,16 +4896,16 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.889268802914925</v>
+        <v>0.9838964463545355</v>
       </c>
       <c r="C266">
-        <v>0.9477675621689488</v>
+        <v>0.9669260136623902</v>
       </c>
       <c r="D266">
-        <v>0.6981468426360146</v>
+        <v>0.9742192863662745</v>
       </c>
       <c r="E266">
-        <v>1.062797566706557</v>
+        <v>1.01110954127465</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -4913,16 +4913,16 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.8779813435886273</v>
+        <v>0.9999357117412291</v>
       </c>
       <c r="C267">
-        <v>0.9583235843357002</v>
+        <v>0.9576183724671161</v>
       </c>
       <c r="D267">
-        <v>0.6634051552797851</v>
+        <v>1.03113607438916</v>
       </c>
       <c r="E267">
-        <v>1.064547009878948</v>
+        <v>1.012529736297888</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -4930,16 +4930,16 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.8895753968678515</v>
+        <v>0.9979446772298757</v>
       </c>
       <c r="C268">
-        <v>0.9526953767338218</v>
+        <v>0.9643249679616275</v>
       </c>
       <c r="D268">
-        <v>0.6920003784622731</v>
+        <v>1.017180229257086</v>
       </c>
       <c r="E268">
-        <v>1.067795040779292</v>
+        <v>1.013206754888932</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -4947,16 +4947,16 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.8821490582826692</v>
+        <v>1.015792499796835</v>
       </c>
       <c r="C269">
-        <v>0.9417545445408849</v>
+        <v>0.9601185633537418</v>
       </c>
       <c r="D269">
-        <v>0.68317011447373</v>
+        <v>1.074672377086747</v>
       </c>
       <c r="E269">
-        <v>1.066987521062907</v>
+        <v>1.0158136697968</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -4964,16 +4964,16 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.8954065878114567</v>
+        <v>1.00579912688762</v>
       </c>
       <c r="C270">
-        <v>0.9291798735348219</v>
+        <v>0.9624186298371852</v>
       </c>
       <c r="D270">
-        <v>0.7203207503110731</v>
+        <v>1.047539995235619</v>
       </c>
       <c r="E270">
-        <v>1.072593438875329</v>
+        <v>1.009250860296117</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -4981,16 +4981,16 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.8753938996108442</v>
+        <v>1.042176447137032</v>
       </c>
       <c r="C271">
-        <v>0.9359611040359416</v>
+        <v>0.968589932505858</v>
       </c>
       <c r="D271">
-        <v>0.6620042249931211</v>
+        <v>1.162463946057822</v>
       </c>
       <c r="E271">
-        <v>1.08265973474524</v>
+        <v>1.005319992423347</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -4998,16 +4998,16 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.8806690724410782</v>
+        <v>1.034792946285882</v>
       </c>
       <c r="C272">
-        <v>0.9366906652067617</v>
+        <v>0.9439967726574426</v>
       </c>
       <c r="D272">
-        <v>0.6708025967623686</v>
+        <v>1.165321724905471</v>
       </c>
       <c r="E272">
-        <v>1.087044461135993</v>
+        <v>1.007265656169006</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5015,16 +5015,16 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.8872523460383106</v>
+        <v>1.017150562664606</v>
       </c>
       <c r="C273">
-        <v>0.9373731832950144</v>
+        <v>0.9420802684446409</v>
       </c>
       <c r="D273">
-        <v>0.6855401226149607</v>
+        <v>1.110916368236292</v>
       </c>
       <c r="E273">
-        <v>1.086916211490168</v>
+        <v>1.005510146966981</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5032,16 +5032,16 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.8768959045651507</v>
+        <v>1.003194789762117</v>
       </c>
       <c r="C274">
-        <v>0.9305264547007086</v>
+        <v>0.9514142436587972</v>
       </c>
       <c r="D274">
-        <v>0.6692161066874939</v>
+        <v>1.057998746032549</v>
       </c>
       <c r="E274">
-        <v>1.082801916357235</v>
+        <v>1.003000158912625</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -5049,16 +5049,16 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.8584291794630203</v>
+        <v>0.9603700186567115</v>
       </c>
       <c r="C275">
-        <v>0.9261801175991276</v>
+        <v>0.945012547207939</v>
       </c>
       <c r="D275">
-        <v>0.6320434298999444</v>
+        <v>0.9365413894029473</v>
       </c>
       <c r="E275">
-        <v>1.080615120075902</v>
+        <v>1.000809065417935</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -5066,16 +5066,16 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.8482285209016767</v>
+        <v>0.9315409848180779</v>
       </c>
       <c r="C276">
-        <v>0.9242020709055426</v>
+        <v>0.9456277465338696</v>
       </c>
       <c r="D276">
-        <v>0.6112092309514</v>
+        <v>0.8600741707787561</v>
       </c>
       <c r="E276">
-        <v>1.080393024105399</v>
+        <v>0.9939162462412551</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -5083,16 +5083,16 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.8323289979742607</v>
+        <v>0.9316413842711121</v>
       </c>
       <c r="C277">
-        <v>0.9078311404332192</v>
+        <v>0.9455083081215171</v>
       </c>
       <c r="D277">
-        <v>0.5908539405763548</v>
+        <v>0.8684257287648667</v>
       </c>
       <c r="E277">
-        <v>1.07497871324365</v>
+        <v>0.9848005555754885</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -5100,16 +5100,16 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.8613972302087138</v>
+        <v>0.937098494514393</v>
       </c>
       <c r="C278">
-        <v>0.9412224815233069</v>
+        <v>0.9818931863419489</v>
       </c>
       <c r="D278">
-        <v>0.6332014642819375</v>
+        <v>0.8575472315256533</v>
       </c>
       <c r="E278">
-        <v>1.072447918067731</v>
+        <v>0.9773124357507742</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -5117,16 +5117,16 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.9158778239803256</v>
+        <v>0.970836577441322</v>
       </c>
       <c r="C279">
-        <v>0.9324243863839156</v>
+        <v>0.9897583554308098</v>
       </c>
       <c r="D279">
-        <v>0.7681918988179238</v>
+        <v>0.949274875998647</v>
       </c>
       <c r="E279">
-        <v>1.072578987492012</v>
+        <v>0.9739064187178261</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -5134,16 +5134,16 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.9051866552875171</v>
+        <v>0.9924094653560435</v>
       </c>
       <c r="C280">
-        <v>0.9410349792452367</v>
+        <v>1.000274714256161</v>
       </c>
       <c r="D280">
-        <v>0.7368016428987949</v>
+        <v>1.002468686122241</v>
       </c>
       <c r="E280">
-        <v>1.06969034468662</v>
+        <v>0.9747260824324816</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -5151,16 +5151,16 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.9018854327723606</v>
+        <v>0.973676730197473</v>
       </c>
       <c r="C281">
-        <v>0.9441068932216169</v>
+        <v>0.9758056993528116</v>
       </c>
       <c r="D281">
-        <v>0.7276414195846627</v>
+        <v>0.9700956414881019</v>
       </c>
       <c r="E281">
-        <v>1.067862991925138</v>
+        <v>0.975138872257908</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -5168,16 +5168,16 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.921163262004008</v>
+        <v>0.9486173198434352</v>
       </c>
       <c r="C282">
-        <v>0.9698441144182377</v>
+        <v>0.9443299535285309</v>
       </c>
       <c r="D282">
-        <v>0.7547095970227086</v>
+        <v>0.9295270712801479</v>
       </c>
       <c r="E282">
-        <v>1.06789368891036</v>
+        <v>0.9724949195604582</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -5185,16 +5185,16 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.9388295385043475</v>
+        <v>0.9083227017994737</v>
       </c>
       <c r="C283">
-        <v>0.983695360197494</v>
+        <v>0.9316669515887622</v>
       </c>
       <c r="D283">
-        <v>0.7873991470178158</v>
+        <v>0.8286950664955335</v>
       </c>
       <c r="E283">
-        <v>1.068328153039843</v>
+        <v>0.9706553718983297</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -5202,16 +5202,16 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.9532754825027092</v>
+        <v>0.8999751007215179</v>
       </c>
       <c r="C284">
-        <v>0.9737068053772536</v>
+        <v>0.9710002686417256</v>
       </c>
       <c r="D284">
-        <v>0.8345926160156345</v>
+        <v>0.7731246959737106</v>
       </c>
       <c r="E284">
-        <v>1.065988518368814</v>
+        <v>0.9710075039936608</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -5219,16 +5219,16 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.9560557979891541</v>
+        <v>0.8955375677270008</v>
       </c>
       <c r="C285">
-        <v>0.9897748736761262</v>
+        <v>0.9534827307786091</v>
       </c>
       <c r="D285">
-        <v>0.8265457373218027</v>
+        <v>0.7784276214467332</v>
       </c>
       <c r="E285">
-        <v>1.068184824400522</v>
+        <v>0.9676545834109445</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -5236,16 +5236,16 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.997290609396514</v>
+        <v>0.923199707805152</v>
       </c>
       <c r="C286">
-        <v>1.003816625785088</v>
+        <v>0.9550724955285088</v>
       </c>
       <c r="D286">
-        <v>0.9194949387493263</v>
+        <v>0.8566823275000319</v>
       </c>
       <c r="E286">
-        <v>1.074636188954178</v>
+        <v>0.9616805418380056</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -5253,16 +5253,16 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>1.01669572823208</v>
+        <v>0.9297645160088073</v>
       </c>
       <c r="C287">
-        <v>1.001377874602103</v>
+        <v>0.9309061222818478</v>
       </c>
       <c r="D287">
-        <v>0.9730282425906054</v>
+        <v>0.8989927530237173</v>
       </c>
       <c r="E287">
-        <v>1.078573036263133</v>
+        <v>0.9604103358873525</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -5270,16 +5270,16 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>1.035800128573375</v>
+        <v>0.9177584654399875</v>
       </c>
       <c r="C288">
-        <v>1.008967081740643</v>
+        <v>0.9379735285076622</v>
       </c>
       <c r="D288">
-        <v>1.025199617626595</v>
+        <v>0.8574923108307877</v>
       </c>
       <c r="E288">
-        <v>1.07434173949968</v>
+        <v>0.9610907139995454</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -5287,16 +5287,16 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>1.053234675500897</v>
+        <v>0.9260008915987747</v>
       </c>
       <c r="C289">
-        <v>0.9885140633698251</v>
+        <v>0.9402563870515799</v>
       </c>
       <c r="D289">
-        <v>1.096245351520724</v>
+        <v>0.8753466032775038</v>
       </c>
       <c r="E289">
-        <v>1.078164007311873</v>
+        <v>0.9647346373052504</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -5304,16 +5304,16 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>1.031206039674646</v>
+        <v>0.9176761660315693</v>
       </c>
       <c r="C290">
-        <v>0.9784032454349902</v>
+        <v>0.9352543667570423</v>
       </c>
       <c r="D290">
-        <v>1.03243167147584</v>
+        <v>0.8599301641235417</v>
       </c>
       <c r="E290">
-        <v>1.085568269209373</v>
+        <v>0.9608938840753528</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -5321,16 +5321,16 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>1.042068789589168</v>
+        <v>0.8763607162021461</v>
       </c>
       <c r="C291">
-        <v>0.9928319227781374</v>
+        <v>0.9101013374039764</v>
       </c>
       <c r="D291">
-        <v>1.049080754221438</v>
+        <v>0.7686184206577108</v>
       </c>
       <c r="E291">
-        <v>1.086436915461269</v>
+        <v>0.9621619181156416</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -5338,16 +5338,16 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>1.056728006849108</v>
+        <v>0.8917610715747558</v>
       </c>
       <c r="C292">
-        <v>0.9835077116045714</v>
+        <v>0.9186945783759329</v>
       </c>
       <c r="D292">
-        <v>1.104607440545377</v>
+        <v>0.7980857176939836</v>
       </c>
       <c r="E292">
-        <v>1.086185296975558</v>
+        <v>0.9672190411376093</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -5355,16 +5355,16 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>1.069709308747364</v>
+        <v>0.8738835540733166</v>
       </c>
       <c r="C293">
-        <v>0.9750539980188319</v>
+        <v>0.9129988272282621</v>
       </c>
       <c r="D293">
-        <v>1.153050983897943</v>
+        <v>0.7576942580848617</v>
       </c>
       <c r="E293">
-        <v>1.088729892558743</v>
+        <v>0.9647093395873627</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -5372,16 +5372,16 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>1.069990788349521</v>
+        <v>0.8549747898212018</v>
       </c>
       <c r="C294">
-        <v>0.9871082974619729</v>
+        <v>0.9255224644139787</v>
       </c>
       <c r="D294">
-        <v>1.139031304294661</v>
+        <v>0.7025632750642269</v>
       </c>
       <c r="E294">
-        <v>1.08953115626918</v>
+        <v>0.9611419183680905</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -5389,16 +5389,16 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>1.058152458055938</v>
+        <v>0.828665647400645</v>
       </c>
       <c r="C295">
-        <v>1.011844121987766</v>
+        <v>0.9082078506027355</v>
       </c>
       <c r="D295">
-        <v>1.078036180804047</v>
+        <v>0.6518120706522648</v>
       </c>
       <c r="E295">
-        <v>1.086169955150728</v>
+        <v>0.9612367265940935</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -5406,16 +5406,16 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>1.074573290637008</v>
+        <v>0.8374372451912877</v>
       </c>
       <c r="C296">
-        <v>1.026552228594044</v>
+        <v>0.9360229257926419</v>
       </c>
       <c r="D296">
-        <v>1.110751888982938</v>
+        <v>0.6545831481772452</v>
       </c>
       <c r="E296">
-        <v>1.088203239053493</v>
+        <v>0.9585295598849388</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -5423,16 +5423,16 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>1.04966817850027</v>
+        <v>0.8518691948594402</v>
       </c>
       <c r="C297">
-        <v>1.046752028028805</v>
+        <v>0.9583368073392862</v>
       </c>
       <c r="D297">
-        <v>1.014700393635298</v>
+        <v>0.6742745774034166</v>
       </c>
       <c r="E297">
-        <v>1.08886604347915</v>
+        <v>0.9566735940398539</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -5440,16 +5440,16 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>1.033067807176243</v>
+        <v>0.8973433306314224</v>
       </c>
       <c r="C298">
-        <v>1.059201761298789</v>
+        <v>0.9570485847652368</v>
       </c>
       <c r="D298">
-        <v>0.958085236200698</v>
+        <v>0.7888975188603649</v>
       </c>
       <c r="E298">
-        <v>1.086434734976876</v>
+        <v>0.9570207240896589</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -5457,16 +5457,16 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>1.036257977391139</v>
+        <v>0.8896640321747414</v>
       </c>
       <c r="C299">
-        <v>1.103111319610126</v>
+        <v>0.9533751255809612</v>
       </c>
       <c r="D299">
-        <v>0.9312055903909531</v>
+        <v>0.7758209547570003</v>
       </c>
       <c r="E299">
-        <v>1.083275060927581</v>
+        <v>0.9520346976101854</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -5474,16 +5474,16 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>1.032508528982261</v>
+        <v>0.8897630061479873</v>
       </c>
       <c r="C300">
-        <v>1.111574859486518</v>
+        <v>0.960878892262754</v>
       </c>
       <c r="D300">
-        <v>0.9194967302174865</v>
+        <v>0.7725095537115779</v>
       </c>
       <c r="E300">
-        <v>1.076941315543225</v>
+        <v>0.9489657162273348</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -5491,16 +5491,16 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>1.013175790416266</v>
+        <v>0.9102112293646951</v>
       </c>
       <c r="C301">
-        <v>1.088391416893628</v>
+        <v>0.9686708223952374</v>
       </c>
       <c r="D301">
-        <v>0.8939889729713173</v>
+        <v>0.8171964349086399</v>
       </c>
       <c r="E301">
-        <v>1.068900158409298</v>
+        <v>0.9526291918554107</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -5508,16 +5508,16 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.9794924741315012</v>
+        <v>0.9089666159665929</v>
       </c>
       <c r="C302">
-        <v>1.071304193324098</v>
+        <v>0.983790708385791</v>
       </c>
       <c r="D302">
-        <v>0.8269916380052983</v>
+        <v>0.7973545701738556</v>
       </c>
       <c r="E302">
-        <v>1.060692229538985</v>
+        <v>0.9573915602133688</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -5525,16 +5525,16 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.9663668783683371</v>
+        <v>0.8949584443120122</v>
       </c>
       <c r="C303">
-        <v>1.058148799205763</v>
+        <v>0.97046434733415</v>
       </c>
       <c r="D303">
-        <v>0.8011477471932754</v>
+        <v>0.7716075761985758</v>
       </c>
       <c r="E303">
-        <v>1.064551680416468</v>
+        <v>0.9572657977036089</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -5542,16 +5542,16 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.9546947380764338</v>
+        <v>0.8719954011838094</v>
       </c>
       <c r="C304">
-        <v>1.095030176242967</v>
+        <v>0.9535015108425799</v>
       </c>
       <c r="D304">
-        <v>0.7464258898457301</v>
+        <v>0.727299361815711</v>
       </c>
       <c r="E304">
-        <v>1.064586132745952</v>
+        <v>0.9561102883862029</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -5559,16 +5559,16 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.9621889743024769</v>
+        <v>0.8642247637252424</v>
       </c>
       <c r="C305">
-        <v>1.073539918507327</v>
+        <v>0.9138062561634983</v>
       </c>
       <c r="D305">
-        <v>0.7767992564926448</v>
+        <v>0.738173084627387</v>
       </c>
       <c r="E305">
-        <v>1.068203825576718</v>
+        <v>0.9569027149158665</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -5576,16 +5576,16 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.924840703354837</v>
+        <v>0.8288477457537429</v>
       </c>
       <c r="C306">
-        <v>1.067510500380285</v>
+        <v>0.9208087808071372</v>
       </c>
       <c r="D306">
-        <v>0.6927452968851302</v>
+        <v>0.6453162953657782</v>
       </c>
       <c r="E306">
-        <v>1.069682927532401</v>
+        <v>0.9582574357821929</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -5593,16 +5593,16 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.8953415196870156</v>
+        <v>0.8040665521391936</v>
       </c>
       <c r="C307">
-        <v>1.064660848871794</v>
+        <v>0.9298320100649033</v>
       </c>
       <c r="D307">
-        <v>0.630419690030821</v>
+        <v>0.5822962158303646</v>
       </c>
       <c r="E307">
-        <v>1.06936291895788</v>
+        <v>0.9601244490459605</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -5610,16 +5610,16 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.9299016089844412</v>
+        <v>0.7855131924442804</v>
       </c>
       <c r="C308">
-        <v>1.06790318932047</v>
+        <v>0.9242753759049507</v>
       </c>
       <c r="D308">
-        <v>0.7061664913970724</v>
+        <v>0.5435008927410766</v>
       </c>
       <c r="E308">
-        <v>1.066281828639948</v>
+        <v>0.9648477870843637</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -5627,16 +5627,16 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.9296165807645022</v>
+        <v>0.8111766114413642</v>
       </c>
       <c r="C309">
-        <v>1.051532067934893</v>
+        <v>0.9257990921382105</v>
       </c>
       <c r="D309">
-        <v>0.7186333927284421</v>
+        <v>0.5951972116900448</v>
       </c>
       <c r="E309">
-        <v>1.063118482288777</v>
+        <v>0.9686538792205639</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -5644,16 +5644,16 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.9195317069899427</v>
+        <v>0.8207608856636526</v>
       </c>
       <c r="C310">
-        <v>1.050684409143348</v>
+        <v>0.9140142130352273</v>
       </c>
       <c r="D310">
-        <v>0.6978405334815138</v>
+        <v>0.6308398781737345</v>
       </c>
       <c r="E310">
-        <v>1.060404709112287</v>
+        <v>0.9589100404316824</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -5661,16 +5661,16 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.9003695869267205</v>
+        <v>0.7928709669506454</v>
       </c>
       <c r="C311">
-        <v>1.035259075522141</v>
+        <v>0.9007532624543717</v>
       </c>
       <c r="D311">
-        <v>0.664079040583344</v>
+        <v>0.5837078627252532</v>
       </c>
       <c r="E311">
-        <v>1.061679986280372</v>
+        <v>0.947995244429836</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -5678,16 +5678,16 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.927482503342366</v>
+        <v>0.7751122797190331</v>
       </c>
       <c r="C312">
-        <v>1.027919257304042</v>
+        <v>0.9171031489399443</v>
       </c>
       <c r="D312">
-        <v>0.7337347052126862</v>
+        <v>0.5356872171849002</v>
       </c>
       <c r="E312">
-        <v>1.057837875867225</v>
+        <v>0.9479040612259463</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -5695,16 +5695,16 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.909429984794548</v>
+        <v>0.7610911129966021</v>
       </c>
       <c r="C313">
-        <v>1.01464711357541</v>
+        <v>0.9176553106759118</v>
       </c>
       <c r="D313">
-        <v>0.7046242569271529</v>
+        <v>0.5064865746048212</v>
       </c>
       <c r="E313">
-        <v>1.052047124268487</v>
+        <v>0.9485548134947078</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -5712,16 +5712,16 @@
         <v>312</v>
       </c>
       <c r="B314">
-        <v>0.9160984468845224</v>
+        <v>0.7689612576892477</v>
       </c>
       <c r="C314">
-        <v>1.03687363676978</v>
+        <v>0.8949847238798123</v>
       </c>
       <c r="D314">
-        <v>0.7094494121585306</v>
+        <v>0.5361885811982656</v>
       </c>
       <c r="E314">
-        <v>1.045151323854214</v>
+        <v>0.9475021297680305</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -5729,16 +5729,16 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.9222600697466655</v>
+        <v>0.7795155798361757</v>
       </c>
       <c r="C315">
-        <v>1.04888623005057</v>
+        <v>0.8910795134675766</v>
       </c>
       <c r="D315">
-        <v>0.719869929404037</v>
+        <v>0.5617980807218365</v>
       </c>
       <c r="E315">
-        <v>1.038909699444417</v>
+        <v>0.9461885510722039</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -5746,16 +5746,16 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.9250752750986293</v>
+        <v>0.7695541880453105</v>
       </c>
       <c r="C316">
-        <v>1.079213401491095</v>
+        <v>0.8890815506721749</v>
       </c>
       <c r="D316">
-        <v>0.7074466790387443</v>
+        <v>0.5428497943369536</v>
       </c>
       <c r="E316">
-        <v>1.036884013542131</v>
+        <v>0.9442703262160255</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -5763,16 +5763,16 @@
         <v>315</v>
       </c>
       <c r="B317">
-        <v>0.9062034896494522</v>
+        <v>0.7518389741411873</v>
       </c>
       <c r="C317">
-        <v>1.083551820425605</v>
+        <v>0.8723580203900703</v>
       </c>
       <c r="D317">
-        <v>0.6676653382697029</v>
+        <v>0.5144533896693813</v>
       </c>
       <c r="E317">
-        <v>1.028652472094299</v>
+        <v>0.9469645338799091</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -5780,16 +5780,16 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.89192556209181</v>
+        <v>0.7813898406491777</v>
       </c>
       <c r="C318">
-        <v>1.08113994624671</v>
+        <v>0.8756686531210679</v>
       </c>
       <c r="D318">
-        <v>0.6421502059163584</v>
+        <v>0.5758962789726558</v>
       </c>
       <c r="E318">
-        <v>1.022038584955454</v>
+        <v>0.9460611432480976</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -5797,16 +5797,16 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.8794888000437269</v>
+        <v>0.7784737876103426</v>
       </c>
       <c r="C319">
-        <v>1.09398832051174</v>
+        <v>0.8820032913116012</v>
       </c>
       <c r="D319">
-        <v>0.6119017377974992</v>
+        <v>0.562349250205743</v>
       </c>
       <c r="E319">
-        <v>1.016240661324497</v>
+        <v>0.9511645489019469</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -5814,16 +5814,16 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.90037570477308</v>
+        <v>0.7933542971780299</v>
       </c>
       <c r="C320">
-        <v>1.100304279555669</v>
+        <v>0.9430061234576569</v>
       </c>
       <c r="D320">
-        <v>0.65463691806777</v>
+        <v>0.5564146285884793</v>
       </c>
       <c r="E320">
-        <v>1.013346583226994</v>
+        <v>0.951674610414836</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -5831,16 +5831,16 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.9131412088528343</v>
+        <v>0.8116149399049213</v>
       </c>
       <c r="C321">
-        <v>1.101968678261592</v>
+        <v>0.9802782795405338</v>
       </c>
       <c r="D321">
-        <v>0.6826943007077814</v>
+        <v>0.5752098319615677</v>
       </c>
       <c r="E321">
-        <v>1.012088055113221</v>
+        <v>0.948144254425168</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -5848,16 +5848,16 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.9058210957558566</v>
+        <v>0.8032599582950989</v>
       </c>
       <c r="C322">
-        <v>1.089522373339473</v>
+        <v>1.026522263345396</v>
       </c>
       <c r="D322">
-        <v>0.6786927435924792</v>
+        <v>0.5325076792803276</v>
       </c>
       <c r="E322">
-        <v>1.005120043726608</v>
+        <v>0.9481435764935431</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -5865,16 +5865,16 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.8768499521674518</v>
+        <v>0.8060253473068102</v>
       </c>
       <c r="C323">
-        <v>1.055937002191461</v>
+        <v>1.02856055087935</v>
       </c>
       <c r="D323">
-        <v>0.6389967063656384</v>
+        <v>0.5344158369105014</v>
       </c>
       <c r="E323">
-        <v>0.9991696171933696</v>
+        <v>0.9526577725641321</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -5882,16 +5882,16 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.8810300961379275</v>
+        <v>0.8291393975643953</v>
       </c>
       <c r="C324">
-        <v>1.026325089808462</v>
+        <v>1.042885625914933</v>
       </c>
       <c r="D324">
-        <v>0.6657598103537494</v>
+        <v>0.5720736989265445</v>
       </c>
       <c r="E324">
-        <v>1.000851655953402</v>
+        <v>0.9554192599598579</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -5899,16 +5899,16 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.8775224110411121</v>
+        <v>0.812465638320227</v>
       </c>
       <c r="C325">
-        <v>0.9827997023466234</v>
+        <v>1.037304257760931</v>
       </c>
       <c r="D325">
-        <v>0.6896579241690133</v>
+        <v>0.5423576459473647</v>
       </c>
       <c r="E325">
-        <v>0.9969557976416104</v>
+        <v>0.9532857027531479</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -5916,16 +5916,16 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.8805890980982776</v>
+        <v>0.7997570358060032</v>
       </c>
       <c r="C326">
-        <v>0.9619605278717838</v>
+        <v>1.051883306452952</v>
       </c>
       <c r="D326">
-        <v>0.7079473257753652</v>
+        <v>0.5098999950593888</v>
       </c>
       <c r="E326">
-        <v>1.00267853056264</v>
+        <v>0.9537216418122682</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -5933,16 +5933,16 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.8611431152013379</v>
+        <v>0.8299590734117376</v>
       </c>
       <c r="C327">
-        <v>0.9712381820499236</v>
+        <v>1.050367200124352</v>
       </c>
       <c r="D327">
-        <v>0.6570012533227062</v>
+        <v>0.5678092744654364</v>
       </c>
       <c r="E327">
-        <v>1.000769488042425</v>
+        <v>0.9585756616569914</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -5950,16 +5950,16 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.8515645168361088</v>
+        <v>0.818497898753266</v>
       </c>
       <c r="C328">
-        <v>0.9370655753893316</v>
+        <v>1.037702041165993</v>
       </c>
       <c r="D328">
-        <v>0.6578695500416821</v>
+        <v>0.5463775263519705</v>
       </c>
       <c r="E328">
-        <v>1.001712058318696</v>
+        <v>0.9671352393386958</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -5967,16 +5967,16 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.8462530751606386</v>
+        <v>0.8355398018613465</v>
       </c>
       <c r="C329">
-        <v>0.9324766259731603</v>
+        <v>1.049683227557137</v>
       </c>
       <c r="D329">
-        <v>0.6526916861866879</v>
+        <v>0.5647886291490162</v>
       </c>
       <c r="E329">
-        <v>0.9957601556961867</v>
+        <v>0.9839141947377121</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -5984,16 +5984,16 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.8668388241203847</v>
+        <v>0.833929317409249</v>
       </c>
       <c r="C330">
-        <v>0.9190284488674434</v>
+        <v>1.053508432021477</v>
       </c>
       <c r="D330">
-        <v>0.7131002046186572</v>
+        <v>0.5552629031714388</v>
       </c>
       <c r="E330">
-        <v>0.9938836508110975</v>
+        <v>0.991404876478255</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -6001,16 +6001,16 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.8786721429155561</v>
+        <v>0.8443149800799966</v>
       </c>
       <c r="C331">
-        <v>0.9164059098355251</v>
+        <v>1.081083974570982</v>
       </c>
       <c r="D331">
-        <v>0.7420659115851354</v>
+        <v>0.5577403591700991</v>
       </c>
       <c r="E331">
-        <v>0.9975856899483069</v>
+        <v>0.9982101522010104</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -6018,16 +6018,16 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.8870597380252297</v>
+        <v>0.8513962305204625</v>
       </c>
       <c r="C332">
-        <v>0.9202118403478454</v>
+        <v>1.085640875259451</v>
       </c>
       <c r="D332">
-        <v>0.7579087721584761</v>
+        <v>0.5681906544458331</v>
       </c>
       <c r="E332">
-        <v>1.000815108513809</v>
+        <v>1.000494939767668</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -6035,16 +6035,16 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.9056804012883582</v>
+        <v>0.8890677339652509</v>
       </c>
       <c r="C333">
-        <v>0.9702984263753416</v>
+        <v>1.092634973950715</v>
       </c>
       <c r="D333">
-        <v>0.7624308136805371</v>
+        <v>0.6442952105960527</v>
       </c>
       <c r="E333">
-        <v>1.004197515111548</v>
+        <v>0.9982620165528142</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -6052,16 +6052,16 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.9481513960321629</v>
+        <v>0.9143866787045999</v>
       </c>
       <c r="C334">
-        <v>0.9851619366470346</v>
+        <v>1.067895119283054</v>
       </c>
       <c r="D334">
-        <v>0.8647787734992077</v>
+        <v>0.7210216390268642</v>
       </c>
       <c r="E334">
-        <v>1.000507668330078</v>
+        <v>0.9929165983612167</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -6069,16 +6069,16 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.9735371875890354</v>
+        <v>0.8978929971036034</v>
       </c>
       <c r="C335">
-        <v>0.9981008656634638</v>
+        <v>1.082313770157498</v>
       </c>
       <c r="D335">
-        <v>0.9261782276464661</v>
+        <v>0.6744149457758187</v>
       </c>
       <c r="E335">
-        <v>0.9981335113940712</v>
+        <v>0.991729845078095</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -6086,16 +6086,16 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.977136320435719</v>
+        <v>0.8712134648475442</v>
       </c>
       <c r="C336">
-        <v>1.027627384286329</v>
+        <v>1.057880134482706</v>
       </c>
       <c r="D336">
-        <v>0.9024800226732762</v>
+        <v>0.6249530208697278</v>
       </c>
       <c r="E336">
-        <v>1.005986617309957</v>
+        <v>1.000207031635832</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -6103,16 +6103,16 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.9796865288035826</v>
+        <v>0.87523071097589</v>
       </c>
       <c r="C337">
-        <v>1.017143518495068</v>
+        <v>1.056775235928846</v>
       </c>
       <c r="D337">
-        <v>0.9093544724805253</v>
+        <v>0.6255931468320174</v>
       </c>
       <c r="E337">
-        <v>1.016590310147446</v>
+        <v>1.014128608946645</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -6120,16 +6120,16 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.9683814479978775</v>
+        <v>0.8685959919204721</v>
       </c>
       <c r="C338">
-        <v>1.019874495145356</v>
+        <v>1.061614647987734</v>
       </c>
       <c r="D338">
-        <v>0.8753096615300475</v>
+        <v>0.6027070627335896</v>
       </c>
       <c r="E338">
-        <v>1.01725756659768</v>
+        <v>1.024189407921429</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -6137,16 +6137,16 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.9925093207148069</v>
+        <v>0.8650961843305751</v>
       </c>
       <c r="C339">
-        <v>1.034157329732373</v>
+        <v>1.059167726428351</v>
       </c>
       <c r="D339">
-        <v>0.9312538670039164</v>
+        <v>0.5914589210318781</v>
       </c>
       <c r="E339">
-        <v>1.01519408395569</v>
+        <v>1.033484252932142</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -6154,16 +6154,16 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>1.001551196679169</v>
+        <v>0.8661792704348094</v>
       </c>
       <c r="C340">
-        <v>1.059004680517709</v>
+        <v>1.060108358841813</v>
       </c>
       <c r="D340">
-        <v>0.9326332453362819</v>
+        <v>0.5866181201536196</v>
       </c>
       <c r="E340">
-        <v>1.017210162644004</v>
+        <v>1.045003211114053</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -6171,16 +6171,16 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.9591136962190643</v>
+        <v>0.8952413821359245</v>
       </c>
       <c r="C341">
-        <v>1.030405021422928</v>
+        <v>1.068481836090925</v>
       </c>
       <c r="D341">
-        <v>0.8386382685965201</v>
+        <v>0.6353362593114709</v>
       </c>
       <c r="E341">
-        <v>1.021004451937755</v>
+        <v>1.056938363764484</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -6188,16 +6188,16 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.9885396354514492</v>
+        <v>0.9307031571260296</v>
       </c>
       <c r="C342">
-        <v>1.085306994631523</v>
+        <v>1.121282342990041</v>
       </c>
       <c r="D342">
-        <v>0.8673777753310646</v>
+        <v>0.6749377523119172</v>
       </c>
       <c r="E342">
-        <v>1.026174855719003</v>
+        <v>1.065258129528367</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -6205,16 +6205,16 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.9711528857130344</v>
+        <v>0.9204652608773548</v>
       </c>
       <c r="C343">
-        <v>1.070995251884667</v>
+        <v>1.104378454474819</v>
       </c>
       <c r="D343">
-        <v>0.8293566712288676</v>
+        <v>0.6640583537508638</v>
       </c>
       <c r="E343">
-        <v>1.03117868436635</v>
+        <v>1.063403383496205</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -6222,16 +6222,16 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>1.008204893097951</v>
+        <v>0.9332063366549479</v>
       </c>
       <c r="C344">
-        <v>1.040852732060543</v>
+        <v>1.126492678235958</v>
       </c>
       <c r="D344">
-        <v>0.9544273986608977</v>
+        <v>0.6779049295983497</v>
       </c>
       <c r="E344">
-        <v>1.031606851759663</v>
+        <v>1.064230917992295</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -6239,16 +6239,16 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.979630554716336</v>
+        <v>0.9004941994891039</v>
       </c>
       <c r="C345">
-        <v>1.026908085198241</v>
+        <v>1.113185260093055</v>
       </c>
       <c r="D345">
-        <v>0.8936153202488919</v>
+        <v>0.6167832517712929</v>
       </c>
       <c r="E345">
-        <v>1.024483074923648</v>
+        <v>1.063512844862839</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -6256,16 +6256,16 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.9589715247803582</v>
+        <v>0.8867324860816164</v>
       </c>
       <c r="C346">
-        <v>1.00384109231301</v>
+        <v>1.110829482557994</v>
       </c>
       <c r="D346">
-        <v>0.8655438041708616</v>
+        <v>0.5913845142588268</v>
       </c>
       <c r="E346">
-        <v>1.01499315498941</v>
+        <v>1.061354614368484</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -6273,16 +6273,16 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.9319612927448007</v>
+        <v>0.901802457392618</v>
       </c>
       <c r="C347">
-        <v>0.9710651896792711</v>
+        <v>1.095607586503132</v>
       </c>
       <c r="D347">
-        <v>0.8248675703285866</v>
+        <v>0.6349227637648156</v>
       </c>
       <c r="E347">
-        <v>1.010557453753232</v>
+        <v>1.054285696211946</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -6290,16 +6290,16 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.9112539827965046</v>
+        <v>0.9011271458526803</v>
       </c>
       <c r="C348">
-        <v>0.988310446248146</v>
+        <v>1.093960790986739</v>
       </c>
       <c r="D348">
-        <v>0.7643231039911405</v>
+        <v>0.6384452884618225</v>
       </c>
       <c r="E348">
-        <v>1.001723690904863</v>
+        <v>1.047689943422953</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -6307,16 +6307,16 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.9087959205071191</v>
+        <v>0.8994222955108766</v>
       </c>
       <c r="C349">
-        <v>1.005376524181094</v>
+        <v>1.091443719752102</v>
       </c>
       <c r="D349">
-        <v>0.7483530318790897</v>
+        <v>0.6361195077643148</v>
       </c>
       <c r="E349">
-        <v>0.9976170064593612</v>
+        <v>1.047974913081772</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -6324,16 +6324,16 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.8989571168641984</v>
+        <v>0.8975595850966224</v>
       </c>
       <c r="C350">
-        <v>0.9981076385499352</v>
+        <v>1.095608186833776</v>
       </c>
       <c r="D350">
-        <v>0.7304588658048266</v>
+        <v>0.6331151453067906</v>
       </c>
       <c r="E350">
-        <v>0.9964230859681465</v>
+        <v>1.042441988048495</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -6341,16 +6341,16 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.891166905213446</v>
+        <v>0.8844100603558619</v>
       </c>
       <c r="C351">
-        <v>1.017965040698422</v>
+        <v>1.093403293395491</v>
       </c>
       <c r="D351">
-        <v>0.697165127471538</v>
+        <v>0.6071623899805538</v>
       </c>
       <c r="E351">
-        <v>0.9972605306452684</v>
+        <v>1.042019347907445</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -6358,16 +6358,16 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.8737939308877775</v>
+        <v>0.883559262196867</v>
       </c>
       <c r="C352">
-        <v>1.022860192484603</v>
+        <v>1.103873100716967</v>
       </c>
       <c r="D352">
-        <v>0.6560137417730089</v>
+        <v>0.5997422966704095</v>
       </c>
       <c r="E352">
-        <v>0.9942551696232613</v>
+        <v>1.041893245751475</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -6375,16 +6375,16 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.8233868263185342</v>
+        <v>0.8839778162736706</v>
       </c>
       <c r="C353">
-        <v>1.002118375218328</v>
+        <v>1.1353688055677</v>
       </c>
       <c r="D353">
-        <v>0.5651617338728959</v>
+        <v>0.5837629434086117</v>
       </c>
       <c r="E353">
-        <v>0.9856437409415959</v>
+        <v>1.042198919024011</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -6392,16 +6392,16 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.8313187001916853</v>
+        <v>0.8971274927804926</v>
       </c>
       <c r="C354">
-        <v>1.024349724587903</v>
+        <v>1.163392740454523</v>
       </c>
       <c r="D354">
-        <v>0.5703398450658794</v>
+        <v>0.5934139545669879</v>
       </c>
       <c r="E354">
-        <v>0.9833784376616198</v>
+        <v>1.045871656480353</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -6409,16 +6409,16 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.8331105483859105</v>
+        <v>0.923221720551232</v>
       </c>
       <c r="C355">
-        <v>1.016646443464721</v>
+        <v>1.16159680642835</v>
       </c>
       <c r="D355">
-        <v>0.5797701154341985</v>
+        <v>0.6423931964016328</v>
       </c>
       <c r="E355">
-        <v>0.9810296390358105</v>
+        <v>1.054536699814883</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -6426,16 +6426,16 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.8677888846800026</v>
+        <v>0.9418846536197204</v>
       </c>
       <c r="C356">
-        <v>1.000615206139377</v>
+        <v>1.17844826979999</v>
       </c>
       <c r="D356">
-        <v>0.6670551377063701</v>
+        <v>0.6677499443033574</v>
       </c>
       <c r="E356">
-        <v>0.9790692645188012</v>
+        <v>1.061863710850969</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -6443,16 +6443,16 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.8702510211563181</v>
+        <v>0.9147741784957513</v>
       </c>
       <c r="C357">
-        <v>1.012236765937877</v>
+        <v>1.121172657900649</v>
       </c>
       <c r="D357">
-        <v>0.6641650864945722</v>
+        <v>0.6421566570057395</v>
       </c>
       <c r="E357">
-        <v>0.9803371827867895</v>
+        <v>1.063232404904378</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -6460,16 +6460,16 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.8717271574127675</v>
+        <v>0.913580947059795</v>
       </c>
       <c r="C358">
-        <v>0.9889772477496284</v>
+        <v>1.097338357045362</v>
       </c>
       <c r="D358">
-        <v>0.6828273846166353</v>
+        <v>0.6544664092178017</v>
       </c>
       <c r="E358">
-        <v>0.9809446379792313</v>
+        <v>1.061727777837064</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -6477,16 +6477,16 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.8577761807232734</v>
+        <v>0.8834131308277855</v>
       </c>
       <c r="C359">
-        <v>0.985519429112883</v>
+        <v>1.078461886993567</v>
       </c>
       <c r="D359">
-        <v>0.6549171020318447</v>
+        <v>0.6022421513760023</v>
       </c>
       <c r="E359">
-        <v>0.9778459128203586</v>
+        <v>1.061489249573514</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -6494,16 +6494,16 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.8532605226364168</v>
+        <v>0.8395864358781983</v>
       </c>
       <c r="C360">
-        <v>0.9986814330113469</v>
+        <v>1.063103557209883</v>
       </c>
       <c r="D360">
-        <v>0.6395505911504747</v>
+        <v>0.5291135102863667</v>
       </c>
       <c r="E360">
-        <v>0.9726197363284893</v>
+        <v>1.052135849708144</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -6511,16 +6511,16 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.8822834062453382</v>
+        <v>0.8335799050097493</v>
       </c>
       <c r="C361">
-        <v>1.027145274803196</v>
+        <v>1.064776797345508</v>
       </c>
       <c r="D361">
-        <v>0.6869877969557042</v>
+        <v>0.5204113984127716</v>
       </c>
       <c r="E361">
-        <v>0.9732926378670709</v>
+        <v>1.045288881169935</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -6528,16 +6528,16 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.8791312621365471</v>
+        <v>0.8149481586081453</v>
       </c>
       <c r="C362">
-        <v>1.013835555593355</v>
+        <v>1.080304165770099</v>
       </c>
       <c r="D362">
-        <v>0.6957103098430958</v>
+        <v>0.4808999633136757</v>
       </c>
       <c r="E362">
-        <v>0.9633081054876697</v>
+        <v>1.041811515805267</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -6545,16 +6545,16 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.8604384698298689</v>
+        <v>0.8222674263631944</v>
       </c>
       <c r="C363">
-        <v>0.9817297925808032</v>
+        <v>1.132203957179169</v>
       </c>
       <c r="D363">
-        <v>0.6770146661148589</v>
+        <v>0.4712298760933494</v>
       </c>
       <c r="E363">
-        <v>0.9584498862675037</v>
+        <v>1.042033721154126</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -6562,16 +6562,16 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.875337585526033</v>
+        <v>0.8318710568514218</v>
       </c>
       <c r="C364">
-        <v>1.000100440428399</v>
+        <v>1.1661004083795</v>
       </c>
       <c r="D364">
-        <v>0.7038511447998219</v>
+        <v>0.475111381716412</v>
       </c>
       <c r="E364">
-        <v>0.9528011888855162</v>
+        <v>1.039050512200699</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -6579,16 +6579,16 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.903253867198339</v>
+        <v>0.8371041501736065</v>
       </c>
       <c r="C365">
-        <v>1.020964640294399</v>
+        <v>1.154773527340096</v>
       </c>
       <c r="D365">
-        <v>0.7620690028983009</v>
+        <v>0.4878673882010158</v>
       </c>
       <c r="E365">
-        <v>0.947162490195598</v>
+        <v>1.041213708841206</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -6596,16 +6596,16 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.91785748782083</v>
+        <v>0.8531593872059871</v>
       </c>
       <c r="C366">
-        <v>1.015990119242324</v>
+        <v>1.143516693154441</v>
       </c>
       <c r="D366">
-        <v>0.8092784736954501</v>
+        <v>0.5171926885913823</v>
       </c>
       <c r="E366">
-        <v>0.9404555910881273</v>
+        <v>1.050015319236626</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -6613,16 +6613,16 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.8879955750823464</v>
+        <v>0.9015297541878143</v>
       </c>
       <c r="C367">
-        <v>1.006594397880125</v>
+        <v>1.120720289408862</v>
       </c>
       <c r="D367">
-        <v>0.7397035547255572</v>
+        <v>0.6205611140688644</v>
       </c>
       <c r="E367">
-        <v>0.9404163913854497</v>
+        <v>1.053557885183349</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -6630,16 +6630,16 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.8922609677067362</v>
+        <v>0.8914791567100988</v>
       </c>
       <c r="C368">
-        <v>0.9941203254902534</v>
+        <v>1.13125805349339</v>
       </c>
       <c r="D368">
-        <v>0.7602990098713365</v>
+        <v>0.5954336259093957</v>
       </c>
       <c r="E368">
-        <v>0.9398364985070633</v>
+        <v>1.051813013597196</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -6647,16 +6647,16 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.9384182304504131</v>
+        <v>0.8841998473203853</v>
       </c>
       <c r="C369">
-        <v>1.012341949114836</v>
+        <v>1.147460925606787</v>
       </c>
       <c r="D369">
-        <v>0.8680827833594914</v>
+        <v>0.5718071354249445</v>
       </c>
       <c r="E369">
-        <v>0.9403746908607246</v>
+        <v>1.053571055300117</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -6664,16 +6664,16 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.926046642031961</v>
+        <v>0.8919119134001864</v>
       </c>
       <c r="C370">
-        <v>0.9973542321544663</v>
+        <v>1.123740062834608</v>
       </c>
       <c r="D370">
-        <v>0.8472701292387884</v>
+        <v>0.592551656154902</v>
       </c>
       <c r="E370">
-        <v>0.9397822831745971</v>
+        <v>1.065549952571361</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -6681,16 +6681,16 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.8903797398407367</v>
+        <v>0.8893344720289686</v>
       </c>
       <c r="C371">
-        <v>1.008205993259144</v>
+        <v>1.121669434797611</v>
       </c>
       <c r="D371">
-        <v>0.7447818714189975</v>
+        <v>0.5916241455585631</v>
       </c>
       <c r="E371">
-        <v>0.9400423857808441</v>
+        <v>1.059948107796602</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -6698,16 +6698,16 @@
         <v>370</v>
       </c>
       <c r="B372">
-        <v>0.8948699652728993</v>
+        <v>0.9140226736895377</v>
       </c>
       <c r="C372">
-        <v>1.011144675403342</v>
+        <v>1.113339302608344</v>
       </c>
       <c r="D372">
-        <v>0.7451024003918801</v>
+        <v>0.6509506890692791</v>
       </c>
       <c r="E372">
-        <v>0.9511533333620371</v>
+        <v>1.053647341941299</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -6715,16 +6715,16 @@
         <v>371</v>
       </c>
       <c r="B373">
-        <v>0.8999821073876068</v>
+        <v>0.862297809648699</v>
       </c>
       <c r="C373">
-        <v>1.033893291018224</v>
+        <v>1.077329871766986</v>
       </c>
       <c r="D373">
-        <v>0.7367930309344987</v>
+        <v>0.56389472734699</v>
       </c>
       <c r="E373">
-        <v>0.9569305051645518</v>
+        <v>1.0554194978478</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -6732,16 +6732,16 @@
         <v>372</v>
       </c>
       <c r="B374">
-        <v>0.9298777324096223</v>
+        <v>0.8485874978331857</v>
       </c>
       <c r="C374">
-        <v>1.029675562142811</v>
+        <v>1.095846433460899</v>
       </c>
       <c r="D374">
-        <v>0.8098109637391016</v>
+        <v>0.5278711337567606</v>
       </c>
       <c r="E374">
-        <v>0.9642585221942601</v>
+        <v>1.056360795786208</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -6749,16 +6749,16 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.9322209473269613</v>
+        <v>0.8595317291253856</v>
       </c>
       <c r="C375">
-        <v>1.044517988470003</v>
+        <v>1.083683234240495</v>
       </c>
       <c r="D375">
-        <v>0.8038265504359295</v>
+        <v>0.5542637979345231</v>
       </c>
       <c r="E375">
-        <v>0.9648911027290867</v>
+        <v>1.057223654212519</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -6766,16 +6766,16 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.9383696603526096</v>
+        <v>0.8849382824751502</v>
       </c>
       <c r="C376">
-        <v>1.029786973293205</v>
+        <v>1.079343749519899</v>
       </c>
       <c r="D376">
-        <v>0.8230560396039565</v>
+        <v>0.6107397586780839</v>
       </c>
       <c r="E376">
-        <v>0.974866334404948</v>
+        <v>1.051291069811054</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -6783,16 +6783,16 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.9674097305433411</v>
+        <v>0.890178667303095</v>
       </c>
       <c r="C377">
-        <v>1.039542660328741</v>
+        <v>1.08595337006549</v>
       </c>
       <c r="D377">
-        <v>0.885975362712783</v>
+        <v>0.6185697650648153</v>
       </c>
       <c r="E377">
-        <v>0.9830314049769566</v>
+        <v>1.050102473457666</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -6800,16 +6800,16 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.9899221392859822</v>
+        <v>0.8969233305930803</v>
       </c>
       <c r="C378">
-        <v>1.030969853883694</v>
+        <v>1.053313265453402</v>
       </c>
       <c r="D378">
-        <v>0.9546016464907695</v>
+        <v>0.6565815847342592</v>
       </c>
       <c r="E378">
-        <v>0.9856777792290254</v>
+        <v>1.043325233663966</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -6817,16 +6817,16 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>1.00682472262897</v>
+        <v>0.8634828116969533</v>
       </c>
       <c r="C379">
-        <v>1.050725143745334</v>
+        <v>1.014563013136319</v>
       </c>
       <c r="D379">
-        <v>0.9820147497047195</v>
+        <v>0.6088788518871951</v>
       </c>
       <c r="E379">
-        <v>0.9891325131399908</v>
+        <v>1.042200255693277</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -6834,16 +6834,16 @@
         <v>378</v>
       </c>
       <c r="B380">
-        <v>1.005422340648194</v>
+        <v>0.8538141658789472</v>
       </c>
       <c r="C380">
-        <v>1.059868131327757</v>
+        <v>0.9756488030126397</v>
       </c>
       <c r="D380">
-        <v>0.9747828949933414</v>
+        <v>0.6085560275136053</v>
       </c>
       <c r="E380">
-        <v>0.9837525242197251</v>
+        <v>1.04832509883912</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -6851,16 +6851,16 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>1.012111606843564</v>
+        <v>0.8655267449348627</v>
       </c>
       <c r="C381">
-        <v>1.073859200542048</v>
+        <v>0.9653986722832569</v>
       </c>
       <c r="D381">
-        <v>0.9800713176473984</v>
+        <v>0.6428468581284783</v>
       </c>
       <c r="E381">
-        <v>0.9850997166416928</v>
+        <v>1.044785781702447</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -6868,16 +6868,16 @@
         <v>380</v>
       </c>
       <c r="B382">
-        <v>1.050734796253342</v>
+        <v>0.8822647940252676</v>
       </c>
       <c r="C382">
-        <v>1.104110469879682</v>
+        <v>0.9853625769122202</v>
       </c>
       <c r="D382">
-        <v>1.066259910856037</v>
+        <v>0.6712114082062608</v>
       </c>
       <c r="E382">
-        <v>0.9853799808293154</v>
+        <v>1.038344471259466</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -6885,16 +6885,16 @@
         <v>381</v>
       </c>
       <c r="B383">
-        <v>1.075442589356189</v>
+        <v>0.8792657316263295</v>
       </c>
       <c r="C383">
-        <v>1.087709050411616</v>
+        <v>0.9610380003716993</v>
       </c>
       <c r="D383">
-        <v>1.164518216404335</v>
+        <v>0.6813812562456898</v>
       </c>
       <c r="E383">
-        <v>0.9819800510314703</v>
+        <v>1.03807731134507</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -6902,16 +6902,16 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>1.070145456290601</v>
+        <v>0.8855369168057342</v>
       </c>
       <c r="C384">
-        <v>1.076999182982449</v>
+        <v>0.9677272565158983</v>
       </c>
       <c r="D384">
-        <v>1.158394560181167</v>
+        <v>0.69327591557829</v>
       </c>
       <c r="E384">
-        <v>0.9823280658415717</v>
+        <v>1.035049039575046</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -6919,16 +6919,16 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>1.064051008580092</v>
+        <v>0.8905010458960738</v>
       </c>
       <c r="C385">
-        <v>1.071880278163673</v>
+        <v>0.973755202734191</v>
       </c>
       <c r="D385">
-        <v>1.155972624060121</v>
+        <v>0.7005896281092383</v>
       </c>
       <c r="E385">
-        <v>0.9722848387592173</v>
+        <v>1.03511787197927</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -6936,16 +6936,16 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>1.071037076828682</v>
+        <v>0.8513182276786405</v>
       </c>
       <c r="C386">
-        <v>1.061610098962846</v>
+        <v>0.9637001857140108</v>
       </c>
       <c r="D386">
-        <v>1.191012539561373</v>
+        <v>0.6161418006617907</v>
       </c>
       <c r="E386">
-        <v>0.9716998615593118</v>
+        <v>1.039090036509815</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -6953,16 +6953,16 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>1.100081580193478</v>
+        <v>0.850037564033239</v>
       </c>
       <c r="C387">
-        <v>1.118182020763578</v>
+        <v>0.9696875660881086</v>
       </c>
       <c r="D387">
-        <v>1.222083558983305</v>
+        <v>0.6112138927321579</v>
       </c>
       <c r="E387">
-        <v>0.9742294915979864</v>
+        <v>1.036309096295937</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -6970,16 +6970,16 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>1.111185457547752</v>
+        <v>0.8639097712750977</v>
       </c>
       <c r="C388">
-        <v>1.115640971670247</v>
+        <v>0.9388586913528798</v>
       </c>
       <c r="D388">
-        <v>1.254165552812666</v>
+        <v>0.6674457927301237</v>
       </c>
       <c r="E388">
-        <v>0.9805738868635647</v>
+        <v>1.028937338904311</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -6987,16 +6987,16 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>1.09714843662487</v>
+        <v>0.8498466433767011</v>
       </c>
       <c r="C389">
-        <v>1.100304917245713</v>
+        <v>0.9179783882782292</v>
       </c>
       <c r="D389">
-        <v>1.223850441586021</v>
+        <v>0.6528430920167192</v>
       </c>
       <c r="E389">
-        <v>0.9807419748463635</v>
+        <v>1.02418973882962</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -7004,16 +7004,16 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>1.102376363493326</v>
+        <v>0.8503530458659767</v>
       </c>
       <c r="C390">
-        <v>1.15760841810773</v>
+        <v>0.8926938227172262</v>
       </c>
       <c r="D390">
-        <v>1.181823633416337</v>
+        <v>0.6702449812552933</v>
       </c>
       <c r="E390">
-        <v>0.9792088535943755</v>
+        <v>1.027689015744637</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -7021,16 +7021,16 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>1.131510181357636</v>
+        <v>0.8832086568873423</v>
       </c>
       <c r="C391">
-        <v>1.174661335290788</v>
+        <v>0.8769559243475874</v>
       </c>
       <c r="D391">
-        <v>1.254410221813992</v>
+        <v>0.7575242231318383</v>
       </c>
       <c r="E391">
-        <v>0.9831575985343939</v>
+        <v>1.037088122787854</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -7038,16 +7038,16 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>1.101577966559409</v>
+        <v>0.8546508668181803</v>
       </c>
       <c r="C392">
-        <v>1.114058775530567</v>
+        <v>0.8656597874105714</v>
       </c>
       <c r="D392">
-        <v>1.214745201107151</v>
+        <v>0.6938405063879848</v>
       </c>
       <c r="E392">
-        <v>0.9877622538796863</v>
+        <v>1.039344012089334</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -7055,16 +7055,16 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>1.048475500494083</v>
+        <v>0.8706339189082345</v>
       </c>
       <c r="C393">
-        <v>1.113619748917174</v>
+        <v>0.9021275542386831</v>
       </c>
       <c r="D393">
-        <v>1.040986129868908</v>
+        <v>0.7020343758565857</v>
       </c>
       <c r="E393">
-        <v>0.9942440335168372</v>
+        <v>1.042030478820175</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -7072,16 +7072,16 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>1.027108471994764</v>
+        <v>0.8852326670334139</v>
       </c>
       <c r="C394">
-        <v>1.123676421100626</v>
+        <v>0.8604982173336545</v>
       </c>
       <c r="D394">
-        <v>0.96980712888138</v>
+        <v>0.7728764051336088</v>
       </c>
       <c r="E394">
-        <v>0.9943111152073347</v>
+        <v>1.043067159107384</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -7089,16 +7089,16 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>1.038152324468878</v>
+        <v>0.8997702896383919</v>
       </c>
       <c r="C395">
-        <v>1.125267259704883</v>
+        <v>0.8779902453989348</v>
       </c>
       <c r="D395">
-        <v>1.002590261673671</v>
+        <v>0.7967878591656834</v>
       </c>
       <c r="E395">
-        <v>0.9917542658202957</v>
+        <v>1.041268060471952</v>
       </c>
     </row>
   </sheetData>
